--- a/bin/Analyse_Conv_Lombaire.xlsx
+++ b/bin/Analyse_Conv_Lombaire.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0.sharepoint.com/sites/MEC8211516/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picco\Desktop\POLYMTL - H2024\MEC8211\Projet Final\MEC8211ProjetFinal\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="897" documentId="13_ncr:1_{E40C8324-4C70-454C-A95C-A510535FCCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7B4E65F-775D-42CB-A368-6B92D647BB93}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30012181-E5F4-4CAA-B083-588CB8F63D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="6090" windowHeight="4260" activeTab="1" xr2:uid="{FEC442AA-958D-4418-9C83-F98D0EC0E124}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FEC442AA-958D-4418-9C83-F98D0EC0E124}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="33">
   <si>
     <t>Déplacement axial (mm)</t>
   </si>
@@ -135,6 +135,49 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Résultats pour un maillage de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXX</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> elements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Force appliquée fixée à</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 200N</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +201,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,8 +267,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,7 +389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$41</c:f>
+              <c:f>Sheet1!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -387,7 +452,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -813,7 +878,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$41</c:f>
+              <c:f>Sheet1!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -876,7 +941,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1259,7 +1324,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$4</c:f>
+              <c:f>Sheet2!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1274,7 +1339,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$4</c:f>
+              <c:f>Sheet2!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1326,7 +1391,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$5</c:f>
+              <c:f>Sheet2!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1344,7 +1409,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$E$5</c:f>
+              <c:f>Sheet2!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1399,7 +1464,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$3:$G$7</c:f>
+              <c:f>Sheet2!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1423,7 +1488,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$3:$H$7</c:f>
+              <c:f>Sheet2!$H$4:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1484,7 +1549,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$J$3:$J$11</c:f>
+              <c:f>Sheet2!$J$4:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1520,7 +1585,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$K$3:$K$11</c:f>
+              <c:f>Sheet2!$K$4:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1593,7 +1658,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$M$3:$M$19</c:f>
+              <c:f>Sheet2!$M$4:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1653,7 +1718,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$N$3:$N$19</c:f>
+              <c:f>Sheet2!$N$4:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1750,7 +1815,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$P$3:$P$35</c:f>
+              <c:f>Sheet2!$P$4:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1858,7 +1923,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$3:$Q$35</c:f>
+              <c:f>Sheet2!$Q$4:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -2009,7 +2074,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$W$3:$W$35</c:f>
+              <c:f>Sheet2!$W$4:$W$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -2117,7 +2182,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$X$3:$X$35</c:f>
+              <c:f>Sheet2!$X$4:$X$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -2565,7 +2630,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$22:$A$27</c:f>
+              <c:f>Sheet2!$A$23:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2592,7 +2657,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$22:$F$27</c:f>
+              <c:f>Sheet2!$F$23:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2695,7 +2760,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$25:$A$27</c:f>
+              <c:f>Sheet2!$A$26:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2713,7 +2778,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$25:$F$27</c:f>
+              <c:f>Sheet2!$F$26:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2987,7 +3052,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$3:$A$4</c:f>
+              <c:f>Sheet3!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3002,7 +3067,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$3:$B$4</c:f>
+              <c:f>Sheet3!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3054,7 +3119,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$D$3:$D$5</c:f>
+              <c:f>Sheet3!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3072,7 +3137,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$E$3:$E$5</c:f>
+              <c:f>Sheet3!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3127,7 +3192,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$G$3:$G$7</c:f>
+              <c:f>Sheet3!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3151,7 +3216,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$H$3:$H$7</c:f>
+              <c:f>Sheet3!$H$4:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3212,7 +3277,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$J$3:$J$11</c:f>
+              <c:f>Sheet3!$J$4:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3248,7 +3313,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$K$3:$K$11</c:f>
+              <c:f>Sheet3!$K$4:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3321,7 +3386,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$M$3:$M$19</c:f>
+              <c:f>Sheet3!$M$4:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3381,7 +3446,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$N$3:$N$19</c:f>
+              <c:f>Sheet3!$N$4:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3478,7 +3543,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$P$3:$P$35</c:f>
+              <c:f>Sheet3!$P$4:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -3586,7 +3651,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$Q$3:$Q$35</c:f>
+              <c:f>Sheet3!$Q$4:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -3737,7 +3802,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$W$3:$W$35</c:f>
+              <c:f>Sheet3!$W$4:$W$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -3845,7 +3910,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$X$3:$X$35</c:f>
+              <c:f>Sheet3!$X$4:$X$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -4337,7 +4402,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$22:$A$27</c:f>
+              <c:f>Sheet3!$A$23:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4364,7 +4429,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$F$22:$F$27</c:f>
+              <c:f>Sheet3!$F$23:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4423,7 +4488,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$25:$A$27</c:f>
+              <c:f>Sheet3!$A$26:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4441,7 +4506,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$F$25:$F$27</c:f>
+              <c:f>Sheet3!$F$26:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9921,13 +9986,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9957,13 +10022,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9998,13 +10063,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>597832</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>33616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10034,13 +10099,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>656385</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>91607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>492218</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>167807</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10070,13 +10135,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>459444</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>179291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>437031</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>64815</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10092,8 +10157,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13495087" y="1921005"/>
-          <a:ext cx="1950623" cy="1409524"/>
+          <a:off x="13710624" y="2046191"/>
+          <a:ext cx="2004507" cy="1348564"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -10192,13 +10257,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>139575</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57158</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10214,8 +10279,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13175218" y="3366567"/>
-          <a:ext cx="2579452" cy="1099305"/>
+          <a:off x="13390755" y="3430793"/>
+          <a:ext cx="2645311" cy="1061205"/>
           <a:chOff x="12544487" y="3339353"/>
           <a:chExt cx="2572248" cy="1099305"/>
         </a:xfrm>
@@ -10319,13 +10384,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>597832</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>33616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10357,13 +10422,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>656385</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>91607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>492218</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>167807</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10395,13 +10460,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>459444</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>179291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>437031</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>64815</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10417,8 +10482,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13435856" y="1927409"/>
-          <a:ext cx="1949822" cy="1409524"/>
+          <a:off x="13736173" y="2017056"/>
+          <a:ext cx="2012576" cy="1319877"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -10517,13 +10582,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>139575</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57158</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10539,8 +10604,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13115987" y="3372971"/>
-          <a:ext cx="2572248" cy="1099305"/>
+          <a:off x="13416304" y="3372971"/>
+          <a:ext cx="2652931" cy="1041034"/>
           <a:chOff x="12544487" y="3339353"/>
           <a:chExt cx="2572248" cy="1099305"/>
         </a:xfrm>
@@ -10666,8 +10731,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7248525" y="190500"/>
-          <a:ext cx="1936375" cy="1409524"/>
+          <a:off x="7333690" y="179294"/>
+          <a:ext cx="1949822" cy="1331083"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -10829,8 +10894,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7248525" y="190500"/>
-          <a:ext cx="1936375" cy="1409524"/>
+          <a:off x="7333690" y="179294"/>
+          <a:ext cx="1949822" cy="1331083"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -11263,373 +11328,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DE5611-03F1-4658-9077-367CDAE23E78}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+10</f>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+10</f>
         <v>20</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1.1160000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A41" si="0">A3+10</f>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A42" si="0">A4+10</f>
         <v>30</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>1.696</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2.2930000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2.907</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>3.5390000000000001</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>4.1890000000000001</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>4.8579999999999997</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1.17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>5.5469999999999997</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1.331</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>6.258</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1.4970000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>6.99</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>7.7460000000000004</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1.84</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>A14+10</f>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>A15+10</f>
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>10.163</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>2.3919999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>14.77</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>3.4319999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>A23+10</f>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>A24+10</f>
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>20.260000000000002</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>4.6740000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>26.87</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>6.1989999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f>A34+10</f>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>A35+10</f>
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>34.869999999999997</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f>A39+10</f>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>A40+10</f>
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>44.48</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>10.576000000000001</v>
       </c>
     </row>
@@ -11641,923 +11713,886 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A191FB21-7128-439D-B466-52F6BCB92DCD}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="8" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="8" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="2"/>
-      <c r="T1" s="6" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="W1" s="5" t="s">
+      <c r="U2" s="6"/>
+      <c r="W2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" t="s">
+      <c r="X2" s="5"/>
+      <c r="Y2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P3" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q3" t="s">
         <v>4</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R3" t="s">
         <v>12</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T3" t="s">
         <v>15</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>1</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W3" t="s">
         <v>3</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R35" si="0">Q3-X3</f>
+      <c r="R4">
+        <f t="shared" ref="R4:R36" si="0">Q4-X4</f>
         <v>0</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T4" t="s">
         <v>16</v>
       </c>
-      <c r="U3">
+      <c r="U4">
         <v>500</v>
       </c>
-      <c r="W3">
+      <c r="W4">
         <v>0</v>
       </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X35" si="1">$U$2*W3^2*(3*$U$3-W3)/(6*$U$4*$U$5)</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X36" si="1">$U$3*W4^2*(3*$U$4-W4)/(6*$U$5*$U$6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>500</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>53.088790000000003</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>250</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>16.59721</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>125</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>4.5684089999999999</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>62.5</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>1.196231</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>31.25</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>0.30669419999999997</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <v>15.625</v>
       </c>
-      <c r="Q4">
+      <c r="Q5">
         <v>7.8063220000000003E-2</v>
       </c>
-      <c r="R4">
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>1.1603474847937667E-3</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" t="s">
+      <c r="S5" s="4"/>
+      <c r="T5" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U5" s="1">
         <v>100</v>
       </c>
-      <c r="W4">
+      <c r="W5">
         <v>15.625</v>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f t="shared" si="1"/>
         <v>7.6902872515206236E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D6">
         <v>500</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>53.088790000000003</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>250</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>16.59721</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>125</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>4.5684089999999999</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>62.5</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>1.196231</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <v>31.25</v>
       </c>
-      <c r="Q5">
+      <c r="Q6">
         <v>0.30669419999999997</v>
       </c>
-      <c r="R5">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>2.3207256240258545E-3</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" t="s">
         <v>18</v>
       </c>
-      <c r="U5">
+      <c r="U6">
         <v>7853.9814439900001</v>
       </c>
-      <c r="W5">
+      <c r="W6">
         <v>31.25</v>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f t="shared" si="1"/>
         <v>0.30437347437597412</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G6">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G7">
         <v>375</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>33.599600000000002</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>187.5</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>9.8056850000000004</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>93.75</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>2.6297549999999998</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>46.875</v>
       </c>
-      <c r="Q6">
+      <c r="Q7">
         <v>0.68103590000000003</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>3.4811179449725227E-3</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" t="s">
         <v>21</v>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>4*1/3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="W6">
+      <c r="W7">
         <v>46.875</v>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f t="shared" si="1"/>
         <v>0.6775547820550275</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G7">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G8">
         <v>500</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>53.088790000000003</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>250</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>16.59721</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>125</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>4.5684089999999999</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>62.5</v>
       </c>
-      <c r="Q7">
+      <c r="Q8">
         <v>1.196231</v>
       </c>
-      <c r="R7">
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>4.641227974909734E-3</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" t="s">
+      <c r="S8" s="4"/>
+      <c r="T8" t="s">
         <v>22</v>
       </c>
-      <c r="W7">
+      <c r="W8">
         <v>62.5</v>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f t="shared" si="1"/>
         <v>1.1915897720250903</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J8">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J9">
         <v>312.5</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>24.63213</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>156.25</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>6.9733390000000002</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>78.125</v>
       </c>
-      <c r="Q8">
+      <c r="Q9">
         <v>1.847423</v>
       </c>
-      <c r="R8">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>5.8015792411139078E-3</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" t="s">
         <v>23</v>
       </c>
-      <c r="W8">
+      <c r="W9">
         <v>78.125</v>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f t="shared" si="1"/>
         <v>1.8416214207588861</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J9">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J10">
         <v>375</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>33.599600000000002</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>187.5</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>9.8056850000000004</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>93.75</v>
       </c>
-      <c r="Q9">
+      <c r="Q10">
         <v>2.6297549999999998</v>
       </c>
-      <c r="R9">
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>6.9622952708612296E-3</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="W9">
+      <c r="S10" s="4"/>
+      <c r="W10">
         <v>93.75</v>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f t="shared" si="1"/>
         <v>2.6227927047291386</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J10">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J11">
         <v>437.5</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>43.188769999999998</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>218.75</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>13.026590000000001</v>
       </c>
-      <c r="P10">
+      <c r="P11">
         <v>109.375</v>
       </c>
-      <c r="Q10">
+      <c r="Q11">
         <v>3.53837</v>
       </c>
-      <c r="R10">
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>8.1233995914278267E-3</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="W10">
+      <c r="S11" s="4"/>
+      <c r="W11">
         <v>109.375</v>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f t="shared" si="1"/>
         <v>3.5302466004085722</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J11">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J12">
         <v>500</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>53.088790000000003</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>250</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>16.59721</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <v>125</v>
       </c>
-      <c r="Q11">
+      <c r="Q12">
         <v>4.5684089999999999</v>
       </c>
-      <c r="R11">
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>9.2829157300897691E-3</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="W11">
+      <c r="S12" s="4"/>
+      <c r="W12">
         <v>125</v>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f t="shared" si="1"/>
         <v>4.5591260842699102</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M12">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M13">
         <v>281.25</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>20.478670000000001</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>140.625</v>
       </c>
-      <c r="Q12">
+      <c r="Q13">
         <v>5.7150179999999997</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <f t="shared" si="0"/>
         <v>1.0443867214123159E-2</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="W12">
+      <c r="S13" s="4"/>
+      <c r="W13">
         <v>140.625</v>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f t="shared" si="1"/>
         <v>5.7045741327858766</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M13">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M14">
         <v>312.5</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>24.63213</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <v>156.25</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <v>6.9733390000000002</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>1.1605277570804873E-2</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="W13">
+      <c r="S14" s="4"/>
+      <c r="W14">
         <v>156.25</v>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f t="shared" si="1"/>
         <v>6.9617337224291953</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M14">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M15">
         <v>343.75</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>29.018719999999998</v>
       </c>
-      <c r="P14">
+      <c r="P15">
         <v>171.875</v>
       </c>
-      <c r="Q14">
+      <c r="Q15">
         <v>8.3385130000000007</v>
       </c>
-      <c r="R14">
+      <c r="R15">
         <f t="shared" si="0"/>
         <v>1.2765170327410758E-2</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="W14">
+      <c r="S15" s="4"/>
+      <c r="W15">
         <v>171.875</v>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f t="shared" si="1"/>
         <v>8.32574782967259</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M16">
         <v>375</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>33.599600000000002</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>187.5</v>
       </c>
-      <c r="Q15">
+      <c r="Q16">
         <v>9.8056850000000004</v>
       </c>
-      <c r="R15">
+      <c r="R16">
         <f t="shared" si="0"/>
         <v>1.3925569011215444E-2</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="W15">
+      <c r="S16" s="4"/>
+      <c r="W16">
         <v>187.5</v>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f t="shared" si="1"/>
         <v>9.791759430988785</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M16">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M17">
         <v>406.25</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <v>38.335900000000002</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <v>203.125</v>
       </c>
-      <c r="Q16">
+      <c r="Q17">
         <v>11.37</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <f t="shared" si="0"/>
         <v>1.5088497149495339E-2</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="W16">
+      <c r="S17" s="4"/>
+      <c r="W17">
         <v>203.125</v>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f t="shared" si="1"/>
         <v>11.354911502850504</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M17">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M18">
         <v>437.5</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>43.188769999999998</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>218.75</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>13.026590000000001</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <f t="shared" si="0"/>
         <v>1.624297826953125E-2</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="W17">
+      <c r="S18" s="4"/>
+      <c r="W18">
         <v>218.75</v>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f t="shared" si="1"/>
         <v>13.010347021730469</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M18">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M19">
         <v>468.75</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>48.119349999999997</v>
       </c>
-      <c r="P18">
+      <c r="P19">
         <v>234.375</v>
       </c>
-      <c r="Q18">
+      <c r="Q19">
         <v>14.770619999999999</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <f t="shared" si="0"/>
         <v>1.7411035898593497E-2</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="W18">
+      <c r="S19" s="4"/>
+      <c r="W19">
         <v>234.375</v>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f t="shared" si="1"/>
         <v>14.753208964101406</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M19">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M20">
         <v>500</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>53.088790000000003</v>
       </c>
-      <c r="P19">
+      <c r="P20">
         <v>250</v>
       </c>
-      <c r="Q19">
+      <c r="Q20">
         <v>16.59721</v>
       </c>
-      <c r="R19">
+      <c r="R20">
         <f t="shared" si="0"/>
         <v>1.8569693563961209E-2</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="W19">
+      <c r="S20" s="4"/>
+      <c r="W20">
         <v>250</v>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f t="shared" si="1"/>
         <v>16.578640306436039</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="P20">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="P21">
         <v>265.625</v>
       </c>
-      <c r="Q20">
+      <c r="Q21">
         <v>18.50151</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <f t="shared" si="0"/>
         <v>1.9725974792912382E-2</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="W20">
+      <c r="S21" s="4"/>
+      <c r="W21">
         <v>265.625</v>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f t="shared" si="1"/>
         <v>18.481784025207087</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>26</v>
       </c>
-      <c r="P21">
+      <c r="P22">
         <v>281.25</v>
       </c>
-      <c r="Q21">
+      <c r="Q22">
         <v>20.478670000000001</v>
       </c>
-      <c r="R21">
+      <c r="R22">
         <f t="shared" si="0"/>
         <v>2.0886903112717903E-2</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="W21">
+      <c r="S22" s="4"/>
+      <c r="W22">
         <v>281.25</v>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f t="shared" si="1"/>
         <v>20.457783096887283</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>500/A29</f>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>500/A30</f>
         <v>500</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>150</v>
       </c>
-      <c r="C22">
-        <f>$B$3+(B22-$A$3)*($B$4-$B$3)/($A$4-$A$3)</f>
+      <c r="C23">
+        <f>$B$4+(B23-$A$4)*($B$5-$B$4)/($A$5-$A$4)</f>
         <v>15.926637000000001</v>
       </c>
-      <c r="D22">
-        <f t="shared" ref="D22:D27" si="2">$U$2*B22^2*(3*$U$3-B22)/(6*$U$4*$U$5)</f>
+      <c r="D23">
+        <f t="shared" ref="D23:D28" si="2">$U$3*B23^2*(3*$U$4-B23)/(6*$U$5*$U$6)</f>
         <v>6.4457753511423315</v>
       </c>
-      <c r="E22">
-        <f>ABS(C22-D22)</f>
+      <c r="E23">
+        <f>ABS(C23-D23)</f>
         <v>9.4808616488576689</v>
       </c>
-      <c r="F22">
-        <f>SQRT((1/A22)*(C22-D22)^2)</f>
+      <c r="F23">
+        <f>SQRT((1/A23)*(C23-D23)^2)</f>
         <v>0.42399702264232975</v>
       </c>
-      <c r="P22">
+      <c r="P23">
         <v>296.875</v>
       </c>
-      <c r="Q22">
+      <c r="Q23">
         <v>22.52383</v>
       </c>
-      <c r="R22">
+      <c r="R23">
         <f t="shared" si="0"/>
         <v>2.2049502050656145E-2</v>
       </c>
-      <c r="S22" s="4"/>
-      <c r="W22">
+      <c r="S23" s="4"/>
+      <c r="W23">
         <v>296.875</v>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f t="shared" si="1"/>
         <v>22.501780497949344</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" ref="A23:A27" si="3">500/A30</f>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" ref="A24:A28" si="3">500/A31</f>
         <v>250</v>
-      </c>
-      <c r="B23">
-        <v>150</v>
-      </c>
-      <c r="C23">
-        <f>$E$3+(B22-$D$3)*($E$4-$E$3)/($D$4-$D$3)</f>
-        <v>9.9583260000000013</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>6.4457753511423315</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ref="E23:E27" si="4">ABS(C23-D23)</f>
-        <v>3.5125506488576699</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ref="F23:F27" si="5">SQRT((1/A23)*(C23-D23)^2)</f>
-        <v>0.22215320894185112</v>
-      </c>
-      <c r="P23">
-        <v>312.5</v>
-      </c>
-      <c r="Q23">
-        <v>24.63213</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>2.321079513400548E-2</v>
-      </c>
-      <c r="S23" s="4"/>
-      <c r="W23">
-        <v>312.5</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="1"/>
-        <v>24.608919204865995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="3"/>
-        <v>125</v>
       </c>
       <c r="B24">
         <v>150</v>
       </c>
       <c r="C24">
-        <f>H4+(B22-G4)*(H5-H4)/(G5-G4)</f>
-        <v>6.9741692000000004</v>
+        <f>$E$4+(B23-$D$4)*($E$5-$E$4)/($D$5-$D$4)</f>
+        <v>9.9583260000000013</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
         <v>6.4457753511423315</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
-        <v>0.52839384885766894</v>
+        <f t="shared" ref="E24:E28" si="4">ABS(C24-D24)</f>
+        <v>3.5125506488576699</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
-        <v>4.7260982597539893E-2</v>
+        <f t="shared" ref="F24:F28" si="5">SQRT((1/A24)*(C24-D24)^2)</f>
+        <v>0.22215320894185112</v>
       </c>
       <c r="P24">
-        <v>328.125</v>
+        <v>312.5</v>
       </c>
       <c r="Q24">
-        <v>26.79871</v>
+        <v>24.63213</v>
       </c>
       <c r="R24">
         <f t="shared" si="0"/>
-        <v>2.4367805890040728E-2</v>
+        <v>2.321079513400548E-2</v>
       </c>
       <c r="S24" s="4"/>
       <c r="W24">
-        <v>328.125</v>
+        <v>312.5</v>
       </c>
       <c r="X24">
         <f t="shared" si="1"/>
-        <v>26.774342194109959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>24.608919204865995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>125</v>
       </c>
       <c r="B25">
         <v>150</v>
       </c>
       <c r="C25">
-        <f>K5+(B22-J5)*(K6-K5)/(J6-J5)</f>
-        <v>6.6633194000000007</v>
+        <f>H5+(B23-G5)*(H6-H5)/(G6-G5)</f>
+        <v>6.9741692000000004</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
@@ -12565,42 +12600,42 @@
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>0.2175440488576692</v>
+        <v>0.52839384885766894</v>
       </c>
       <c r="F25">
         <f t="shared" si="5"/>
-        <v>2.751738743220743E-2</v>
+        <v>4.7260982597539893E-2</v>
       </c>
       <c r="P25">
-        <v>343.75</v>
+        <v>328.125</v>
       </c>
       <c r="Q25">
-        <v>29.018719999999998</v>
+        <v>26.79871</v>
       </c>
       <c r="R25">
         <f t="shared" si="0"/>
-        <v>2.5527557846036331E-2</v>
+        <v>2.4367805890040728E-2</v>
       </c>
       <c r="S25" s="4"/>
       <c r="W25">
-        <v>343.75</v>
+        <v>328.125</v>
       </c>
       <c r="X25">
         <f t="shared" si="1"/>
-        <v>28.993192442153962</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>26.774342194109959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="3"/>
-        <v>31.25</v>
+        <v>62.5</v>
       </c>
       <c r="B26">
         <v>150</v>
       </c>
       <c r="C26">
-        <f>N7+(B22-M7)*(N8-N7)/(M8-M7)</f>
-        <v>6.4923529999999996</v>
+        <f>K6+(B23-J6)*(K7-K6)/(J7-J6)</f>
+        <v>6.6633194000000007</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
@@ -12608,42 +12643,42 @@
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
-        <v>4.657764885766813E-2</v>
+        <v>0.2175440488576692</v>
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
-        <v>8.3320631262289082E-3</v>
+        <v>2.751738743220743E-2</v>
       </c>
       <c r="P26">
-        <v>359.375</v>
+        <v>343.75</v>
       </c>
       <c r="Q26">
-        <v>31.287310000000002</v>
+        <v>29.018719999999998</v>
       </c>
       <c r="R26">
         <f t="shared" si="0"/>
-        <v>2.6697074529273834E-2</v>
+        <v>2.5527557846036331E-2</v>
       </c>
       <c r="S26" s="4"/>
       <c r="W26">
-        <v>359.375</v>
+        <v>343.75</v>
       </c>
       <c r="X26">
         <f t="shared" si="1"/>
-        <v>31.260612925470728</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>28.993192442153962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="3"/>
-        <v>15.625</v>
+        <v>31.25</v>
       </c>
       <c r="B27">
         <v>150</v>
       </c>
       <c r="C27">
-        <f>Q12+(B22-P12)*(Q13-Q12)/(P13-P12)</f>
-        <v>6.4700106000000002</v>
+        <f>N8+(B23-M8)*(N9-N8)/(M9-M8)</f>
+        <v>6.4923529999999996</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
@@ -12651,220 +12686,263 @@
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>2.4235248857668701E-2</v>
+        <v>4.657764885766813E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="5"/>
-        <v>6.1310868840981575E-3</v>
+        <v>8.3320631262289082E-3</v>
       </c>
       <c r="P27">
-        <v>375</v>
+        <v>359.375</v>
       </c>
       <c r="Q27">
-        <v>33.599600000000002</v>
+        <v>31.287310000000002</v>
       </c>
       <c r="R27">
         <f t="shared" si="0"/>
-        <v>2.7853379467025263E-2</v>
+        <v>2.6697074529273834E-2</v>
       </c>
       <c r="S27" s="4"/>
       <c r="W27">
-        <v>375</v>
+        <v>359.375</v>
       </c>
       <c r="X27">
         <f t="shared" si="1"/>
-        <v>33.571746620532977</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+        <v>31.260612925470728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>15.625</v>
+      </c>
+      <c r="B28">
+        <v>150</v>
+      </c>
+      <c r="C28">
+        <f>Q13+(B23-P13)*(Q14-Q13)/(P14-P13)</f>
+        <v>6.4700106000000002</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>6.4457753511423315</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>2.4235248857668701E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>6.1310868840981575E-3</v>
+      </c>
       <c r="P28">
-        <v>390.625</v>
+        <v>375</v>
       </c>
       <c r="Q28">
-        <v>35.950749999999999</v>
+        <v>33.599600000000002</v>
       </c>
       <c r="R28">
         <f t="shared" si="0"/>
-        <v>2.901349618656468E-2</v>
+        <v>2.7853379467025263E-2</v>
       </c>
       <c r="S28" s="4"/>
       <c r="W28">
-        <v>390.625</v>
+        <v>375</v>
       </c>
       <c r="X28">
         <f t="shared" si="1"/>
-        <v>35.921736503813435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
+        <v>33.571746620532977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P29">
-        <v>406.25</v>
+        <v>390.625</v>
       </c>
       <c r="Q29">
-        <v>38.335900000000002</v>
+        <v>35.950749999999999</v>
       </c>
       <c r="R29">
         <f t="shared" si="0"/>
-        <v>3.0174448215170457E-2</v>
+        <v>2.901349618656468E-2</v>
       </c>
       <c r="S29" s="4"/>
       <c r="W29">
-        <v>406.25</v>
+        <v>390.625</v>
       </c>
       <c r="X29">
         <f t="shared" si="1"/>
-        <v>38.305725551784832</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+        <v>35.921736503813435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>421.875</v>
+        <v>406.25</v>
       </c>
       <c r="Q30">
-        <v>40.750190000000003</v>
+        <v>38.335900000000002</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
-        <v>3.1333259080120968E-2</v>
+        <v>3.0174448215170457E-2</v>
       </c>
       <c r="S30" s="4"/>
       <c r="W30">
-        <v>421.875</v>
+        <v>406.25</v>
       </c>
       <c r="X30">
         <f t="shared" si="1"/>
-        <v>40.718856740919882</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+        <v>38.305725551784832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>437.5</v>
+        <v>421.875</v>
       </c>
       <c r="Q31">
-        <v>43.188769999999998</v>
+        <v>40.750190000000003</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
-        <v>3.2496952308683547E-2</v>
+        <v>3.1333259080120968E-2</v>
       </c>
       <c r="S31" s="4"/>
       <c r="W31">
-        <v>437.5</v>
+        <v>421.875</v>
       </c>
       <c r="X31">
         <f t="shared" si="1"/>
-        <v>43.156273047691315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>40.718856740919882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>453.125</v>
+        <v>437.5</v>
       </c>
       <c r="Q32">
-        <v>45.646769999999997</v>
+        <v>43.188769999999998</v>
       </c>
       <c r="R32">
         <f t="shared" si="0"/>
-        <v>3.3652551428147603E-2</v>
+        <v>3.2496952308683547E-2</v>
       </c>
       <c r="S32" s="4"/>
       <c r="W32">
-        <v>453.125</v>
+        <v>437.5</v>
       </c>
       <c r="X32">
         <f t="shared" si="1"/>
-        <v>45.613117448571849</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+        <v>43.156273047691315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P33">
-        <v>468.75</v>
+        <v>453.125</v>
       </c>
       <c r="Q33">
-        <v>48.119349999999997</v>
+        <v>45.646769999999997</v>
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
-        <v>3.4817079965783648E-2</v>
+        <v>3.3652551428147603E-2</v>
       </c>
       <c r="S33" s="4"/>
       <c r="W33">
-        <v>468.75</v>
+        <v>453.125</v>
       </c>
       <c r="X33">
         <f t="shared" si="1"/>
-        <v>48.084532920034214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+        <v>45.613117448571849</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P34">
-        <v>484.375</v>
+        <v>468.75</v>
       </c>
       <c r="Q34">
-        <v>50.601640000000003</v>
+        <v>48.119349999999997</v>
       </c>
       <c r="R34">
         <f t="shared" si="0"/>
-        <v>3.5977561448873985E-2</v>
+        <v>3.4817079965783648E-2</v>
       </c>
       <c r="S34" s="4"/>
       <c r="W34">
-        <v>484.375</v>
+        <v>468.75</v>
       </c>
       <c r="X34">
         <f t="shared" si="1"/>
-        <v>50.565662438551129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+        <v>48.084532920034214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
       <c r="P35">
-        <v>500</v>
+        <v>484.375</v>
       </c>
       <c r="Q35">
-        <v>53.088790000000003</v>
+        <v>50.601640000000003</v>
       </c>
       <c r="R35">
         <f t="shared" si="0"/>
-        <v>3.7141019404678843E-2</v>
+        <v>3.5977561448873985E-2</v>
       </c>
       <c r="S35" s="4"/>
       <c r="W35">
-        <v>500</v>
+        <v>484.375</v>
       </c>
       <c r="X35">
         <f t="shared" si="1"/>
+        <v>50.565662438551129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>500</v>
+      </c>
+      <c r="Q36">
+        <v>53.088790000000003</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>3.7141019404678843E-2</v>
+      </c>
+      <c r="S36" s="4"/>
+      <c r="W36">
+        <v>500</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="1"/>
         <v>53.051648980595324</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12873,920 +12951,883 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4D76CF-A0FA-4804-AB29-D6E781D98F74}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:R35"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="8" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="8" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="2"/>
-      <c r="T1" s="6" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="W1" s="5" t="s">
+      <c r="U2" s="6"/>
+      <c r="W2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" t="s">
+      <c r="X2" s="5"/>
+      <c r="Y2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P3" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q3" t="s">
         <v>4</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R3" t="s">
         <v>12</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T3" t="s">
         <v>15</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>1</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W3" t="s">
         <v>3</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R35" si="0">Q3-X3</f>
+      <c r="R4">
+        <f t="shared" ref="R4:R36" si="0">Q4-X4</f>
         <v>0</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T4" t="s">
         <v>16</v>
       </c>
-      <c r="U3">
+      <c r="U4">
         <v>500</v>
       </c>
-      <c r="W3">
+      <c r="W4">
         <v>0</v>
       </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X35" si="1">$U$2*W3^2*(3*$U$3-W3)/(6*$U$4*$U$5)</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X35" si="1">$U$3*W4^2*(3*$U$4-W4)/(6*$U$5*$U$6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>500</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>53.088790000000003</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>250</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>16.59721</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>125</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>4.5684089999999999</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>62.5</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>1.196231</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>31.25</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>0.30669419999999997</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <v>15.625</v>
       </c>
-      <c r="Q4">
+      <c r="Q5">
         <v>7.8063220000000003E-2</v>
       </c>
-      <c r="R4">
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>1.1603474847937667E-3</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" t="s">
+      <c r="S5" s="4"/>
+      <c r="T5" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U5" s="1">
         <v>100</v>
       </c>
-      <c r="W4">
+      <c r="W5">
         <v>15.625</v>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f t="shared" si="1"/>
         <v>7.6902872515206236E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D6">
         <v>500</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>53.088790000000003</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>250</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>16.59721</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>125</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>4.5684089999999999</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>62.5</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>1.196231</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <v>31.25</v>
       </c>
-      <c r="Q5">
+      <c r="Q6">
         <v>0.30669419999999997</v>
       </c>
-      <c r="R5">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>2.3207256240258545E-3</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" t="s">
         <v>18</v>
       </c>
-      <c r="U5">
+      <c r="U6">
         <v>7853.9814439900001</v>
       </c>
-      <c r="W5">
+      <c r="W6">
         <v>31.25</v>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f t="shared" si="1"/>
         <v>0.30437347437597412</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G6">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G7">
         <v>375</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>33.599600000000002</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>187.5</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>9.8056850000000004</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>93.75</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>2.6297549999999998</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>46.875</v>
       </c>
-      <c r="Q6">
+      <c r="Q7">
         <v>0.68103590000000003</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>3.4811179449725227E-3</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" t="s">
         <v>21</v>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>4*1/3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="W6">
+      <c r="W7">
         <v>46.875</v>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f t="shared" si="1"/>
         <v>0.6775547820550275</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G7">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G8">
         <v>500</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>53.088790000000003</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>250</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>16.59721</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>125</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>4.5684089999999999</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>62.5</v>
       </c>
-      <c r="Q7">
+      <c r="Q8">
         <v>1.196231</v>
       </c>
-      <c r="R7">
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>4.641227974909734E-3</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" t="s">
+      <c r="S8" s="4"/>
+      <c r="T8" t="s">
         <v>22</v>
       </c>
-      <c r="W7">
+      <c r="W8">
         <v>62.5</v>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f t="shared" si="1"/>
         <v>1.1915897720250903</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J8">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J9">
         <v>312.5</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>24.63213</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>156.25</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>6.9733390000000002</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>78.125</v>
       </c>
-      <c r="Q8">
+      <c r="Q9">
         <v>1.847423</v>
       </c>
-      <c r="R8">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>5.8015792411139078E-3</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" t="s">
         <v>23</v>
       </c>
-      <c r="W8">
+      <c r="W9">
         <v>78.125</v>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f t="shared" si="1"/>
         <v>1.8416214207588861</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J9">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J10">
         <v>375</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>33.599600000000002</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>187.5</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>9.8056850000000004</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>93.75</v>
       </c>
-      <c r="Q9">
+      <c r="Q10">
         <v>2.6297549999999998</v>
       </c>
-      <c r="R9">
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>6.9622952708612296E-3</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="W9">
+      <c r="S10" s="4"/>
+      <c r="W10">
         <v>93.75</v>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f t="shared" si="1"/>
         <v>2.6227927047291386</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J10">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J11">
         <v>437.5</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>43.188769999999998</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>218.75</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>13.026590000000001</v>
       </c>
-      <c r="P10">
+      <c r="P11">
         <v>109.375</v>
       </c>
-      <c r="Q10">
+      <c r="Q11">
         <v>3.53837</v>
       </c>
-      <c r="R10">
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>8.1233995914278267E-3</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="W10">
+      <c r="S11" s="4"/>
+      <c r="W11">
         <v>109.375</v>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f t="shared" si="1"/>
         <v>3.5302466004085722</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J11">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J12">
         <v>500</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>53.088790000000003</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>250</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>16.59721</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <v>125</v>
       </c>
-      <c r="Q11">
+      <c r="Q12">
         <v>4.5684089999999999</v>
       </c>
-      <c r="R11">
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>9.2829157300897691E-3</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="W11">
+      <c r="S12" s="4"/>
+      <c r="W12">
         <v>125</v>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f t="shared" si="1"/>
         <v>4.5591260842699102</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M12">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M13">
         <v>281.25</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>20.478670000000001</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>140.625</v>
       </c>
-      <c r="Q12">
+      <c r="Q13">
         <v>5.7150179999999997</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <f t="shared" si="0"/>
         <v>1.0443867214123159E-2</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="W12">
+      <c r="S13" s="4"/>
+      <c r="W13">
         <v>140.625</v>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f t="shared" si="1"/>
         <v>5.7045741327858766</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M13">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M14">
         <v>312.5</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>24.63213</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <v>156.25</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <v>6.9733390000000002</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>1.1605277570804873E-2</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="W13">
+      <c r="S14" s="4"/>
+      <c r="W14">
         <v>156.25</v>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f t="shared" si="1"/>
         <v>6.9617337224291953</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M14">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M15">
         <v>343.75</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>29.018719999999998</v>
       </c>
-      <c r="P14">
+      <c r="P15">
         <v>171.875</v>
       </c>
-      <c r="Q14">
+      <c r="Q15">
         <v>8.3385130000000007</v>
       </c>
-      <c r="R14">
+      <c r="R15">
         <f t="shared" si="0"/>
         <v>1.2765170327410758E-2</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="W14">
+      <c r="S15" s="4"/>
+      <c r="W15">
         <v>171.875</v>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f t="shared" si="1"/>
         <v>8.32574782967259</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M16">
         <v>375</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>33.599600000000002</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>187.5</v>
       </c>
-      <c r="Q15">
+      <c r="Q16">
         <v>9.8056850000000004</v>
       </c>
-      <c r="R15">
+      <c r="R16">
         <f t="shared" si="0"/>
         <v>1.3925569011215444E-2</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="W15">
+      <c r="S16" s="4"/>
+      <c r="W16">
         <v>187.5</v>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f t="shared" si="1"/>
         <v>9.791759430988785</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M16">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M17">
         <v>406.25</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <v>38.335900000000002</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <v>203.125</v>
       </c>
-      <c r="Q16">
+      <c r="Q17">
         <v>11.37</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <f t="shared" si="0"/>
         <v>1.5088497149495339E-2</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="W16">
+      <c r="S17" s="4"/>
+      <c r="W17">
         <v>203.125</v>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f t="shared" si="1"/>
         <v>11.354911502850504</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M17">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M18">
         <v>437.5</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>43.188769999999998</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>218.75</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>13.026590000000001</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <f t="shared" si="0"/>
         <v>1.624297826953125E-2</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="W17">
+      <c r="S18" s="4"/>
+      <c r="W18">
         <v>218.75</v>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f t="shared" si="1"/>
         <v>13.010347021730469</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M18">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M19">
         <v>468.75</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>48.119349999999997</v>
       </c>
-      <c r="P18">
+      <c r="P19">
         <v>234.375</v>
       </c>
-      <c r="Q18">
+      <c r="Q19">
         <v>14.770619999999999</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <f t="shared" si="0"/>
         <v>1.7411035898593497E-2</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="W18">
+      <c r="S19" s="4"/>
+      <c r="W19">
         <v>234.375</v>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f t="shared" si="1"/>
         <v>14.753208964101406</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M19">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M20">
         <v>500</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>53.088790000000003</v>
       </c>
-      <c r="P19">
+      <c r="P20">
         <v>250</v>
       </c>
-      <c r="Q19">
+      <c r="Q20">
         <v>16.59721</v>
       </c>
-      <c r="R19">
+      <c r="R20">
         <f t="shared" si="0"/>
         <v>1.8569693563961209E-2</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="W19">
+      <c r="S20" s="4"/>
+      <c r="W20">
         <v>250</v>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f t="shared" si="1"/>
         <v>16.578640306436039</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="P20">
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="P21">
         <v>265.625</v>
       </c>
-      <c r="Q20">
+      <c r="Q21">
         <v>18.50151</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <f t="shared" si="0"/>
         <v>1.9725974792912382E-2</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="W20">
+      <c r="S21" s="4"/>
+      <c r="W21">
         <v>265.625</v>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f t="shared" si="1"/>
         <v>18.481784025207087</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>26</v>
       </c>
-      <c r="P21">
+      <c r="P22">
         <v>281.25</v>
       </c>
-      <c r="Q21">
+      <c r="Q22">
         <v>20.478670000000001</v>
       </c>
-      <c r="R21">
+      <c r="R22">
         <f t="shared" si="0"/>
         <v>2.0886903112717903E-2</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="W21">
+      <c r="S22" s="4"/>
+      <c r="W22">
         <v>281.25</v>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f t="shared" si="1"/>
         <v>20.457783096887283</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>500/A29</f>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>500/A30</f>
         <v>500</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>500</v>
       </c>
-      <c r="C22">
-        <f>B4</f>
+      <c r="C23">
+        <f>B5</f>
         <v>53.088790000000003</v>
       </c>
-      <c r="D22">
-        <f>$X$35</f>
+      <c r="D23">
+        <f>$X$36</f>
         <v>53.051648980595324</v>
       </c>
-      <c r="E22">
-        <f>ABS(C22-D22)</f>
+      <c r="E23">
+        <f>ABS(C23-D23)</f>
         <v>3.7141019404678843E-2</v>
       </c>
-      <c r="F22">
-        <f>SQRT((1/A22)*(C22-D22)^2)</f>
+      <c r="F23">
+        <f>SQRT((1/A23)*(C23-D23)^2)</f>
         <v>1.6609968828500132E-3</v>
       </c>
-      <c r="P22">
+      <c r="P23">
         <v>296.875</v>
       </c>
-      <c r="Q22">
+      <c r="Q23">
         <v>22.52383</v>
       </c>
-      <c r="R22">
+      <c r="R23">
         <f t="shared" si="0"/>
         <v>2.2049502050656145E-2</v>
       </c>
-      <c r="S22" s="4"/>
-      <c r="W22">
+      <c r="S23" s="4"/>
+      <c r="W23">
         <v>296.875</v>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f t="shared" si="1"/>
         <v>22.501780497949344</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" ref="A23:A27" si="2">500/A30</f>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" ref="A24:A28" si="2">500/A31</f>
         <v>250</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>500</v>
       </c>
-      <c r="C23">
-        <f>E5</f>
+      <c r="C24">
+        <f>E6</f>
         <v>53.088790000000003</v>
       </c>
-      <c r="D23">
-        <f t="shared" ref="D23:D27" si="3">$X$35</f>
+      <c r="D24">
+        <f t="shared" ref="D24:D28" si="3">$X$36</f>
         <v>53.051648980595324</v>
       </c>
-      <c r="E23">
-        <f t="shared" ref="E23:E27" si="4">ABS(C23-D23)</f>
+      <c r="E24">
+        <f t="shared" ref="E24:E28" si="4">ABS(C24-D24)</f>
         <v>3.7141019404678843E-2</v>
       </c>
-      <c r="F23">
-        <f t="shared" ref="F23:F27" si="5">SQRT((1/A23)*(C23-D23)^2)</f>
+      <c r="F24">
+        <f t="shared" ref="F24:F27" si="5">SQRT((1/A24)*(C24-D24)^2)</f>
         <v>2.3490043187859235E-3</v>
       </c>
-      <c r="P23">
+      <c r="P24">
         <v>312.5</v>
       </c>
-      <c r="Q23">
+      <c r="Q24">
         <v>24.63213</v>
       </c>
-      <c r="R23">
+      <c r="R24">
         <f t="shared" si="0"/>
         <v>2.321079513400548E-2</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="W23">
+      <c r="S24" s="4"/>
+      <c r="W24">
         <v>312.5</v>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f t="shared" si="1"/>
         <v>24.608919204865995</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="B24">
-        <v>500</v>
-      </c>
-      <c r="C24">
-        <f>E5</f>
-        <v>53.088790000000003</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="3"/>
-        <v>53.051648980595324</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
-        <v>3.7141019404678843E-2</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
-        <v>3.3219937657000265E-3</v>
-      </c>
-      <c r="P24">
-        <v>328.125</v>
-      </c>
-      <c r="Q24">
-        <v>26.79871</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
-        <v>2.4367805890040728E-2</v>
-      </c>
-      <c r="S24" s="4"/>
-      <c r="W24">
-        <v>328.125</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="1"/>
-        <v>26.774342194109959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
       <c r="B25">
         <v>500</v>
       </c>
       <c r="C25">
-        <f>H7</f>
+        <f>E6</f>
         <v>53.088790000000003</v>
       </c>
       <c r="D25">
@@ -13799,37 +13840,37 @@
       </c>
       <c r="F25">
         <f t="shared" si="5"/>
-        <v>4.6980086375718469E-3</v>
+        <v>3.3219937657000265E-3</v>
       </c>
       <c r="P25">
-        <v>343.75</v>
+        <v>328.125</v>
       </c>
       <c r="Q25">
-        <v>29.018719999999998</v>
+        <v>26.79871</v>
       </c>
       <c r="R25">
         <f t="shared" si="0"/>
-        <v>2.5527557846036331E-2</v>
+        <v>2.4367805890040728E-2</v>
       </c>
       <c r="S25" s="4"/>
       <c r="W25">
-        <v>343.75</v>
+        <v>328.125</v>
       </c>
       <c r="X25">
         <f t="shared" si="1"/>
-        <v>28.993192442153962</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>26.774342194109959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>31.25</v>
+        <v>62.5</v>
       </c>
       <c r="B26">
         <v>500</v>
       </c>
       <c r="C26">
-        <f>K11</f>
+        <f>H8</f>
         <v>53.088790000000003</v>
       </c>
       <c r="D26">
@@ -13842,37 +13883,37 @@
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
-        <v>6.6439875314000529E-3</v>
+        <v>4.6980086375718469E-3</v>
       </c>
       <c r="P26">
-        <v>359.375</v>
+        <v>343.75</v>
       </c>
       <c r="Q26">
-        <v>31.287310000000002</v>
+        <v>29.018719999999998</v>
       </c>
       <c r="R26">
         <f t="shared" si="0"/>
-        <v>2.6697074529273834E-2</v>
+        <v>2.5527557846036331E-2</v>
       </c>
       <c r="S26" s="4"/>
       <c r="W26">
-        <v>359.375</v>
+        <v>343.75</v>
       </c>
       <c r="X26">
         <f t="shared" si="1"/>
-        <v>31.260612925470728</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>28.993192442153962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>15.625</v>
+        <v>31.25</v>
       </c>
       <c r="B27">
         <v>500</v>
       </c>
       <c r="C27">
-        <f>N19</f>
+        <f>K12</f>
         <v>53.088790000000003</v>
       </c>
       <c r="D27">
@@ -13884,217 +13925,260 @@
         <v>3.7141019404678843E-2</v>
       </c>
       <c r="F27">
-        <f>SQRT((1/A27)*(E27)^2)</f>
-        <v>9.3960172751436939E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.6439875314000529E-3</v>
       </c>
       <c r="P27">
-        <v>375</v>
+        <v>359.375</v>
       </c>
       <c r="Q27">
-        <v>33.599600000000002</v>
+        <v>31.287310000000002</v>
       </c>
       <c r="R27">
         <f t="shared" si="0"/>
-        <v>2.7853379467025263E-2</v>
+        <v>2.6697074529273834E-2</v>
       </c>
       <c r="S27" s="4"/>
       <c r="W27">
-        <v>375</v>
+        <v>359.375</v>
       </c>
       <c r="X27">
         <f t="shared" si="1"/>
-        <v>33.571746620532977</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+        <v>31.260612925470728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>15.625</v>
+      </c>
+      <c r="B28">
+        <v>500</v>
+      </c>
+      <c r="C28">
+        <f>N20</f>
+        <v>53.088790000000003</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>53.051648980595324</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>3.7141019404678843E-2</v>
+      </c>
+      <c r="F28">
+        <f>SQRT((1/A28)*(E28)^2)</f>
+        <v>9.3960172751436939E-3</v>
+      </c>
       <c r="P28">
-        <v>390.625</v>
+        <v>375</v>
       </c>
       <c r="Q28">
-        <v>35.950749999999999</v>
+        <v>33.599600000000002</v>
       </c>
       <c r="R28">
         <f t="shared" si="0"/>
-        <v>2.901349618656468E-2</v>
+        <v>2.7853379467025263E-2</v>
       </c>
       <c r="S28" s="4"/>
       <c r="W28">
-        <v>390.625</v>
+        <v>375</v>
       </c>
       <c r="X28">
         <f t="shared" si="1"/>
-        <v>35.921736503813435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
+        <v>33.571746620532977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P29">
-        <v>406.25</v>
+        <v>390.625</v>
       </c>
       <c r="Q29">
-        <v>38.335900000000002</v>
+        <v>35.950749999999999</v>
       </c>
       <c r="R29">
         <f t="shared" si="0"/>
-        <v>3.0174448215170457E-2</v>
+        <v>2.901349618656468E-2</v>
       </c>
       <c r="S29" s="4"/>
       <c r="W29">
-        <v>406.25</v>
+        <v>390.625</v>
       </c>
       <c r="X29">
         <f t="shared" si="1"/>
-        <v>38.305725551784832</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+        <v>35.921736503813435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>421.875</v>
+        <v>406.25</v>
       </c>
       <c r="Q30">
-        <v>40.750190000000003</v>
+        <v>38.335900000000002</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
-        <v>3.1333259080120968E-2</v>
+        <v>3.0174448215170457E-2</v>
       </c>
       <c r="S30" s="4"/>
       <c r="W30">
-        <v>421.875</v>
+        <v>406.25</v>
       </c>
       <c r="X30">
         <f t="shared" si="1"/>
-        <v>40.718856740919882</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+        <v>38.305725551784832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>437.5</v>
+        <v>421.875</v>
       </c>
       <c r="Q31">
-        <v>43.188769999999998</v>
+        <v>40.750190000000003</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
-        <v>3.2496952308683547E-2</v>
+        <v>3.1333259080120968E-2</v>
       </c>
       <c r="S31" s="4"/>
       <c r="W31">
-        <v>437.5</v>
+        <v>421.875</v>
       </c>
       <c r="X31">
         <f t="shared" si="1"/>
-        <v>43.156273047691315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>40.718856740919882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>453.125</v>
+        <v>437.5</v>
       </c>
       <c r="Q32">
-        <v>45.646769999999997</v>
+        <v>43.188769999999998</v>
       </c>
       <c r="R32">
         <f t="shared" si="0"/>
-        <v>3.3652551428147603E-2</v>
+        <v>3.2496952308683547E-2</v>
       </c>
       <c r="S32" s="4"/>
       <c r="W32">
-        <v>453.125</v>
+        <v>437.5</v>
       </c>
       <c r="X32">
         <f t="shared" si="1"/>
-        <v>45.613117448571849</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+        <v>43.156273047691315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P33">
-        <v>468.75</v>
+        <v>453.125</v>
       </c>
       <c r="Q33">
-        <v>48.119349999999997</v>
+        <v>45.646769999999997</v>
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
-        <v>3.4817079965783648E-2</v>
+        <v>3.3652551428147603E-2</v>
       </c>
       <c r="S33" s="4"/>
       <c r="W33">
-        <v>468.75</v>
+        <v>453.125</v>
       </c>
       <c r="X33">
         <f t="shared" si="1"/>
-        <v>48.084532920034214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+        <v>45.613117448571849</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P34">
-        <v>484.375</v>
+        <v>468.75</v>
       </c>
       <c r="Q34">
-        <v>50.601640000000003</v>
+        <v>48.119349999999997</v>
       </c>
       <c r="R34">
         <f t="shared" si="0"/>
-        <v>3.5977561448873985E-2</v>
+        <v>3.4817079965783648E-2</v>
       </c>
       <c r="S34" s="4"/>
       <c r="W34">
-        <v>484.375</v>
+        <v>468.75</v>
       </c>
       <c r="X34">
         <f t="shared" si="1"/>
-        <v>50.565662438551129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+        <v>48.084532920034214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
       <c r="P35">
-        <v>500</v>
+        <v>484.375</v>
       </c>
       <c r="Q35">
-        <v>53.088790000000003</v>
+        <v>50.601640000000003</v>
       </c>
       <c r="R35">
         <f t="shared" si="0"/>
-        <v>3.7141019404678843E-2</v>
+        <v>3.5977561448873985E-2</v>
       </c>
       <c r="S35" s="4"/>
       <c r="W35">
+        <v>484.375</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="1"/>
+        <v>50.565662438551129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P36">
         <v>500</v>
       </c>
-      <c r="X35" s="1">
-        <f>$U$2*W35^2*(3*$U$3-W35)/(6*$U$4*$U$5)</f>
+      <c r="Q36">
+        <v>53.088790000000003</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>3.7141019404678843E-2</v>
+      </c>
+      <c r="S36" s="4"/>
+      <c r="W36">
+        <v>500</v>
+      </c>
+      <c r="X36" s="1">
+        <f>$U$3*W36^2*(3*$U$4-W36)/(6*$U$5*$U$6)</f>
         <v>53.051648980595324</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14109,12 +14193,12 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -14158,7 +14242,7 @@
       <c r="AG1" s="8"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -14213,7 +14297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -14279,22 +14363,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>250</v>
       </c>
       <c r="C4">
-        <f>Sheet2!B3+(Sheet4!B4-Sheet2!A3)*(Sheet2!B4-Sheet2!B3)/(Sheet2!A4-Sheet2!A3)</f>
+        <f>Sheet2!B4+(Sheet4!B4-Sheet2!A4)*(Sheet2!B5-Sheet2!B4)/(Sheet2!A5-Sheet2!A4)</f>
         <v>26.544395000000002</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4">
         <f>J2*(B4)^2*(3*J3-B4)/(6*J4*J5)</f>
         <v>16.578640306436039</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4">
         <f>C4-D4</f>
         <v>9.9657546935639623</v>
       </c>
@@ -14349,7 +14433,7 @@
         <v>7.8063220000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -14402,7 +14486,7 @@
         <v>0.30669419999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="W6">
         <v>375</v>
       </c>
@@ -14432,7 +14516,7 @@
         <v>0.68103590000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -14470,7 +14554,7 @@
         <v>1.196231</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -14502,7 +14586,7 @@
         <v>1.847423</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -14544,8 +14628,8 @@
         <v>2.6297549999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10">
         <f>$A$4/2</f>
         <v>250</v>
       </c>
@@ -14554,7 +14638,7 @@
         <v>125</v>
       </c>
       <c r="C10">
-        <f>Sheet2!E3+(Sheet4!B10-Sheet2!D3)*(Sheet2!E4-Sheet2!E3)/(Sheet2!D4-Sheet2!D3)</f>
+        <f>Sheet2!E4+(Sheet4!B10-Sheet2!D4)*(Sheet2!E5-Sheet2!E4)/(Sheet2!D5-Sheet2!D4)</f>
         <v>8.2986050000000002</v>
       </c>
       <c r="D10" s="1">
@@ -14592,8 +14676,8 @@
         <v>3.53837</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11">
         <f>$A$4/2</f>
         <v>250</v>
       </c>
@@ -14605,7 +14689,7 @@
         <f>_xlfn.FORECAST.LINEAR(B11,U4:U5,T4:T5)</f>
         <v>34.843000000000004</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11">
         <f>$J$2*(B11)^2*(3*$J$3-B11)/(6*$J$4*$J$5)</f>
         <v>33.571746620532977</v>
       </c>
@@ -14640,7 +14724,7 @@
         <v>4.5684089999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -14669,7 +14753,7 @@
         <v>5.7150179999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AC13">
         <v>312.5</v>
       </c>
@@ -14687,7 +14771,7 @@
         <v>6.9733390000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -14719,7 +14803,7 @@
         <v>8.3385130000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -14753,7 +14837,7 @@
         <v>9.8056850000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -14797,7 +14881,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>$A$10/2</f>
         <v>125</v>
@@ -14810,7 +14894,7 @@
         <f>_xlfn.FORECAST.LINEAR(B17,X3:X4,W3:W4)</f>
         <v>2.2842045</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17">
         <f>$J$2*(B17)^2*(3*$J$3-B17)/(6*$J$4*$J$5)</f>
         <v>1.1915897720250903</v>
       </c>
@@ -14847,7 +14931,7 @@
         <v>13.026590000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ref="A18:A20" si="1">$A$10/2</f>
         <v>125</v>
@@ -14860,7 +14944,7 @@
         <f>_xlfn.FORECAST.LINEAR(B18,X4:X5,W4:W5)</f>
         <v>10.5828095</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18">
         <f t="shared" ref="D18:D20" si="2">$J$2*(B18)^2*(3*$J$3-B18)/(6*$J$4*$J$5)</f>
         <v>9.791759430988785</v>
       </c>
@@ -14897,20 +14981,20 @@
         <v>14.770619999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:B21" si="5">B18+A18</f>
+        <f t="shared" ref="B19:B20" si="5">B18+A18</f>
         <v>312.5</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C18:C20" si="6">_xlfn.FORECAST.LINEAR(B19,X5:X6,W5:W6)</f>
+        <f t="shared" ref="C19:C20" si="6">_xlfn.FORECAST.LINEAR(B19,X5:X6,W5:W6)</f>
         <v>25.098405</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19">
         <f t="shared" si="2"/>
         <v>24.608919204865995</v>
       </c>
@@ -14947,7 +15031,7 @@
         <v>16.59721</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -14960,7 +15044,7 @@
         <f t="shared" si="6"/>
         <v>43.344194999999999</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20">
         <f t="shared" si="2"/>
         <v>43.156273047691315</v>
       </c>
@@ -14999,7 +15083,7 @@
         <v>18.50151</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -15022,7 +15106,7 @@
         <v>20.478670000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AF22">
         <v>296.875</v>
       </c>
@@ -15034,7 +15118,7 @@
         <v>22.52383</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -15054,7 +15138,7 @@
         <v>24.63213</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>8</v>
       </c>
@@ -15074,7 +15158,7 @@
         <v>26.79871</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -15104,7 +15188,7 @@
         <v>29.018719999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -15117,7 +15201,7 @@
         <f>_xlfn.FORECAST.LINEAR(B26,AA3:AA4,Z3:Z4)</f>
         <v>0.59811550000000002</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26">
         <f>$J$2*(B26)^2*(3*$J$3-B26)/(6*$J$4*$J$5)</f>
         <v>0.30437347437597412</v>
       </c>
@@ -15140,7 +15224,7 @@
         <v>31.287310000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ref="A27:A33" si="7">$A$17/2</f>
         <v>62.5</v>
@@ -15153,7 +15237,7 @@
         <f t="shared" ref="C27:C33" si="8">_xlfn.FORECAST.LINEAR(B27,AA4:AA5,Z4:Z5)</f>
         <v>2.88232</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27">
         <f t="shared" ref="D27:D33" si="9">$J$2*(B27)^2*(3*$J$3-B27)/(6*$J$4*$J$5)</f>
         <v>2.6227927047291386</v>
       </c>
@@ -15176,7 +15260,7 @@
         <v>33.599600000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -15189,7 +15273,7 @@
         <f t="shared" si="8"/>
         <v>7.1870469999999997</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28">
         <f t="shared" si="9"/>
         <v>6.9617337224291953</v>
       </c>
@@ -15212,7 +15296,7 @@
         <v>35.950749999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -15225,7 +15309,7 @@
         <f t="shared" si="8"/>
         <v>13.2014475</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29">
         <f t="shared" si="9"/>
         <v>13.010347021730469</v>
       </c>
@@ -15248,7 +15332,7 @@
         <v>38.335900000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -15261,7 +15345,7 @@
         <f t="shared" si="8"/>
         <v>20.61467</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30">
         <f t="shared" si="9"/>
         <v>20.457783096887283</v>
       </c>
@@ -15284,7 +15368,7 @@
         <v>40.750190000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -15297,7 +15381,7 @@
         <f t="shared" si="8"/>
         <v>29.115864999999999</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31">
         <f t="shared" si="9"/>
         <v>28.993192442153962</v>
       </c>
@@ -15320,7 +15404,7 @@
         <v>43.188769999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -15333,7 +15417,7 @@
         <f t="shared" si="8"/>
         <v>38.394185</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32">
         <f t="shared" si="9"/>
         <v>38.305725551784832</v>
       </c>
@@ -15356,7 +15440,7 @@
         <v>45.646769999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -15369,7 +15453,7 @@
         <f t="shared" si="8"/>
         <v>48.138779999999997</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33">
         <f t="shared" si="9"/>
         <v>48.084532920034214</v>
       </c>
@@ -15392,7 +15476,7 @@
         <v>48.119349999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
@@ -15415,7 +15499,7 @@
         <v>50.601640000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AF35">
         <v>500</v>
       </c>
@@ -15427,7 +15511,7 @@
         <v>53.088790000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>27</v>
       </c>
@@ -15437,7 +15521,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>16</v>
       </c>
@@ -15447,7 +15531,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -15467,7 +15551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>$A$26/2</f>
         <v>31.25</v>
@@ -15480,7 +15564,7 @@
         <f>_xlfn.FORECAST.LINEAR(B39,AD3:AD4,AC3:AC4)</f>
         <v>0.15334709999999999</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39">
         <f>$J$2*(B39)^2*(3*$J$3-B39)/(6*$J$4*$J$5)</f>
         <v>7.6902872515206236E-2</v>
       </c>
@@ -15493,7 +15577,7 @@
         <v>1.3674759131476527E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" ref="A40:A54" si="13">$A$26/2</f>
         <v>31.25</v>
@@ -15506,7 +15590,7 @@
         <f t="shared" ref="C40:C54" si="14">_xlfn.FORECAST.LINEAR(B40,AD4:AD5,AC4:AC5)</f>
         <v>0.75146259999999998</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40">
         <f t="shared" ref="D40:D54" si="15">$J$2*(B40)^2*(3*$J$3-B40)/(6*$J$4*$J$5)</f>
         <v>0.6775547820550275</v>
       </c>
@@ -15519,7 +15603,7 @@
         <v>1.3221032399490983E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15532,7 +15616,7 @@
         <f t="shared" si="14"/>
         <v>1.9129929999999999</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41">
         <f t="shared" si="15"/>
         <v>1.8416214207588861</v>
       </c>
@@ -15545,7 +15629,7 @@
         <v>1.2767336227571468E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15558,7 +15642,7 @@
         <f t="shared" si="14"/>
         <v>3.5990820000000001</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42">
         <f t="shared" si="15"/>
         <v>3.5302466004085722</v>
       </c>
@@ -15571,7 +15655,7 @@
         <v>1.2313650619583527E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15584,7 +15668,7 @@
         <f t="shared" si="14"/>
         <v>5.7708740000000001</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43">
         <f t="shared" si="15"/>
         <v>5.7045741327858766</v>
       </c>
@@ -15597,7 +15681,7 @@
         <v>1.1860080799199181E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15610,7 +15694,7 @@
         <f t="shared" si="14"/>
         <v>8.3895119999999999</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44">
         <f t="shared" si="15"/>
         <v>8.32574782967259</v>
       </c>
@@ -15623,7 +15707,7 @@
         <v>1.1406481550477082E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15636,7 +15720,7 @@
         <f t="shared" si="14"/>
         <v>11.416137500000001</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45">
         <f t="shared" si="15"/>
         <v>11.354911502850504</v>
       </c>
@@ -15649,7 +15733,7 @@
         <v>1.0952439329318782E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15662,7 +15746,7 @@
         <f t="shared" si="14"/>
         <v>14.811900000000001</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46">
         <f t="shared" si="15"/>
         <v>14.753208964101406</v>
       </c>
@@ -15675,7 +15759,7 @@
         <v>1.0498971675131235E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15688,7 +15772,7 @@
         <f t="shared" si="14"/>
         <v>18.537939999999999</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47">
         <f t="shared" si="15"/>
         <v>18.481784025207087</v>
       </c>
@@ -15701,7 +15785,7 @@
         <v>1.0045486158377215E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15714,7 +15798,7 @@
         <f t="shared" si="14"/>
         <v>22.555399999999999</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48">
         <f t="shared" si="15"/>
         <v>22.501780497949344</v>
       </c>
@@ -15727,7 +15811,7 @@
         <v>9.5917481203962613E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15740,7 +15824,7 @@
         <f t="shared" si="14"/>
         <v>26.825424999999999</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49">
         <f t="shared" si="15"/>
         <v>26.774342194109959</v>
       </c>
@@ -15753,7 +15837,7 @@
         <v>9.1379701161245063E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15766,7 +15850,7 @@
         <f t="shared" si="14"/>
         <v>31.309159999999999</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50">
         <f t="shared" si="15"/>
         <v>31.260612925470728</v>
       </c>
@@ -15779,7 +15863,7 @@
         <v>8.6843647004958627E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15792,7 +15876,7 @@
         <f t="shared" si="14"/>
         <v>35.967750000000002</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51">
         <f t="shared" si="15"/>
         <v>35.921736503813435</v>
       </c>
@@ -15805,7 +15889,7 @@
         <v>8.2311444284474157E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15818,7 +15902,7 @@
         <f t="shared" si="14"/>
         <v>40.762335</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52">
         <f t="shared" si="15"/>
         <v>40.718856740919882</v>
       </c>
@@ -15831,7 +15915,7 @@
         <v>7.7776274277192537E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15844,7 +15928,7 @@
         <f t="shared" si="14"/>
         <v>45.654060000000001</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53">
         <f t="shared" si="15"/>
         <v>45.613117448571849</v>
       </c>
@@ -15857,7 +15941,7 @@
         <v>7.3240262532503686E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15870,7 +15954,7 @@
         <f t="shared" si="14"/>
         <v>50.60407</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54">
         <f t="shared" si="15"/>
         <v>50.565662438551129</v>
       </c>
@@ -15883,7 +15967,7 @@
         <v>6.870553459974036E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>28</v>
       </c>
@@ -15896,7 +15980,7 @@
         <v>1.0272354524814606E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>27</v>
       </c>
@@ -15906,7 +15990,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>32</v>
       </c>
@@ -15916,7 +16000,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -15936,7 +16020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>$A$39/2</f>
         <v>15.625</v>
@@ -15949,7 +16033,7 @@
         <f>_xlfn.FORECAST.LINEAR(B60,AG3:AG4,AF3:AF4)</f>
         <v>3.9031610000000001E-2</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60">
         <f>$J$2*(B60)^2*(3*$J$3-B60)/(6*$J$4*$J$5)</f>
         <v>1.9326906118953144E-2</v>
       </c>
@@ -15962,9 +16046,9 @@
         <v>4.9849395906614111E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" ref="A61:A124" si="19">$A$39/2</f>
+        <f t="shared" ref="A61:A91" si="19">$A$39/2</f>
         <v>15.625</v>
       </c>
       <c r="B61">
@@ -15975,7 +16059,7 @@
         <f t="shared" ref="C61:C91" si="20">_xlfn.FORECAST.LINEAR(B61,AG4:AG5,AF4:AF5)</f>
         <v>0.19237870999999998</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61">
         <f t="shared" ref="D61:D91" si="21">$J$2*(B61)^2*(3*$J$3-B61)/(6*$J$4*$J$5)</f>
         <v>0.17212077124784975</v>
       </c>
@@ -15988,20 +16072,20 @@
         <v>5.1248981725587183E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="19"/>
         <v>15.625</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:B125" si="24">B61+A61</f>
+        <f t="shared" ref="B62:B91" si="24">B61+A61</f>
         <v>39.0625</v>
       </c>
       <c r="C62">
         <f t="shared" si="20"/>
         <v>0.49386505000000003</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62">
         <f t="shared" si="21"/>
         <v>0.47305385395866989</v>
       </c>
@@ -16014,7 +16098,7 @@
         <v>5.2648624258306324E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16027,7 +16111,7 @@
         <f t="shared" si="20"/>
         <v>0.93863344999999998</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63">
         <f t="shared" si="21"/>
         <v>0.91726913072413752</v>
       </c>
@@ -16040,7 +16124,7 @@
         <v>5.404792765661165E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16053,7 +16137,7 @@
         <f t="shared" si="20"/>
         <v>1.521827</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64">
         <f t="shared" si="21"/>
         <v>1.4999095780169762</v>
       </c>
@@ -16066,7 +16150,7 @@
         <v>5.5447179124319653E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16079,7 +16163,7 @@
         <f t="shared" si="20"/>
         <v>2.2385890000000002</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65">
         <f t="shared" si="21"/>
         <v>2.2161181723099102</v>
       </c>
@@ -16092,7 +16176,7 @@
         <v>5.6847197127891736E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16105,7 +16189,7 @@
         <f t="shared" si="20"/>
         <v>3.0840624999999999</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66">
         <f t="shared" si="21"/>
         <v>3.0610378900756627</v>
       </c>
@@ -16118,7 +16202,7 @@
         <v>5.8248167678258125E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16131,7 +16215,7 @@
         <f t="shared" si="20"/>
         <v>4.0533894999999998</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67">
         <f t="shared" si="21"/>
         <v>4.0298117077869584</v>
       </c>
@@ -16144,7 +16228,7 @@
         <v>5.9647620473114102E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16157,7 +16241,7 @@
         <f t="shared" si="20"/>
         <v>5.1417134999999998</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68">
         <f t="shared" si="21"/>
         <v>5.1175826019165198</v>
       </c>
@@ -16170,7 +16254,7 @@
         <v>6.1046879943351048E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16183,7 +16267,7 @@
         <f t="shared" si="20"/>
         <v>6.3441784999999999</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69">
         <f t="shared" si="21"/>
         <v>6.3194935489370723</v>
       </c>
@@ -16196,7 +16280,7 @@
         <v>6.2448535430916696E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16209,7 +16293,7 @@
         <f t="shared" si="20"/>
         <v>7.6559260000000009</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70">
         <f t="shared" si="21"/>
         <v>7.6306875253213384</v>
       </c>
@@ -16222,7 +16306,7 @@
         <v>6.3848851722447713E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16235,7 +16319,7 @@
         <f t="shared" si="20"/>
         <v>9.0720990000000015</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71">
         <f t="shared" si="21"/>
         <v>9.0463075075420427</v>
       </c>
@@ -16248,7 +16332,7 @@
         <v>6.5247888337763363E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16261,7 +16345,7 @@
         <f t="shared" si="20"/>
         <v>10.587842500000001</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72">
         <f t="shared" si="21"/>
         <v>10.561496472071909</v>
       </c>
@@ -16274,7 +16358,7 @@
         <v>6.6650764440942143E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16287,7 +16371,7 @@
         <f t="shared" si="20"/>
         <v>12.198295</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73">
         <f t="shared" si="21"/>
         <v>12.171397395383661</v>
       </c>
@@ -16300,7 +16384,7 @@
         <v>6.8046155352232971E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16313,7 +16397,7 @@
         <f t="shared" si="20"/>
         <v>13.898605</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74">
         <f t="shared" si="21"/>
         <v>13.871153253950022</v>
       </c>
@@ -16326,7 +16410,7 @@
         <v>6.9448034613169675E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16339,7 +16423,7 @@
         <f t="shared" si="20"/>
         <v>15.683914999999999</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75">
         <f t="shared" si="21"/>
         <v>15.655907024243715</v>
       </c>
@@ -16352,7 +16436,7 @@
         <v>7.085519683250616E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16365,7 +16449,7 @@
         <f t="shared" si="20"/>
         <v>17.54936</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76">
         <f t="shared" si="21"/>
         <v>17.520801682737467</v>
       </c>
@@ -16378,7 +16462,7 @@
         <v>7.2247462953047266E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16391,7 +16475,7 @@
         <f t="shared" si="20"/>
         <v>19.490090000000002</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77">
         <f t="shared" si="21"/>
         <v>19.460980205903997</v>
       </c>
@@ -16404,7 +16488,7 @@
         <v>7.3642601249518406E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16417,7 +16501,7 @@
         <f t="shared" si="20"/>
         <v>21.501249999999999</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78">
         <f t="shared" si="21"/>
         <v>21.471585570216035</v>
       </c>
@@ -16430,7 +16514,7 @@
         <v>7.5045730885968881E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16443,7 +16527,7 @@
         <f t="shared" si="20"/>
         <v>23.57798</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79">
         <f t="shared" si="21"/>
         <v>23.547760752146299</v>
       </c>
@@ -16456,7 +16540,7 @@
         <v>7.6449321915879661E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16469,7 +16553,7 @@
         <f t="shared" si="20"/>
         <v>25.715420000000002</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80">
         <f t="shared" si="21"/>
         <v>25.684648728167517</v>
       </c>
@@ -16482,7 +16566,7 @@
         <v>7.7845844392668839E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16495,7 +16579,7 @@
         <f t="shared" si="20"/>
         <v>27.908715000000001</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81">
         <f t="shared" si="21"/>
         <v>27.877392474752412</v>
       </c>
@@ -16508,7 +16592,7 @@
         <v>7.9240417480408148E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16521,7 +16605,7 @@
         <f t="shared" si="20"/>
         <v>30.153015</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82">
         <f t="shared" si="21"/>
         <v>30.121134968373703</v>
       </c>
@@ -16534,7 +16618,7 @@
         <v>8.0650809453840996E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16547,7 +16631,7 @@
         <f t="shared" si="20"/>
         <v>32.443455</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83">
         <f t="shared" si="21"/>
         <v>32.411019185504124</v>
       </c>
@@ -16560,7 +16644,7 @@
         <v>8.2056841255740785E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16573,7 +16657,7 @@
         <f t="shared" si="20"/>
         <v>34.775175000000004</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84">
         <f t="shared" si="21"/>
         <v>34.742188102616389</v>
       </c>
@@ -16586,7 +16670,7 @@
         <v>8.3450982939579504E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16599,7 +16683,7 @@
         <f t="shared" si="20"/>
         <v>37.143325000000004</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85">
         <f t="shared" si="21"/>
         <v>37.109784696183219</v>
       </c>
@@ -16612,7 +16696,7 @@
         <v>8.4851002780064588E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16625,7 +16709,7 @@
         <f t="shared" si="20"/>
         <v>39.543045000000006</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86">
         <f t="shared" si="21"/>
         <v>39.508951942677349</v>
       </c>
@@ -16638,7 +16722,7 @@
         <v>8.6249370830623114E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16651,7 +16735,7 @@
         <f t="shared" si="20"/>
         <v>41.969480000000004</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87">
         <f t="shared" si="21"/>
         <v>41.9348328185715</v>
       </c>
@@ -16664,7 +16748,7 @@
         <v>8.7651206255326842E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16677,7 +16761,7 @@
         <f t="shared" si="20"/>
         <v>44.417769999999997</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88">
         <f t="shared" si="21"/>
         <v>44.382570300338394</v>
       </c>
@@ -16690,7 +16774,7 @@
         <v>8.9048979107620788E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16703,7 +16787,7 @@
         <f t="shared" si="20"/>
         <v>46.88306</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89">
         <f t="shared" si="21"/>
         <v>46.847307364450756</v>
       </c>
@@ -16716,7 +16800,7 @@
         <v>9.044780855161267E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16729,7 +16813,7 @@
         <f t="shared" si="20"/>
         <v>49.360495</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90">
         <f t="shared" si="21"/>
         <v>49.324186987381303</v>
       </c>
@@ -16742,7 +16826,7 @@
         <v>9.1852813751374229E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16755,7 +16839,7 @@
         <f t="shared" si="20"/>
         <v>51.845215000000003</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91">
         <f t="shared" si="21"/>
         <v>51.808352145602768</v>
       </c>
@@ -16768,7 +16852,7 @@
         <v>9.3256464760332544E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>28</v>
       </c>
@@ -16783,11 +16867,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="Q20:U20"/>
     <mergeCell ref="A15:F15"/>
@@ -16796,19 +16888,11 @@
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16823,12 +16907,12 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -16872,7 +16956,7 @@
       <c r="AG1" s="8"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -16927,7 +17011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -16993,11 +17077,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <f>A60/2</f>
         <v>7.8125</v>
       </c>
@@ -17064,7 +17148,7 @@
         <v>7.8063220000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -17117,7 +17201,7 @@
         <v>0.30669419999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="W6">
         <v>375</v>
       </c>
@@ -17147,7 +17231,7 @@
         <v>0.68103590000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -17185,7 +17269,7 @@
         <v>1.196231</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -17217,7 +17301,7 @@
         <v>1.847423</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -17259,8 +17343,8 @@
         <v>2.6297549999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10">
         <f>$A$4/2</f>
         <v>250</v>
       </c>
@@ -17307,8 +17391,8 @@
         <v>3.53837</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11">
         <f>$A$4/2</f>
         <v>250</v>
       </c>
@@ -17320,7 +17404,7 @@
         <f>_xlfn.FORECAST.LINEAR(B11,U4:U5,T4:T5)</f>
         <v>17.737571875</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11">
         <f>$J$2*(B11)^2*(3*$J$3-B11)/(6*$J$4*$J$5)</f>
         <v>17.520801682737467</v>
       </c>
@@ -17355,7 +17439,7 @@
         <v>4.5684089999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -17384,7 +17468,7 @@
         <v>5.7150179999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AC13">
         <v>312.5</v>
       </c>
@@ -17402,7 +17486,7 @@
         <v>6.9733390000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -17434,7 +17518,7 @@
         <v>8.3385130000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -17468,7 +17552,7 @@
         <v>9.8056850000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -17512,7 +17596,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>$A$10/2</f>
         <v>125</v>
@@ -17525,7 +17609,7 @@
         <f>_xlfn.FORECAST.LINEAR(B17,X3:X4,W3:W4)</f>
         <v>0.2855255625</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17">
         <f>$J$2*(B17)^2*(3*$J$3-B17)/(6*$J$4*$J$5)</f>
         <v>1.9326906118953144E-2</v>
       </c>
@@ -17562,7 +17646,7 @@
         <v>13.026590000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ref="A18:A20" si="1">$A$10/2</f>
         <v>125</v>
@@ -17575,7 +17659,7 @@
         <f>_xlfn.FORECAST.LINEAR(B18,X4:X5,W4:W5)</f>
         <v>5.3202090625</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18">
         <f t="shared" ref="D18:D20" si="2">$J$2*(B18)^2*(3*$J$3-B18)/(6*$J$4*$J$5)</f>
         <v>5.1175826019165198</v>
       </c>
@@ -17612,20 +17696,20 @@
         <v>14.770619999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:B21" si="5">B18+A18</f>
+        <f t="shared" ref="B19:B20" si="5">B18+A18</f>
         <v>257.8125</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:C20" si="6">_xlfn.FORECAST.LINEAR(B19,X5:X6,W5:W6)</f>
         <v>17.659859374999996</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19">
         <f t="shared" si="2"/>
         <v>17.520801682737467</v>
       </c>
@@ -17662,7 +17746,7 @@
         <v>16.59721</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -17675,7 +17759,7 @@
         <f t="shared" si="6"/>
         <v>34.817674374999996</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20">
         <f t="shared" si="2"/>
         <v>34.742188102616389</v>
       </c>
@@ -17714,7 +17798,7 @@
         <v>18.50151</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -17737,7 +17821,7 @@
         <v>20.478670000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AF22">
         <v>296.875</v>
       </c>
@@ -17749,7 +17833,7 @@
         <v>22.52383</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -17769,7 +17853,7 @@
         <v>24.63213</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>8</v>
       </c>
@@ -17789,7 +17873,7 @@
         <v>26.79871</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -17819,7 +17903,7 @@
         <v>29.018719999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -17832,7 +17916,7 @@
         <f>_xlfn.FORECAST.LINEAR(B26,AA3:AA4,Z3:Z4)</f>
         <v>0.14952887500000001</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26">
         <f>$J$2*(B26)^2*(3*$J$3-B26)/(6*$J$4*$J$5)</f>
         <v>1.9326906118953144E-2</v>
       </c>
@@ -17855,7 +17939,7 @@
         <v>31.287310000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ref="A27:A33" si="7">$A$17/2</f>
         <v>62.5</v>
@@ -17868,7 +17952,7 @@
         <f t="shared" ref="C27:C33" si="8">_xlfn.FORECAST.LINEAR(B27,AA4:AA5,Z4:Z5)</f>
         <v>1.6177532500000003</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27">
         <f t="shared" ref="D27:D33" si="9">$J$2*(B27)^2*(3*$J$3-B27)/(6*$J$4*$J$5)</f>
         <v>1.4999095780169762</v>
       </c>
@@ -17891,7 +17975,7 @@
         <v>33.599600000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -17904,7 +17988,7 @@
         <f t="shared" si="8"/>
         <v>5.2230685000000001</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28">
         <f t="shared" si="9"/>
         <v>5.1175826019165198</v>
       </c>
@@ -17927,7 +18011,7 @@
         <v>35.950749999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -17940,7 +18024,7 @@
         <f t="shared" si="8"/>
         <v>10.654625624999998</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29">
         <f t="shared" si="9"/>
         <v>10.561496472071909</v>
       </c>
@@ -17963,7 +18047,7 @@
         <v>38.335900000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -17976,7 +18060,7 @@
         <f t="shared" si="8"/>
         <v>17.601575</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30">
         <f t="shared" si="9"/>
         <v>17.520801682737467</v>
       </c>
@@ -17999,7 +18083,7 @@
         <v>40.750190000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -18012,7 +18096,7 @@
         <f t="shared" si="8"/>
         <v>25.753063750000003</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31">
         <f t="shared" si="9"/>
         <v>25.684648728167517</v>
       </c>
@@ -18035,7 +18119,7 @@
         <v>43.188769999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -18048,7 +18132,7 @@
         <f t="shared" si="8"/>
         <v>34.798246250000005</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32">
         <f t="shared" si="9"/>
         <v>34.742188102616389</v>
       </c>
@@ -18071,7 +18155,7 @@
         <v>45.646769999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -18084,7 +18168,7 @@
         <f t="shared" si="8"/>
         <v>44.426272499999996</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33">
         <f t="shared" si="9"/>
         <v>44.382570300338394</v>
       </c>
@@ -18107,7 +18191,7 @@
         <v>48.119349999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
@@ -18130,7 +18214,7 @@
         <v>50.601640000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AF35">
         <v>500</v>
       </c>
@@ -18142,7 +18226,7 @@
         <v>53.088790000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>27</v>
       </c>
@@ -18152,7 +18236,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>16</v>
       </c>
@@ -18162,7 +18246,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -18182,7 +18266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>$A$26/2</f>
         <v>31.25</v>
@@ -18195,7 +18279,7 @@
         <f>_xlfn.FORECAST.LINEAR(B39,AD3:AD4,AC3:AC4)</f>
         <v>7.6673549999999993E-2</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39">
         <f>$J$2*(B39)^2*(3*$J$3-B39)/(6*$J$4*$J$5)</f>
         <v>1.9326906118953144E-2</v>
       </c>
@@ -18208,7 +18292,7 @@
         <v>1.025847951995945E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" ref="A40:A54" si="13">$A$26/2</f>
         <v>31.25</v>
@@ -18221,7 +18305,7 @@
         <f t="shared" ref="C40:C54" si="14">_xlfn.FORECAST.LINEAR(B40,AD4:AD5,AC4:AC5)</f>
         <v>0.52907839999999995</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40">
         <f t="shared" ref="D40:D54" si="15">$J$2*(B40)^2*(3*$J$3-B40)/(6*$J$4*$J$5)</f>
         <v>0.47305385395866989</v>
       </c>
@@ -18234,7 +18318,7 @@
         <v>1.002197546855846E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18247,7 +18331,7 @@
         <f t="shared" si="14"/>
         <v>1.5546119999999999</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41">
         <f t="shared" si="15"/>
         <v>1.4999095780169762</v>
       </c>
@@ -18260,7 +18344,7 @@
         <v>9.7854667270335805E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18273,7 +18357,7 @@
         <f t="shared" si="14"/>
         <v>3.1144185000000002</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42">
         <f t="shared" si="15"/>
         <v>3.0610378900756627</v>
       </c>
@@ -18286,7 +18370,7 @@
         <v>9.5490137976974778E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18299,7 +18383,7 @@
         <f t="shared" si="14"/>
         <v>5.1696414999999982</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43">
         <f t="shared" si="15"/>
         <v>5.1175826019165198</v>
       </c>
@@ -18312,7 +18396,7 @@
         <v>9.3125787958712996E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18325,7 +18409,7 @@
         <f t="shared" si="14"/>
         <v>7.6814254999999996</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44">
         <f t="shared" si="15"/>
         <v>7.6306875253213384</v>
       </c>
@@ -18338,7 +18422,7 @@
         <v>9.0762848337719495E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18351,7 +18435,7 @@
         <f t="shared" si="14"/>
         <v>10.610911250000001</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45">
         <f t="shared" si="15"/>
         <v>10.561496472071909</v>
       </c>
@@ -18364,7 +18448,7 @@
         <v>8.8395842032216367E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18377,7 +18461,7 @@
         <f t="shared" si="14"/>
         <v>13.919245</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46">
         <f t="shared" si="15"/>
         <v>13.871153253950022</v>
       </c>
@@ -18390,7 +18474,7 @@
         <v>8.6029130659527261E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18403,7 +18487,7 @@
         <f t="shared" si="14"/>
         <v>17.567574999999998</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47">
         <f t="shared" si="15"/>
         <v>17.520801682737467</v>
       </c>
@@ -18416,7 +18500,7 @@
         <v>8.3670653545746716E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18429,7 +18513,7 @@
         <f t="shared" si="14"/>
         <v>21.517035</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48">
         <f t="shared" si="15"/>
         <v>21.471585570216035</v>
       </c>
@@ -18442,7 +18526,7 @@
         <v>8.1302411628438546E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18455,7 +18539,7 @@
         <f t="shared" si="14"/>
         <v>25.728777500000003</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49">
         <f t="shared" si="15"/>
         <v>25.684648728167517</v>
       </c>
@@ -18468,7 +18552,7 @@
         <v>7.8939946864814287E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18481,7 +18565,7 @@
         <f t="shared" si="14"/>
         <v>30.163939999999997</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50">
         <f t="shared" si="15"/>
         <v>30.121134968373703</v>
       </c>
@@ -18494,7 +18578,7 @@
         <v>7.6571968396337425E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18507,7 +18591,7 @@
         <f t="shared" si="14"/>
         <v>34.783675000000002</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51">
         <f t="shared" si="15"/>
         <v>34.742188102616389</v>
       </c>
@@ -18520,7 +18604,7 @@
         <v>7.4214018180254462E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18533,7 +18617,7 @@
         <f t="shared" si="14"/>
         <v>39.549117500000001</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52">
         <f t="shared" si="15"/>
         <v>39.508951942677349</v>
       </c>
@@ -18546,7 +18630,7 @@
         <v>7.1850333222091521E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18559,7 +18643,7 @@
         <f t="shared" si="14"/>
         <v>44.421414999999996</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53">
         <f t="shared" si="15"/>
         <v>44.382570300338394</v>
       </c>
@@ -18572,7 +18656,7 @@
         <v>6.9487511207125072E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18585,7 +18669,7 @@
         <f t="shared" si="14"/>
         <v>49.361709999999995</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54">
         <f t="shared" si="15"/>
         <v>49.324186987381303</v>
       </c>
@@ -18598,7 +18682,7 @@
         <v>6.7123205548782284E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>28</v>
       </c>
@@ -18611,7 +18695,7 @@
         <v>8.4851438294641004E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>27</v>
       </c>
@@ -18621,7 +18705,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>32</v>
       </c>
@@ -18631,7 +18715,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -18651,7 +18735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>$A$39/2</f>
         <v>15.625</v>
@@ -18664,7 +18748,7 @@
         <f>_xlfn.FORECAST.LINEAR(B60,AG3:AG4,AF3:AF4)</f>
         <v>3.9031610000000001E-2</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60">
         <f>$J$2*(B60)^2*(3*$J$3-B60)/(6*$J$4*$J$5)</f>
         <v>1.9326906118953144E-2</v>
       </c>
@@ -18677,9 +18761,9 @@
         <v>4.9849395906614111E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" ref="A61:A124" si="19">$A$39/2</f>
+        <f t="shared" ref="A61:A91" si="19">$A$39/2</f>
         <v>15.625</v>
       </c>
       <c r="B61">
@@ -18690,7 +18774,7 @@
         <f t="shared" ref="C61:C91" si="20">_xlfn.FORECAST.LINEAR(B61,AG4:AG5,AF4:AF5)</f>
         <v>0.19237870999999998</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61">
         <f t="shared" ref="D61:D91" si="21">$J$2*(B61)^2*(3*$J$3-B61)/(6*$J$4*$J$5)</f>
         <v>0.17212077124784975</v>
       </c>
@@ -18703,20 +18787,20 @@
         <v>5.1248981725587183E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="19"/>
         <v>15.625</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:B125" si="24">B61+A61</f>
+        <f t="shared" ref="B62:B91" si="24">B61+A61</f>
         <v>39.0625</v>
       </c>
       <c r="C62">
         <f t="shared" si="20"/>
         <v>0.49386505000000003</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62">
         <f t="shared" si="21"/>
         <v>0.47305385395866989</v>
       </c>
@@ -18729,7 +18813,7 @@
         <v>5.2648624258306324E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18742,7 +18826,7 @@
         <f t="shared" si="20"/>
         <v>0.93863344999999998</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63">
         <f t="shared" si="21"/>
         <v>0.91726913072413752</v>
       </c>
@@ -18755,7 +18839,7 @@
         <v>5.404792765661165E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18768,7 +18852,7 @@
         <f t="shared" si="20"/>
         <v>1.521827</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64">
         <f t="shared" si="21"/>
         <v>1.4999095780169762</v>
       </c>
@@ -18781,7 +18865,7 @@
         <v>5.5447179124319653E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18794,7 +18878,7 @@
         <f t="shared" si="20"/>
         <v>2.2385890000000002</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65">
         <f t="shared" si="21"/>
         <v>2.2161181723099102</v>
       </c>
@@ -18807,7 +18891,7 @@
         <v>5.6847197127891736E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18820,7 +18904,7 @@
         <f t="shared" si="20"/>
         <v>3.0840624999999999</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66">
         <f t="shared" si="21"/>
         <v>3.0610378900756627</v>
       </c>
@@ -18833,7 +18917,7 @@
         <v>5.8248167678258125E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18846,7 +18930,7 @@
         <f t="shared" si="20"/>
         <v>4.0533894999999998</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67">
         <f t="shared" si="21"/>
         <v>4.0298117077869584</v>
       </c>
@@ -18859,7 +18943,7 @@
         <v>5.9647620473114102E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18872,7 +18956,7 @@
         <f t="shared" si="20"/>
         <v>5.1417134999999998</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68">
         <f t="shared" si="21"/>
         <v>5.1175826019165198</v>
       </c>
@@ -18885,7 +18969,7 @@
         <v>6.1046879943351048E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18898,7 +18982,7 @@
         <f t="shared" si="20"/>
         <v>6.3441784999999999</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69">
         <f t="shared" si="21"/>
         <v>6.3194935489370723</v>
       </c>
@@ -18911,7 +18995,7 @@
         <v>6.2448535430916696E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18924,7 +19008,7 @@
         <f t="shared" si="20"/>
         <v>7.6559260000000009</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70">
         <f t="shared" si="21"/>
         <v>7.6306875253213384</v>
       </c>
@@ -18937,7 +19021,7 @@
         <v>6.3848851722447713E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18950,7 +19034,7 @@
         <f t="shared" si="20"/>
         <v>9.0720990000000015</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71">
         <f t="shared" si="21"/>
         <v>9.0463075075420427</v>
       </c>
@@ -18963,7 +19047,7 @@
         <v>6.5247888337763363E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18976,7 +19060,7 @@
         <f t="shared" si="20"/>
         <v>10.587842500000001</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72">
         <f t="shared" si="21"/>
         <v>10.561496472071909</v>
       </c>
@@ -18989,7 +19073,7 @@
         <v>6.6650764440942143E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19002,7 +19086,7 @@
         <f t="shared" si="20"/>
         <v>12.198295</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73">
         <f t="shared" si="21"/>
         <v>12.171397395383661</v>
       </c>
@@ -19015,7 +19099,7 @@
         <v>6.8046155352232971E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19028,7 +19112,7 @@
         <f t="shared" si="20"/>
         <v>13.898605</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74">
         <f t="shared" si="21"/>
         <v>13.871153253950022</v>
       </c>
@@ -19041,7 +19125,7 @@
         <v>6.9448034613169675E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19054,7 +19138,7 @@
         <f t="shared" si="20"/>
         <v>15.683914999999999</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75">
         <f t="shared" si="21"/>
         <v>15.655907024243715</v>
       </c>
@@ -19067,7 +19151,7 @@
         <v>7.085519683250616E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19080,7 +19164,7 @@
         <f t="shared" si="20"/>
         <v>17.54936</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76">
         <f t="shared" si="21"/>
         <v>17.520801682737467</v>
       </c>
@@ -19093,7 +19177,7 @@
         <v>7.2247462953047266E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19106,7 +19190,7 @@
         <f t="shared" si="20"/>
         <v>19.490090000000002</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77">
         <f t="shared" si="21"/>
         <v>19.460980205903997</v>
       </c>
@@ -19119,7 +19203,7 @@
         <v>7.3642601249518406E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19132,7 +19216,7 @@
         <f t="shared" si="20"/>
         <v>21.501249999999999</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78">
         <f t="shared" si="21"/>
         <v>21.471585570216035</v>
       </c>
@@ -19145,7 +19229,7 @@
         <v>7.5045730885968881E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19158,7 +19242,7 @@
         <f t="shared" si="20"/>
         <v>23.57798</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79">
         <f t="shared" si="21"/>
         <v>23.547760752146299</v>
       </c>
@@ -19171,7 +19255,7 @@
         <v>7.6449321915879661E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19184,7 +19268,7 @@
         <f t="shared" si="20"/>
         <v>25.715420000000002</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80">
         <f t="shared" si="21"/>
         <v>25.684648728167517</v>
       </c>
@@ -19197,7 +19281,7 @@
         <v>7.7845844392668839E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19210,7 +19294,7 @@
         <f t="shared" si="20"/>
         <v>27.908715000000001</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81">
         <f t="shared" si="21"/>
         <v>27.877392474752412</v>
       </c>
@@ -19223,7 +19307,7 @@
         <v>7.9240417480408148E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19236,7 +19320,7 @@
         <f t="shared" si="20"/>
         <v>30.153015</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82">
         <f t="shared" si="21"/>
         <v>30.121134968373703</v>
       </c>
@@ -19249,7 +19333,7 @@
         <v>8.0650809453840996E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19262,7 +19346,7 @@
         <f t="shared" si="20"/>
         <v>32.443455</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83">
         <f t="shared" si="21"/>
         <v>32.411019185504124</v>
       </c>
@@ -19275,7 +19359,7 @@
         <v>8.2056841255740785E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19288,7 +19372,7 @@
         <f t="shared" si="20"/>
         <v>34.775175000000004</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84">
         <f t="shared" si="21"/>
         <v>34.742188102616389</v>
       </c>
@@ -19301,7 +19385,7 @@
         <v>8.3450982939579504E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19314,7 +19398,7 @@
         <f t="shared" si="20"/>
         <v>37.143325000000004</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85">
         <f t="shared" si="21"/>
         <v>37.109784696183219</v>
       </c>
@@ -19327,7 +19411,7 @@
         <v>8.4851002780064588E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19340,7 +19424,7 @@
         <f t="shared" si="20"/>
         <v>39.543045000000006</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86">
         <f t="shared" si="21"/>
         <v>39.508951942677349</v>
       </c>
@@ -19353,7 +19437,7 @@
         <v>8.6249370830623114E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19366,7 +19450,7 @@
         <f t="shared" si="20"/>
         <v>41.969480000000004</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87">
         <f t="shared" si="21"/>
         <v>41.9348328185715</v>
       </c>
@@ -19379,7 +19463,7 @@
         <v>8.7651206255326842E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19392,7 +19476,7 @@
         <f t="shared" si="20"/>
         <v>44.417769999999997</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88">
         <f t="shared" si="21"/>
         <v>44.382570300338394</v>
       </c>
@@ -19405,7 +19489,7 @@
         <v>8.9048979107620788E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19418,7 +19502,7 @@
         <f t="shared" si="20"/>
         <v>46.88306</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89">
         <f t="shared" si="21"/>
         <v>46.847307364450756</v>
       </c>
@@ -19431,7 +19515,7 @@
         <v>9.044780855161267E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19444,7 +19528,7 @@
         <f t="shared" si="20"/>
         <v>49.360495</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90">
         <f t="shared" si="21"/>
         <v>49.324186987381303</v>
       </c>
@@ -19457,7 +19541,7 @@
         <v>9.1852813751374229E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19470,7 +19554,7 @@
         <f t="shared" si="20"/>
         <v>51.845215000000003</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91">
         <f t="shared" si="21"/>
         <v>51.808352145602768</v>
       </c>
@@ -19483,7 +19567,7 @@
         <v>9.3256464760332544E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>28</v>
       </c>
@@ -19498,19 +19582,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A21:E21"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
@@ -19524,6 +19595,19 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19538,9 +19622,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>500</v>
       </c>
@@ -19548,7 +19632,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>250</v>
       </c>
@@ -19556,7 +19640,7 @@
         <v>52.63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>125</v>
       </c>
@@ -19564,7 +19648,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -19578,14 +19662,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ec825916-6f01-4646-bf11-4e97fdd06dc8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="10202d72-3646-4d36-9cf4-1feba2c78df0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19784,15 +19866,44 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ec825916-6f01-4646-bf11-4e97fdd06dc8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="10202d72-3646-4d36-9cf4-1feba2c78df0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{049B9CA3-12FC-4CEB-9993-2AFFCD484BD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{332CB245-0E6D-49DC-AFE1-91A0E15FC7DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ec825916-6f01-4646-bf11-4e97fdd06dc8"/>
+    <ds:schemaRef ds:uri="10202d72-3646-4d36-9cf4-1feba2c78df0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{302EDB21-6CB0-437A-8576-0759B92620D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ec825916-6f01-4646-bf11-4e97fdd06dc8"/>
@@ -19804,18 +19915,7 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{332CB245-0E6D-49DC-AFE1-91A0E15FC7DB}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{049B9CA3-12FC-4CEB-9993-2AFFCD484BD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="10202d72-3646-4d36-9cf4-1feba2c78df0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/bin/Analyse_Conv_Lombaire.xlsx
+++ b/bin/Analyse_Conv_Lombaire.xlsx
@@ -5,21 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picco\Desktop\POLYMTL - H2024\MEC8211\Projet Final\MEC8211ProjetFinal\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benda\OneDrive\Documents\GitHub\MEC8211ProjetFinal\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30012181-E5F4-4CAA-B083-588CB8F63D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBB9B8F-6F99-41A9-BA12-EFC14EBD8C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FEC442AA-958D-4418-9C83-F98D0EC0E124}"/>
+    <workbookView xWindow="7950" yWindow="2205" windowWidth="17280" windowHeight="8925" activeTab="2" xr2:uid="{FEC442AA-958D-4418-9C83-F98D0EC0E124}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4 (2)" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Feuil1" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4 (2)" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,8 +44,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="37">
   <si>
     <t>Déplacement axial (mm)</t>
   </si>
@@ -178,13 +204,27 @@
       <t xml:space="preserve"> 200N</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">True Y </t>
+  </si>
+  <si>
+    <t>nbr d'elem</t>
+  </si>
+  <si>
+    <t>somme errcar</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000%"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -245,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -255,6 +295,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,12 +315,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -290,7 +338,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -352,7 +400,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -652,7 +700,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1632422480"/>
@@ -714,7 +762,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1826389072"/>
@@ -762,7 +810,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -776,7 +824,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -838,7 +886,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1141,7 +1189,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1712420352"/>
@@ -1203,7 +1251,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1826404784"/>
@@ -1251,7 +1299,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1265,7 +1313,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2353,7 +2401,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2391,7 +2439,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="477271791"/>
@@ -2445,7 +2493,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2483,7 +2531,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="477280911"/>
@@ -2535,7 +2583,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2572,7 +2620,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2586,7 +2634,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2753,7 +2801,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2868,7 +2916,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1691802528"/>
@@ -2931,7 +2979,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1691804928"/>
@@ -2979,7 +3027,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2993,7 +3041,575 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Convergence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" baseline="0"/>
+              <a:t> de l'erreur L2</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]AnalyseCV_Mehdi!$T$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]AnalyseCV_Mehdi!$Q$63:$Q$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]AnalyseCV_Mehdi!$T$63:$T$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.118441843312846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9837612360525056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1131635559756325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13702613218810117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3048024262074103E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1287766398436783E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6395-4AA8-8E85-2CA024C69DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]AnalyseCV_Mehdi!$Q$66:$Q$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]AnalyseCV_Mehdi!$T$66:$T$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.13702613218810117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3048024262074103E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1287766398436783E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6395-4AA8-8E85-2CA024C69DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1911372511"/>
+        <c:axId val="1420657695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1911372511"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>dx</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1420657695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1420657695"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1911372511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4081,7 +4697,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4119,7 +4735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="477271791"/>
@@ -4173,7 +4789,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4211,7 +4827,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="477280911"/>
@@ -4263,7 +4879,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4300,7 +4916,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4311,10 +4927,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4395,7 +5011,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4596,7 +5212,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1691802528"/>
@@ -4659,7 +5275,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1691804928"/>
@@ -4707,7 +5323,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4718,10 +5334,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4888,7 +5504,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5003,7 +5619,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388226416"/>
@@ -5066,7 +5682,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388239856"/>
@@ -5114,7 +5730,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5125,10 +5741,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5295,7 +5911,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5410,7 +6026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388226416"/>
@@ -5473,7 +6089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388239856"/>
@@ -5521,7 +6137,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5852,6 +6468,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9465,6 +10121,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10157,8 +11329,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13710624" y="2046191"/>
-          <a:ext cx="2004507" cy="1348564"/>
+          <a:off x="13482024" y="2116676"/>
+          <a:ext cx="1954977" cy="1409524"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -10279,8 +11451,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13390755" y="3430793"/>
-          <a:ext cx="2645311" cy="1061205"/>
+          <a:off x="13164060" y="3562238"/>
+          <a:ext cx="2572921" cy="1101210"/>
           <a:chOff x="12544487" y="3339353"/>
           <a:chExt cx="2572248" cy="1099305"/>
         </a:xfrm>
@@ -10379,6 +11551,293 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>459444</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>181196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>440841</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66720</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93690115-DD37-4539-8E9F-A35F8169EFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="25033944" y="1924271"/>
+          <a:ext cx="1953072" cy="1409524"/>
+          <a:chOff x="12864356" y="1927409"/>
+          <a:chExt cx="1949822" cy="1409524"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5A6F9C-E85B-BAFD-5C43-D9C6FFBB9029}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect r="31983"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12864356" y="1927409"/>
+            <a:ext cx="1949822" cy="1409524"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB99DD2F-3003-7909-3F93-FE5E4C2F5EAD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13054853" y="1938617"/>
+            <a:ext cx="1266264" cy="459441"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1100"/>
+              <a:t>Déflection</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+              <a:t> d'une poutre d'euler</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>141480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>199801</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60968</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CFD6D4-ABDA-4363-AC2F-1072EC08A835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24715980" y="3369833"/>
+          <a:ext cx="2572921" cy="1101210"/>
+          <a:chOff x="12544487" y="3339353"/>
+          <a:chExt cx="2572248" cy="1099305"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3626D15C-7EDD-529F-0CC9-E8E734630E81}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:srcRect t="14708"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12544487" y="4010574"/>
+            <a:ext cx="2572248" cy="428084"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA499AD-0FA7-0530-2BC7-905FD0199C2E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13144500" y="3339353"/>
+            <a:ext cx="1266264" cy="616323"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1100"/>
+              <a:t>Déflection</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+              <a:t> d'une poutre de timoshenko</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EE30B9-132F-4CD5-81C3-0B3F1F01F347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10482,8 +11941,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13736173" y="2017056"/>
-          <a:ext cx="2012576" cy="1319877"/>
+          <a:off x="13435856" y="2117909"/>
+          <a:ext cx="1949822" cy="1409524"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -10604,8 +12063,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13416304" y="3372971"/>
-          <a:ext cx="2652931" cy="1041034"/>
+          <a:off x="13115987" y="3563471"/>
+          <a:ext cx="2572248" cy="1099305"/>
           <a:chOff x="12544487" y="3339353"/>
           <a:chExt cx="2572248" cy="1099305"/>
         </a:xfrm>
@@ -10703,7 +12162,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10731,8 +12190,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7333690" y="179294"/>
-          <a:ext cx="1949822" cy="1331083"/>
+          <a:off x="7248525" y="190500"/>
+          <a:ext cx="1936375" cy="1409524"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -10866,7 +12325,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10894,8 +12353,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7333690" y="179294"/>
-          <a:ext cx="1949822" cy="1331083"/>
+          <a:off x="7248525" y="190500"/>
+          <a:ext cx="1936375" cy="1409524"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -11031,8 +12490,90 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="AnalyseCV_Mehdi"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet4 (2)"/>
+      <sheetName val="Sheet6"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="62">
+          <cell r="T62" t="str">
+            <v>L2</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="Q63">
+            <v>500</v>
+          </cell>
+          <cell r="T63">
+            <v>7.118441843312846</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="Q64">
+            <v>250</v>
+          </cell>
+          <cell r="T64">
+            <v>1.9837612360525056</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="Q65">
+            <v>125</v>
+          </cell>
+          <cell r="T65">
+            <v>1.1131635559756325</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="Q66">
+            <v>62.5</v>
+          </cell>
+          <cell r="T66">
+            <v>0.13702613218810117</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="Q67">
+            <v>31.25</v>
+          </cell>
+          <cell r="T67">
+            <v>4.3048024262074103E-2</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="Q68">
+            <v>15.625</v>
+          </cell>
+          <cell r="T68">
+            <v>2.1287766398436783E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -11334,20 +12875,20 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11358,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -11369,7 +12910,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+10</f>
         <v>20</v>
@@ -11381,7 +12922,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A42" si="0">A4+10</f>
         <v>30</v>
@@ -11393,7 +12934,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -11405,7 +12946,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -11417,7 +12958,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -11429,7 +12970,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -11441,7 +12982,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -11453,7 +12994,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -11465,7 +13006,7 @@
         <v>1.331</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -11477,7 +13018,7 @@
         <v>1.4970000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -11489,7 +13030,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -11501,19 +13042,19 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>A15+10</f>
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -11525,31 +13066,31 @@
         <v>2.3919999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>200</v>
@@ -11561,31 +13102,31 @@
         <v>3.4319999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>A24+10</f>
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -11597,31 +13138,31 @@
         <v>4.6740000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -11633,31 +13174,31 @@
         <v>6.1989999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>A35+10</f>
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>350</v>
@@ -11669,31 +13210,31 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>A40+10</f>
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -11715,81 +13256,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A191FB21-7128-439D-B466-52F6BCB92DCD}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="12"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="12"/>
       <c r="R2" s="2"/>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="W2" s="5" t="s">
+      <c r="U2" s="10"/>
+      <c r="W2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="5"/>
+      <c r="X2" s="9"/>
       <c r="Y2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11842,7 +13383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11897,7 +13438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500</v>
       </c>
@@ -11953,7 +13494,7 @@
         <v>7.6902872515206236E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>500</v>
       </c>
@@ -12003,7 +13544,7 @@
         <v>0.30437347437597412</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>375</v>
       </c>
@@ -12048,7 +13589,7 @@
         <v>0.6775547820550275</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>500</v>
       </c>
@@ -12089,7 +13630,7 @@
         <v>1.1915897720250903</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J9">
         <v>312.5</v>
       </c>
@@ -12124,7 +13665,7 @@
         <v>1.8416214207588861</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>375</v>
       </c>
@@ -12156,7 +13697,7 @@
         <v>2.6227927047291386</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>437.5</v>
       </c>
@@ -12188,7 +13729,7 @@
         <v>3.5302466004085722</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>500</v>
       </c>
@@ -12220,7 +13761,7 @@
         <v>4.5591260842699102</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M13">
         <v>281.25</v>
       </c>
@@ -12246,7 +13787,7 @@
         <v>5.7045741327858766</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M14">
         <v>312.5</v>
       </c>
@@ -12272,7 +13813,7 @@
         <v>6.9617337224291953</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M15">
         <v>343.75</v>
       </c>
@@ -12298,7 +13839,7 @@
         <v>8.32574782967259</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M16">
         <v>375</v>
       </c>
@@ -12324,7 +13865,7 @@
         <v>9.791759430988785</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M17">
         <v>406.25</v>
       </c>
@@ -12350,7 +13891,7 @@
         <v>11.354911502850504</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>437.5</v>
       </c>
@@ -12376,7 +13917,7 @@
         <v>13.010347021730469</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>468.75</v>
       </c>
@@ -12402,7 +13943,7 @@
         <v>14.753208964101406</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>500</v>
       </c>
@@ -12428,14 +13969,14 @@
         <v>16.578640306436039</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -12458,7 +13999,7 @@
         <v>18.481784025207087</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -12496,7 +14037,7 @@
         <v>20.457783096887283</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>500/A30</f>
         <v>500</v>
@@ -12539,7 +14080,7 @@
         <v>22.501780497949344</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:A28" si="3">500/A31</f>
         <v>250</v>
@@ -12582,7 +14123,7 @@
         <v>24.608919204865995</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -12625,7 +14166,7 @@
         <v>26.774342194109959</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>62.5</v>
@@ -12668,7 +14209,7 @@
         <v>28.993192442153962</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="3"/>
         <v>31.25</v>
@@ -12711,7 +14252,7 @@
         <v>31.260612925470728</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="3"/>
         <v>15.625</v>
@@ -12754,7 +14295,7 @@
         <v>33.571746620532977</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>390.625</v>
       </c>
@@ -12774,7 +14315,7 @@
         <v>35.921736503813435</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -12797,7 +14338,7 @@
         <v>38.305725551784832</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -12820,7 +14361,7 @@
         <v>40.718856740919882</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -12843,7 +14384,7 @@
         <v>43.156273047691315</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -12866,7 +14407,7 @@
         <v>45.613117448571849</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16</v>
       </c>
@@ -12889,7 +14430,7 @@
         <v>48.084532920034214</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -12912,7 +14453,7 @@
         <v>50.565662438551129</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P36">
         <v>500</v>
       </c>
@@ -12950,6 +14491,3467 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00F4938-12C8-41DF-BCF2-C62C0D320924}">
+  <dimension ref="A1:AO82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.5703125" customWidth="1"/>
+    <col min="22" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="10.5703125" customWidth="1"/>
+    <col min="28" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="12"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AJ1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="10"/>
+      <c r="AM1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN1" s="9"/>
+      <c r="AO1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD35" si="0">AC3-AN3</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK3">
+        <v>500</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ref="AN3:AN34" si="1">$AK$2*AM3^2*(3*$AK$3-AM3)/(6*$AK$4*$AK$5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4">
+        <v>53.088790000000003</v>
+      </c>
+      <c r="F4">
+        <v>250</v>
+      </c>
+      <c r="G4">
+        <v>16.59721</v>
+      </c>
+      <c r="K4">
+        <v>125</v>
+      </c>
+      <c r="L4">
+        <v>4.5684089999999999</v>
+      </c>
+      <c r="P4">
+        <v>62.5</v>
+      </c>
+      <c r="Q4">
+        <v>1.196231</v>
+      </c>
+      <c r="V4">
+        <v>31.25</v>
+      </c>
+      <c r="W4">
+        <v>0.30669419999999997</v>
+      </c>
+      <c r="AB4">
+        <v>15.625</v>
+      </c>
+      <c r="AC4">
+        <v>7.8063220000000003E-2</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>1.1603474847937667E-3</v>
+      </c>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>100</v>
+      </c>
+      <c r="AM4">
+        <v>15.625</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="1"/>
+        <v>7.6902872515206236E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5">
+        <v>53.088790000000003</v>
+      </c>
+      <c r="K5">
+        <v>250</v>
+      </c>
+      <c r="L5">
+        <v>16.59721</v>
+      </c>
+      <c r="P5">
+        <v>125</v>
+      </c>
+      <c r="Q5">
+        <v>4.5684089999999999</v>
+      </c>
+      <c r="V5">
+        <v>62.5</v>
+      </c>
+      <c r="W5">
+        <v>1.196231</v>
+      </c>
+      <c r="AB5">
+        <v>31.25</v>
+      </c>
+      <c r="AC5">
+        <v>0.30669419999999997</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>2.3207256240258545E-3</v>
+      </c>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK5">
+        <v>7853.9814439900001</v>
+      </c>
+      <c r="AM5">
+        <v>31.25</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="1"/>
+        <v>0.30437347437597412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>375</v>
+      </c>
+      <c r="L6">
+        <v>33.599600000000002</v>
+      </c>
+      <c r="P6">
+        <v>187.5</v>
+      </c>
+      <c r="Q6">
+        <v>9.8056850000000004</v>
+      </c>
+      <c r="V6">
+        <v>93.75</v>
+      </c>
+      <c r="W6">
+        <v>2.6297549999999998</v>
+      </c>
+      <c r="AB6">
+        <v>46.875</v>
+      </c>
+      <c r="AC6">
+        <v>0.68103590000000003</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>3.4811179449725227E-3</v>
+      </c>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK6">
+        <f>4*1/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AM6">
+        <v>46.875</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="1"/>
+        <v>0.6775547820550275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>500</v>
+      </c>
+      <c r="L7">
+        <v>53.088790000000003</v>
+      </c>
+      <c r="P7">
+        <v>250</v>
+      </c>
+      <c r="Q7">
+        <v>16.59721</v>
+      </c>
+      <c r="V7">
+        <v>125</v>
+      </c>
+      <c r="W7">
+        <v>4.5684089999999999</v>
+      </c>
+      <c r="AB7">
+        <v>62.5</v>
+      </c>
+      <c r="AC7">
+        <v>1.196231</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>4.641227974909734E-3</v>
+      </c>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM7">
+        <v>62.5</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="1"/>
+        <v>1.1915897720250903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" ref="B8:B40">_xlfn.FORECAST.LINEAR(A8:A40,B3:B4,A3:A4)</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>AN3</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>B8-C8</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8:G24">_xlfn.FORECAST.LINEAR(F8:F24,G3:G4,F3:F4)</f>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>G8-H8</f>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="P8">
+        <v>312.5</v>
+      </c>
+      <c r="Q8">
+        <v>24.63213</v>
+      </c>
+      <c r="V8">
+        <v>156.25</v>
+      </c>
+      <c r="W8">
+        <v>6.9733390000000002</v>
+      </c>
+      <c r="AB8">
+        <v>78.125</v>
+      </c>
+      <c r="AC8">
+        <v>1.847423</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>5.8015792411139078E-3</v>
+      </c>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM8">
+        <v>78.125</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="1"/>
+        <v>1.8416214207588861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15.625</v>
+      </c>
+      <c r="B9">
+        <v>1.6590246875000001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:C40" si="2">AN4</f>
+        <v>7.6902872515206236E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D40" si="3">B9-C9</f>
+        <v>1.5821218149847938</v>
+      </c>
+      <c r="F9">
+        <v>15.625</v>
+      </c>
+      <c r="G9">
+        <v>1.0373256250000016</v>
+      </c>
+      <c r="H9">
+        <v>7.6902872515206236E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I40" si="4">G9-H9</f>
+        <v>0.96042275248479536</v>
+      </c>
+      <c r="P9">
+        <v>375</v>
+      </c>
+      <c r="Q9">
+        <v>33.599600000000002</v>
+      </c>
+      <c r="V9">
+        <v>187.5</v>
+      </c>
+      <c r="W9">
+        <v>9.8056850000000004</v>
+      </c>
+      <c r="AB9">
+        <v>93.75</v>
+      </c>
+      <c r="AC9">
+        <v>2.6297549999999998</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>6.9622952708612296E-3</v>
+      </c>
+      <c r="AI9" s="4"/>
+      <c r="AM9">
+        <v>93.75</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="1"/>
+        <v>2.6227927047291386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>31.25</v>
+      </c>
+      <c r="B10">
+        <v>3.3180493750000002</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>0.30437347437597412</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>3.0136759006240261</v>
+      </c>
+      <c r="F10">
+        <v>31.25</v>
+      </c>
+      <c r="G10">
+        <v>2.0746512500000014</v>
+      </c>
+      <c r="H10">
+        <v>0.30437347437597412</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>1.7702777756240273</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10:L18">_xlfn.FORECAST.LINEAR(K10:K18,L3:L4,K3:K4)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>L10-M10</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>437.5</v>
+      </c>
+      <c r="Q10">
+        <v>43.188769999999998</v>
+      </c>
+      <c r="V10">
+        <v>218.75</v>
+      </c>
+      <c r="W10">
+        <v>13.026590000000001</v>
+      </c>
+      <c r="AB10">
+        <v>109.375</v>
+      </c>
+      <c r="AC10">
+        <v>3.53837</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>8.1233995914278267E-3</v>
+      </c>
+      <c r="AI10" s="4"/>
+      <c r="AM10">
+        <v>109.375</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="1"/>
+        <v>3.5302466004085722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>46.875</v>
+      </c>
+      <c r="B11">
+        <v>4.9770740625000007</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>0.6775547820550275</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>4.2995192804449731</v>
+      </c>
+      <c r="F11">
+        <v>46.875</v>
+      </c>
+      <c r="G11">
+        <v>3.1119768750000012</v>
+      </c>
+      <c r="H11">
+        <v>0.6775547820550275</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>2.4344220929449736</v>
+      </c>
+      <c r="K11">
+        <v>15.625</v>
+      </c>
+      <c r="L11">
+        <v>0.57105112499999999</v>
+      </c>
+      <c r="M11">
+        <v>7.6902872515206236E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N42" si="5">L11-M11</f>
+        <v>0.49414825248479377</v>
+      </c>
+      <c r="P11">
+        <v>500</v>
+      </c>
+      <c r="Q11">
+        <v>53.088790000000003</v>
+      </c>
+      <c r="V11">
+        <v>250</v>
+      </c>
+      <c r="W11">
+        <v>16.59721</v>
+      </c>
+      <c r="AB11">
+        <v>125</v>
+      </c>
+      <c r="AC11">
+        <v>4.5684089999999999</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="0"/>
+        <v>9.2829157300897691E-3</v>
+      </c>
+      <c r="AI11" s="4"/>
+      <c r="AM11">
+        <v>125</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="1"/>
+        <v>4.5591260842699102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>62.5</v>
+      </c>
+      <c r="B12">
+        <v>6.6360987500000004</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>1.1915897720250903</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>5.4445089779749098</v>
+      </c>
+      <c r="F12">
+        <v>62.5</v>
+      </c>
+      <c r="G12">
+        <v>4.149302500000001</v>
+      </c>
+      <c r="H12">
+        <v>1.1915897720250903</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>2.9577127279749105</v>
+      </c>
+      <c r="K12">
+        <v>31.25</v>
+      </c>
+      <c r="L12">
+        <v>1.14210225</v>
+      </c>
+      <c r="M12">
+        <v>0.30437347437597412</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0.83772877562402592</v>
+      </c>
+      <c r="V12">
+        <v>281.25</v>
+      </c>
+      <c r="W12">
+        <v>20.478670000000001</v>
+      </c>
+      <c r="AB12">
+        <v>140.625</v>
+      </c>
+      <c r="AC12">
+        <v>5.7150179999999997</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="0"/>
+        <v>1.0443867214123159E-2</v>
+      </c>
+      <c r="AI12" s="4"/>
+      <c r="AM12">
+        <v>140.625</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="1"/>
+        <v>5.7045741327858766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>78.125</v>
+      </c>
+      <c r="B13">
+        <v>8.2951234375000009</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>1.8416214207588861</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>6.4535020167411146</v>
+      </c>
+      <c r="F13">
+        <v>78.125</v>
+      </c>
+      <c r="G13">
+        <v>5.1866281250000013</v>
+      </c>
+      <c r="H13">
+        <v>1.8416214207588861</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>3.3450067042411149</v>
+      </c>
+      <c r="K13">
+        <v>46.875</v>
+      </c>
+      <c r="L13">
+        <v>1.7131533749999999</v>
+      </c>
+      <c r="M13">
+        <v>0.6775547820550275</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>1.0355985929449725</v>
+      </c>
+      <c r="V13">
+        <v>312.5</v>
+      </c>
+      <c r="W13">
+        <v>24.63213</v>
+      </c>
+      <c r="AB13">
+        <v>156.25</v>
+      </c>
+      <c r="AC13">
+        <v>6.9733390000000002</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="0"/>
+        <v>1.1605277570804873E-2</v>
+      </c>
+      <c r="AI13" s="4"/>
+      <c r="AM13">
+        <v>156.25</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="1"/>
+        <v>6.9617337224291953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>93.75</v>
+      </c>
+      <c r="B14">
+        <v>9.9541481250000015</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>2.6227927047291386</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>7.3313554202708628</v>
+      </c>
+      <c r="F14">
+        <v>93.75</v>
+      </c>
+      <c r="G14">
+        <v>6.2239537500000006</v>
+      </c>
+      <c r="H14">
+        <v>2.6227927047291386</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>3.601161045270862</v>
+      </c>
+      <c r="K14">
+        <v>62.5</v>
+      </c>
+      <c r="L14">
+        <v>2.2842045</v>
+      </c>
+      <c r="M14">
+        <v>1.1915897720250903</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>1.0926147279749097</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" cm="1">
+        <f t="array" ref="Q14:Q18">_xlfn.FORECAST.LINEAR(P14:P18,Q3:Q4,P3:P4)</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f>Q14-R14</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>343.75</v>
+      </c>
+      <c r="W14">
+        <v>29.018719999999998</v>
+      </c>
+      <c r="AB14">
+        <v>171.875</v>
+      </c>
+      <c r="AC14">
+        <v>8.3385130000000007</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="0"/>
+        <v>1.2765170327410758E-2</v>
+      </c>
+      <c r="AI14" s="4"/>
+      <c r="AM14">
+        <v>171.875</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="1"/>
+        <v>8.32574782967259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>109.375</v>
+      </c>
+      <c r="B15">
+        <v>11.6131728125</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>3.5302466004085722</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>8.0829262120914276</v>
+      </c>
+      <c r="F15">
+        <v>109.375</v>
+      </c>
+      <c r="G15">
+        <v>7.2612793750000009</v>
+      </c>
+      <c r="H15">
+        <v>3.5302466004085722</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>3.7310327745914287</v>
+      </c>
+      <c r="K15">
+        <v>78.125</v>
+      </c>
+      <c r="L15">
+        <v>2.8552556249999999</v>
+      </c>
+      <c r="M15">
+        <v>1.8416214207588861</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>1.0136342042411137</v>
+      </c>
+      <c r="P15">
+        <v>15.625</v>
+      </c>
+      <c r="Q15">
+        <v>0.29905775000000001</v>
+      </c>
+      <c r="R15">
+        <v>7.6902872515206236E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ref="S15:S46" si="6">Q15-R15</f>
+        <v>0.22215487748479379</v>
+      </c>
+      <c r="V15">
+        <v>375</v>
+      </c>
+      <c r="W15">
+        <v>33.599600000000002</v>
+      </c>
+      <c r="AB15">
+        <v>187.5</v>
+      </c>
+      <c r="AC15">
+        <v>9.8056850000000004</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>1.3925569011215444E-2</v>
+      </c>
+      <c r="AI15" s="4"/>
+      <c r="AM15">
+        <v>187.5</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="1"/>
+        <v>9.791759430988785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>125</v>
+      </c>
+      <c r="B16">
+        <v>13.272197500000001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>4.5591260842699102</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>8.7130714157300915</v>
+      </c>
+      <c r="F16">
+        <v>125</v>
+      </c>
+      <c r="G16">
+        <v>8.2986050000000002</v>
+      </c>
+      <c r="H16">
+        <v>4.5591260842699102</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>3.7394789157300901</v>
+      </c>
+      <c r="K16">
+        <v>93.75</v>
+      </c>
+      <c r="L16">
+        <v>3.4263067499999997</v>
+      </c>
+      <c r="M16">
+        <v>2.6227927047291386</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>0.80351404527086112</v>
+      </c>
+      <c r="P16">
+        <v>31.25</v>
+      </c>
+      <c r="Q16">
+        <v>0.59811550000000002</v>
+      </c>
+      <c r="R16">
+        <v>0.30437347437597412</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>0.2937420256240259</v>
+      </c>
+      <c r="V16">
+        <v>406.25</v>
+      </c>
+      <c r="W16">
+        <v>38.335900000000002</v>
+      </c>
+      <c r="AB16">
+        <v>203.125</v>
+      </c>
+      <c r="AC16">
+        <v>11.37</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="0"/>
+        <v>1.5088497149495339E-2</v>
+      </c>
+      <c r="AI16" s="4"/>
+      <c r="AM16">
+        <v>203.125</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="1"/>
+        <v>11.354911502850504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>140.625</v>
+      </c>
+      <c r="B17">
+        <v>14.931222187500001</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>5.7045741327858766</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>9.2266480547141256</v>
+      </c>
+      <c r="F17">
+        <v>140.625</v>
+      </c>
+      <c r="G17">
+        <v>9.3359306249999996</v>
+      </c>
+      <c r="H17">
+        <v>5.7045741327858766</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>3.631356492214123</v>
+      </c>
+      <c r="K17">
+        <v>109.375</v>
+      </c>
+      <c r="L17">
+        <v>3.9973578750000001</v>
+      </c>
+      <c r="M17">
+        <v>3.5302466004085722</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>0.46711127459142787</v>
+      </c>
+      <c r="P17">
+        <v>46.875</v>
+      </c>
+      <c r="Q17">
+        <v>0.89717325000000003</v>
+      </c>
+      <c r="R17">
+        <v>0.6775547820550275</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>0.21961846794497253</v>
+      </c>
+      <c r="V17">
+        <v>437.5</v>
+      </c>
+      <c r="W17">
+        <v>43.188769999999998</v>
+      </c>
+      <c r="AB17">
+        <v>218.75</v>
+      </c>
+      <c r="AC17">
+        <v>13.026590000000001</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="0"/>
+        <v>1.624297826953125E-2</v>
+      </c>
+      <c r="AI17" s="4"/>
+      <c r="AM17">
+        <v>218.75</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="1"/>
+        <v>13.010347021730469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>156.25</v>
+      </c>
+      <c r="B18">
+        <v>16.590246875000002</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>6.9617337224291953</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>9.6285131525708074</v>
+      </c>
+      <c r="F18">
+        <v>156.25</v>
+      </c>
+      <c r="G18">
+        <v>10.373256250000001</v>
+      </c>
+      <c r="H18">
+        <v>6.9617337224291953</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>3.4115225275708054</v>
+      </c>
+      <c r="K18">
+        <v>125</v>
+      </c>
+      <c r="L18">
+        <v>4.5684089999999999</v>
+      </c>
+      <c r="M18">
+        <v>4.5591260842699102</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>9.2829157300897691E-3</v>
+      </c>
+      <c r="P18">
+        <v>62.5</v>
+      </c>
+      <c r="Q18">
+        <v>1.196231</v>
+      </c>
+      <c r="R18">
+        <v>1.1915897720250903</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>4.641227974909734E-3</v>
+      </c>
+      <c r="V18">
+        <v>468.75</v>
+      </c>
+      <c r="W18">
+        <v>48.119349999999997</v>
+      </c>
+      <c r="AB18">
+        <v>234.375</v>
+      </c>
+      <c r="AC18">
+        <v>14.770619999999999</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="0"/>
+        <v>1.7411035898593497E-2</v>
+      </c>
+      <c r="AI18" s="4"/>
+      <c r="AM18">
+        <v>234.375</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="1"/>
+        <v>14.753208964101406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>171.875</v>
+      </c>
+      <c r="B19">
+        <v>18.249271562500002</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>8.32574782967259</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>9.9235237328274124</v>
+      </c>
+      <c r="F19">
+        <v>171.875</v>
+      </c>
+      <c r="G19">
+        <v>11.410581875</v>
+      </c>
+      <c r="H19">
+        <v>8.32574782967259</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>3.0848340453274101</v>
+      </c>
+      <c r="K19">
+        <v>140.625</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19:L26">_xlfn.FORECAST.LINEAR(K19:K26,L5:L6,K5:K6)</f>
+        <v>1.7201187499999975</v>
+      </c>
+      <c r="M19">
+        <v>5.7045741327858766</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>-3.9844553827858791</v>
+      </c>
+      <c r="P19">
+        <v>78.125</v>
+      </c>
+      <c r="Q19" cm="1">
+        <f t="array" ref="Q19:Q22">_xlfn.FORECAST.LINEAR(P19:P22,Q4:Q5,P4:P5)</f>
+        <v>2.0392755000000005</v>
+      </c>
+      <c r="R19">
+        <v>1.8416214207588861</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>0.19765407924111433</v>
+      </c>
+      <c r="V19">
+        <v>500</v>
+      </c>
+      <c r="W19">
+        <v>53.088790000000003</v>
+      </c>
+      <c r="AB19">
+        <v>250</v>
+      </c>
+      <c r="AC19">
+        <v>16.59721</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="0"/>
+        <v>1.8569693563961209E-2</v>
+      </c>
+      <c r="AI19" s="4"/>
+      <c r="AM19">
+        <v>250</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="1"/>
+        <v>16.578640306436039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>187.5</v>
+      </c>
+      <c r="B20">
+        <v>19.908296250000003</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>9.791759430988785</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>10.116536819011218</v>
+      </c>
+      <c r="F20">
+        <v>187.5</v>
+      </c>
+      <c r="G20">
+        <v>12.447907499999999</v>
+      </c>
+      <c r="H20">
+        <v>9.791759430988785</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>2.6561480690112145</v>
+      </c>
+      <c r="K20">
+        <v>156.25</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3.8454174999999964</v>
+      </c>
+      <c r="M20" s="3">
+        <v>6.9617337224291953</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>-3.1163162224291989</v>
+      </c>
+      <c r="P20">
+        <v>93.75</v>
+      </c>
+      <c r="Q20">
+        <v>2.88232</v>
+      </c>
+      <c r="R20">
+        <v>2.6227927047291386</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>0.25952729527086138</v>
+      </c>
+      <c r="AB20">
+        <v>265.625</v>
+      </c>
+      <c r="AC20">
+        <v>18.50151</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="0"/>
+        <v>1.9725974792912382E-2</v>
+      </c>
+      <c r="AI20" s="4"/>
+      <c r="AM20">
+        <v>265.625</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="1"/>
+        <v>18.481784025207087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>203.125</v>
+      </c>
+      <c r="B21">
+        <v>21.5673209375</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>11.354911502850504</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>10.212409434649496</v>
+      </c>
+      <c r="F21">
+        <v>203.125</v>
+      </c>
+      <c r="G21">
+        <v>13.485233125000001</v>
+      </c>
+      <c r="H21">
+        <v>11.354911502850504</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>2.1303216221494967</v>
+      </c>
+      <c r="K21">
+        <v>171.875</v>
+      </c>
+      <c r="L21">
+        <v>5.9707162499999953</v>
+      </c>
+      <c r="M21">
+        <v>8.32574782967259</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>-2.3550315796725947</v>
+      </c>
+      <c r="P21">
+        <v>109.375</v>
+      </c>
+      <c r="Q21">
+        <v>3.7253645000000004</v>
+      </c>
+      <c r="R21">
+        <v>3.5302466004085722</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>0.19511789959142822</v>
+      </c>
+      <c r="AB21">
+        <v>281.25</v>
+      </c>
+      <c r="AC21">
+        <v>20.478670000000001</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="0"/>
+        <v>2.0886903112717903E-2</v>
+      </c>
+      <c r="AI21" s="4"/>
+      <c r="AM21">
+        <v>281.25</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="1"/>
+        <v>20.457783096887283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>218.75</v>
+      </c>
+      <c r="B22">
+        <v>23.226345625</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>13.010347021730469</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>10.215998603269531</v>
+      </c>
+      <c r="F22">
+        <v>218.75</v>
+      </c>
+      <c r="G22">
+        <v>14.52255875</v>
+      </c>
+      <c r="H22">
+        <v>13.010347021730469</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>1.5122117282695307</v>
+      </c>
+      <c r="K22">
+        <v>187.5</v>
+      </c>
+      <c r="L22">
+        <v>8.0960149999999977</v>
+      </c>
+      <c r="M22">
+        <v>9.791759430988785</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>-1.6957444309887872</v>
+      </c>
+      <c r="P22">
+        <v>125</v>
+      </c>
+      <c r="Q22">
+        <v>4.5684089999999999</v>
+      </c>
+      <c r="R22">
+        <v>4.5591260842699102</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>9.2829157300897691E-3</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" cm="1">
+        <f t="array" ref="W22:W24">_xlfn.FORECAST.LINEAR(V22:V24,W3:W4,V3:V4)</f>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f>W22-X22</f>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>296.875</v>
+      </c>
+      <c r="AC22">
+        <v>22.52383</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="0"/>
+        <v>2.2049502050656145E-2</v>
+      </c>
+      <c r="AI22" s="4"/>
+      <c r="AM22">
+        <v>296.875</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="1"/>
+        <v>22.501780497949344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>234.375</v>
+      </c>
+      <c r="B23">
+        <v>24.885370312500001</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>14.753208964101406</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>10.132161348398595</v>
+      </c>
+      <c r="F23">
+        <v>234.375</v>
+      </c>
+      <c r="G23">
+        <v>15.559884374999999</v>
+      </c>
+      <c r="H23">
+        <v>14.753208964101406</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>0.80667541089859363</v>
+      </c>
+      <c r="K23">
+        <v>203.125</v>
+      </c>
+      <c r="L23">
+        <v>10.221313749999997</v>
+      </c>
+      <c r="M23">
+        <v>11.354911502850504</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>-1.1335977528505072</v>
+      </c>
+      <c r="P23">
+        <v>140.625</v>
+      </c>
+      <c r="Q23" cm="1">
+        <f t="array" ref="Q23:Q26">_xlfn.FORECAST.LINEAR(P23:P26,Q5:Q6,P5:P6)</f>
+        <v>5.8777279999999994</v>
+      </c>
+      <c r="R23">
+        <v>5.7045741327858766</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="6"/>
+        <v>0.17315386721412285</v>
+      </c>
+      <c r="V23">
+        <v>15.625</v>
+      </c>
+      <c r="W23">
+        <v>0.15334709999999999</v>
+      </c>
+      <c r="X23">
+        <v>7.6902872515206236E-2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" ref="Y23:Y54" si="7">W23-X23</f>
+        <v>7.644422748479375E-2</v>
+      </c>
+      <c r="AB23">
+        <v>312.5</v>
+      </c>
+      <c r="AC23">
+        <v>24.63213</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="0"/>
+        <v>2.321079513400548E-2</v>
+      </c>
+      <c r="AI23" s="4"/>
+      <c r="AM23">
+        <v>312.5</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="1"/>
+        <v>24.608919204865995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>250</v>
+      </c>
+      <c r="B24">
+        <v>26.544395000000002</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>16.578640306436039</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>9.9657546935639623</v>
+      </c>
+      <c r="F24">
+        <v>250</v>
+      </c>
+      <c r="G24">
+        <v>16.597209999999997</v>
+      </c>
+      <c r="H24">
+        <v>16.578640306436039</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>1.8569693563957657E-2</v>
+      </c>
+      <c r="K24">
+        <v>218.75</v>
+      </c>
+      <c r="L24">
+        <v>12.346612499999999</v>
+      </c>
+      <c r="M24">
+        <v>13.010347021730469</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>-0.66373452173047021</v>
+      </c>
+      <c r="P24">
+        <v>156.25</v>
+      </c>
+      <c r="Q24">
+        <v>7.1870469999999997</v>
+      </c>
+      <c r="R24">
+        <v>6.9617337224291953</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="6"/>
+        <v>0.22531327757080444</v>
+      </c>
+      <c r="V24">
+        <v>31.25</v>
+      </c>
+      <c r="W24">
+        <v>0.30669419999999997</v>
+      </c>
+      <c r="X24">
+        <v>0.30437347437597412</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="7"/>
+        <v>2.3207256240258545E-3</v>
+      </c>
+      <c r="AB24">
+        <v>328.125</v>
+      </c>
+      <c r="AC24">
+        <v>26.79871</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="0"/>
+        <v>2.4367805890040728E-2</v>
+      </c>
+      <c r="AI24" s="4"/>
+      <c r="AM24">
+        <v>328.125</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="1"/>
+        <v>26.774342194109959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>265.625</v>
+      </c>
+      <c r="B25">
+        <v>28.203419687500002</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>18.481784025207087</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>9.7216356622929148</v>
+      </c>
+      <c r="F25">
+        <v>265.625</v>
+      </c>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25:G40">_xlfn.FORECAST.LINEAR(F25:F40,G4:G5,F4:F5)</f>
+        <v>18.877933750000004</v>
+      </c>
+      <c r="H25">
+        <v>18.481784025207087</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>0.39614972479291666</v>
+      </c>
+      <c r="K25">
+        <v>234.375</v>
+      </c>
+      <c r="L25">
+        <v>14.471911249999998</v>
+      </c>
+      <c r="M25">
+        <v>14.753208964101406</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>-0.28129771410140769</v>
+      </c>
+      <c r="P25">
+        <v>171.875</v>
+      </c>
+      <c r="Q25">
+        <v>8.4963660000000001</v>
+      </c>
+      <c r="R25">
+        <v>8.32574782967259</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="6"/>
+        <v>0.17061817032741011</v>
+      </c>
+      <c r="V25">
+        <v>46.875</v>
+      </c>
+      <c r="W25" cm="1">
+        <f t="array" ref="W25:W26">_xlfn.FORECAST.LINEAR(V25:V26,W4:W5,V4:V5)</f>
+        <v>0.75146259999999998</v>
+      </c>
+      <c r="X25">
+        <v>0.6775547820550275</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="7"/>
+        <v>7.3907817944972476E-2</v>
+      </c>
+      <c r="AB25">
+        <v>343.75</v>
+      </c>
+      <c r="AC25">
+        <v>29.018719999999998</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="0"/>
+        <v>2.5527557846036331E-2</v>
+      </c>
+      <c r="AI25" s="4"/>
+      <c r="AM25">
+        <v>343.75</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="1"/>
+        <v>28.993192442153962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>281.25</v>
+      </c>
+      <c r="B26">
+        <v>29.862444375000003</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>20.457783096887283</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>9.4046612781127195</v>
+      </c>
+      <c r="F26">
+        <v>281.25</v>
+      </c>
+      <c r="G26">
+        <v>21.158657500000004</v>
+      </c>
+      <c r="H26">
+        <v>20.457783096887283</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>0.70087440311272076</v>
+      </c>
+      <c r="K26">
+        <v>250</v>
+      </c>
+      <c r="L26">
+        <v>16.597209999999997</v>
+      </c>
+      <c r="M26">
+        <v>16.578640306436039</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>1.8569693563957657E-2</v>
+      </c>
+      <c r="P26">
+        <v>187.5</v>
+      </c>
+      <c r="Q26">
+        <v>9.8056850000000004</v>
+      </c>
+      <c r="R26">
+        <v>9.791759430988785</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="6"/>
+        <v>1.3925569011215444E-2</v>
+      </c>
+      <c r="V26">
+        <v>62.5</v>
+      </c>
+      <c r="W26">
+        <v>1.196231</v>
+      </c>
+      <c r="X26">
+        <v>1.1915897720250903</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="7"/>
+        <v>4.641227974909734E-3</v>
+      </c>
+      <c r="AB26">
+        <v>359.375</v>
+      </c>
+      <c r="AC26">
+        <v>31.287310000000002</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="0"/>
+        <v>2.6697074529273834E-2</v>
+      </c>
+      <c r="AI26" s="4"/>
+      <c r="AM26">
+        <v>359.375</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="1"/>
+        <v>31.260612925470728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>296.875</v>
+      </c>
+      <c r="B27">
+        <v>31.521469062500003</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>22.501780497949344</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>9.019688564550659</v>
+      </c>
+      <c r="F27">
+        <v>296.875</v>
+      </c>
+      <c r="G27">
+        <v>23.439381250000004</v>
+      </c>
+      <c r="H27">
+        <v>22.501780497949344</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>0.93760075205065974</v>
+      </c>
+      <c r="K27">
+        <v>265.625</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27:L34">_xlfn.FORECAST.LINEAR(K27:K34,L5:L6,K5:K6)</f>
+        <v>18.722508749999996</v>
+      </c>
+      <c r="M27">
+        <v>18.481784025207087</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>0.24072472479290852</v>
+      </c>
+      <c r="P27">
+        <v>203.125</v>
+      </c>
+      <c r="Q27" cm="1">
+        <f t="array" ref="Q27:Q30">_xlfn.FORECAST.LINEAR(P27:P30,Q6:Q7,P6:P7)</f>
+        <v>11.503566249999999</v>
+      </c>
+      <c r="R27">
+        <v>11.354911502850504</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="6"/>
+        <v>0.14865474714949478</v>
+      </c>
+      <c r="V27">
+        <v>78.125</v>
+      </c>
+      <c r="W27" cm="1">
+        <f t="array" ref="W27:W28">_xlfn.FORECAST.LINEAR(V27:V28,W5:W6,V5:V6)</f>
+        <v>1.9129929999999999</v>
+      </c>
+      <c r="X27">
+        <v>1.8416214207588861</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="7"/>
+        <v>7.1371579241113814E-2</v>
+      </c>
+      <c r="AB27">
+        <v>375</v>
+      </c>
+      <c r="AC27">
+        <v>33.599600000000002</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="0"/>
+        <v>2.7853379467025263E-2</v>
+      </c>
+      <c r="AI27" s="4"/>
+      <c r="AM27">
+        <v>375</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="1"/>
+        <v>33.571746620532977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>312.5</v>
+      </c>
+      <c r="B28">
+        <v>33.180493750000004</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>24.608919204865995</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>8.5715745451340091</v>
+      </c>
+      <c r="F28">
+        <v>312.5</v>
+      </c>
+      <c r="G28">
+        <v>25.720105000000004</v>
+      </c>
+      <c r="H28">
+        <v>24.608919204865995</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>1.1111857951340092</v>
+      </c>
+      <c r="K28">
+        <v>281.25</v>
+      </c>
+      <c r="L28">
+        <v>20.847807500000002</v>
+      </c>
+      <c r="M28">
+        <v>20.457783096887283</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>0.39002440311271869</v>
+      </c>
+      <c r="P28">
+        <v>218.75</v>
+      </c>
+      <c r="Q28">
+        <v>13.2014475</v>
+      </c>
+      <c r="R28">
+        <v>13.010347021730469</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="6"/>
+        <v>0.19110047826953114</v>
+      </c>
+      <c r="V28">
+        <v>93.75</v>
+      </c>
+      <c r="W28">
+        <v>2.6297550000000003</v>
+      </c>
+      <c r="X28">
+        <v>2.6227927047291386</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="7"/>
+        <v>6.9622952708616737E-3</v>
+      </c>
+      <c r="AB28">
+        <v>390.625</v>
+      </c>
+      <c r="AC28">
+        <v>35.950749999999999</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="0"/>
+        <v>2.901349618656468E-2</v>
+      </c>
+      <c r="AI28" s="4"/>
+      <c r="AM28">
+        <v>390.625</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="1"/>
+        <v>35.921736503813435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>328.125</v>
+      </c>
+      <c r="B29">
+        <v>34.839518437500004</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>26.774342194109959</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>8.0651762433900451</v>
+      </c>
+      <c r="F29">
+        <v>328.125</v>
+      </c>
+      <c r="G29">
+        <v>28.000828750000004</v>
+      </c>
+      <c r="H29">
+        <v>26.774342194109959</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>1.2264865558900446</v>
+      </c>
+      <c r="K29">
+        <v>296.875</v>
+      </c>
+      <c r="L29">
+        <v>22.973106250000001</v>
+      </c>
+      <c r="M29">
+        <v>22.501780497949344</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>0.47132575205065663</v>
+      </c>
+      <c r="P29">
+        <v>234.375</v>
+      </c>
+      <c r="Q29">
+        <v>14.899328749999999</v>
+      </c>
+      <c r="R29">
+        <v>14.753208964101406</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="6"/>
+        <v>0.14611978589859298</v>
+      </c>
+      <c r="V29">
+        <v>109.375</v>
+      </c>
+      <c r="W29" cm="1">
+        <f t="array" ref="W29:W30">_xlfn.FORECAST.LINEAR(V29:V30,W6:W7,V6:V7)</f>
+        <v>3.5990820000000001</v>
+      </c>
+      <c r="X29">
+        <v>3.5302466004085722</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="7"/>
+        <v>6.8835399591427926E-2</v>
+      </c>
+      <c r="AB29">
+        <v>406.25</v>
+      </c>
+      <c r="AC29">
+        <v>38.335900000000002</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="0"/>
+        <v>3.0174448215170457E-2</v>
+      </c>
+      <c r="AI29" s="4"/>
+      <c r="AM29">
+        <v>406.25</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="1"/>
+        <v>38.305725551784832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>343.75</v>
+      </c>
+      <c r="B30">
+        <v>36.498543125000005</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>28.993192442153962</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>7.5053506828460428</v>
+      </c>
+      <c r="F30">
+        <v>343.75</v>
+      </c>
+      <c r="G30">
+        <v>30.281552500000004</v>
+      </c>
+      <c r="H30">
+        <v>28.993192442153962</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>1.2883600578460417</v>
+      </c>
+      <c r="K30">
+        <v>312.5</v>
+      </c>
+      <c r="L30">
+        <v>25.098405</v>
+      </c>
+      <c r="M30">
+        <v>24.608919204865995</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>0.48948579513400503</v>
+      </c>
+      <c r="P30">
+        <v>250</v>
+      </c>
+      <c r="Q30">
+        <v>16.59721</v>
+      </c>
+      <c r="R30">
+        <v>16.578640306436039</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="6"/>
+        <v>1.8569693563961209E-2</v>
+      </c>
+      <c r="V30">
+        <v>125</v>
+      </c>
+      <c r="W30">
+        <v>4.5684089999999999</v>
+      </c>
+      <c r="X30">
+        <v>4.5591260842699102</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="7"/>
+        <v>9.2829157300897691E-3</v>
+      </c>
+      <c r="AB30">
+        <v>421.875</v>
+      </c>
+      <c r="AC30">
+        <v>40.750190000000003</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="0"/>
+        <v>3.1333259080120968E-2</v>
+      </c>
+      <c r="AI30" s="4"/>
+      <c r="AM30">
+        <v>421.875</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="1"/>
+        <v>40.718856740919882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>359.375</v>
+      </c>
+      <c r="B31">
+        <v>38.157567812500005</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>31.260612925470728</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>6.8969548870292776</v>
+      </c>
+      <c r="F31">
+        <v>359.375</v>
+      </c>
+      <c r="G31">
+        <v>32.562276250000004</v>
+      </c>
+      <c r="H31">
+        <v>31.260612925470728</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>1.3016633245292759</v>
+      </c>
+      <c r="K31">
+        <v>328.125</v>
+      </c>
+      <c r="L31">
+        <v>27.223703749999999</v>
+      </c>
+      <c r="M31">
+        <v>26.774342194109959</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>0.44936155589003945</v>
+      </c>
+      <c r="P31">
+        <v>265.625</v>
+      </c>
+      <c r="Q31" cm="1">
+        <f t="array" ref="Q31:Q34">_xlfn.FORECAST.LINEAR(P31:P34,Q7:Q8,P7:P8)</f>
+        <v>18.60594</v>
+      </c>
+      <c r="R31">
+        <v>18.481784025207087</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="6"/>
+        <v>0.12415597479291307</v>
+      </c>
+      <c r="V31">
+        <v>140.625</v>
+      </c>
+      <c r="W31" cm="1">
+        <f t="array" ref="W31:W32">_xlfn.FORECAST.LINEAR(V31:V32,W7:W8,V7:V8)</f>
+        <v>5.7708740000000001</v>
+      </c>
+      <c r="X31">
+        <v>5.7045741327858766</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="7"/>
+        <v>6.6299867214123509E-2</v>
+      </c>
+      <c r="AB31">
+        <v>437.5</v>
+      </c>
+      <c r="AC31">
+        <v>43.188769999999998</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="0"/>
+        <v>3.2496952308683547E-2</v>
+      </c>
+      <c r="AI31" s="4"/>
+      <c r="AM31">
+        <v>437.5</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="1"/>
+        <v>43.156273047691315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>375</v>
+      </c>
+      <c r="B32">
+        <v>39.816592500000006</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>33.571746620532977</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>6.2448458794670287</v>
+      </c>
+      <c r="F32">
+        <v>375</v>
+      </c>
+      <c r="G32">
+        <v>34.843000000000004</v>
+      </c>
+      <c r="H32">
+        <v>33.571746620532977</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>1.2712533794670264</v>
+      </c>
+      <c r="K32">
+        <v>343.75</v>
+      </c>
+      <c r="L32">
+        <v>29.349002499999997</v>
+      </c>
+      <c r="M32">
+        <v>28.993192442153962</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>0.35581005784603548</v>
+      </c>
+      <c r="P32">
+        <v>281.25</v>
+      </c>
+      <c r="Q32">
+        <v>20.61467</v>
+      </c>
+      <c r="R32">
+        <v>20.457783096887283</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>0.15688690311271714</v>
+      </c>
+      <c r="V32">
+        <v>156.25</v>
+      </c>
+      <c r="W32">
+        <v>6.9733390000000002</v>
+      </c>
+      <c r="X32" s="3">
+        <v>6.9617337224291953</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="7"/>
+        <v>1.1605277570804873E-2</v>
+      </c>
+      <c r="AB32">
+        <v>453.125</v>
+      </c>
+      <c r="AC32">
+        <v>45.646769999999997</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="0"/>
+        <v>3.3652551428147603E-2</v>
+      </c>
+      <c r="AI32" s="4"/>
+      <c r="AM32">
+        <v>453.125</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="1"/>
+        <v>45.613117448571849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>390.625</v>
+      </c>
+      <c r="B33">
+        <v>41.475617187500006</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>35.921736503813435</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>5.5538806836865717</v>
+      </c>
+      <c r="F33">
+        <v>390.625</v>
+      </c>
+      <c r="G33">
+        <v>37.123723750000003</v>
+      </c>
+      <c r="H33">
+        <v>35.921736503813435</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>1.2019872461865688</v>
+      </c>
+      <c r="K33">
+        <v>359.375</v>
+      </c>
+      <c r="L33">
+        <v>31.474301250000003</v>
+      </c>
+      <c r="M33">
+        <v>31.260612925470728</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>0.21368832452927577</v>
+      </c>
+      <c r="P33">
+        <v>296.875</v>
+      </c>
+      <c r="Q33">
+        <v>22.6234</v>
+      </c>
+      <c r="R33">
+        <v>22.501780497949344</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="6"/>
+        <v>0.12161950205065608</v>
+      </c>
+      <c r="V33">
+        <v>171.875</v>
+      </c>
+      <c r="W33" cm="1">
+        <f t="array" ref="W33:W34">_xlfn.FORECAST.LINEAR(V33:V34,W8:W9,V8:V9)</f>
+        <v>8.3895119999999999</v>
+      </c>
+      <c r="X33">
+        <v>8.32574782967259</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="7"/>
+        <v>6.3764170327409886E-2</v>
+      </c>
+      <c r="AB33">
+        <v>468.75</v>
+      </c>
+      <c r="AC33">
+        <v>48.119349999999997</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="0"/>
+        <v>3.4817079965783648E-2</v>
+      </c>
+      <c r="AI33" s="4"/>
+      <c r="AM33">
+        <v>468.75</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="1"/>
+        <v>48.084532920034214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>406.25</v>
+      </c>
+      <c r="B34">
+        <v>43.134641875</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>38.305725551784832</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>4.8289163232151679</v>
+      </c>
+      <c r="F34">
+        <v>406.25</v>
+      </c>
+      <c r="G34">
+        <v>39.404447500000003</v>
+      </c>
+      <c r="H34">
+        <v>38.305725551784832</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>1.0987219482151716</v>
+      </c>
+      <c r="K34">
+        <v>375</v>
+      </c>
+      <c r="L34">
+        <v>33.599600000000002</v>
+      </c>
+      <c r="M34">
+        <v>33.571746620532977</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>2.7853379467025263E-2</v>
+      </c>
+      <c r="P34">
+        <v>312.5</v>
+      </c>
+      <c r="Q34">
+        <v>24.63213</v>
+      </c>
+      <c r="R34">
+        <v>24.608919204865995</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="6"/>
+        <v>2.321079513400548E-2</v>
+      </c>
+      <c r="V34">
+        <v>187.5</v>
+      </c>
+      <c r="W34">
+        <v>9.8056850000000004</v>
+      </c>
+      <c r="X34">
+        <v>9.791759430988785</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="7"/>
+        <v>1.3925569011215444E-2</v>
+      </c>
+      <c r="AB34">
+        <v>484.375</v>
+      </c>
+      <c r="AC34">
+        <v>50.601640000000003</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="0"/>
+        <v>3.5977561448873985E-2</v>
+      </c>
+      <c r="AI34" s="4"/>
+      <c r="AM34">
+        <v>484.375</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="1"/>
+        <v>50.565662438551129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>421.875</v>
+      </c>
+      <c r="B35">
+        <v>44.7936665625</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>40.718856740919882</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>4.0748098215801178</v>
+      </c>
+      <c r="F35">
+        <v>421.875</v>
+      </c>
+      <c r="G35">
+        <v>41.685171250000003</v>
+      </c>
+      <c r="H35">
+        <v>40.718856740919882</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>0.96631450908012084</v>
+      </c>
+      <c r="K35">
+        <v>390.625</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35:L42">_xlfn.FORECAST.LINEAR(K35:K42,L6:L7,K6:K7)</f>
+        <v>36.035748749999996</v>
+      </c>
+      <c r="M35">
+        <v>35.921736503813435</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>0.11401224618656158</v>
+      </c>
+      <c r="P35">
+        <v>328.125</v>
+      </c>
+      <c r="Q35" cm="1">
+        <f t="array" ref="Q35:Q38">_xlfn.FORECAST.LINEAR(P35:P38,Q8:Q9,P8:P9)</f>
+        <v>26.873997500000002</v>
+      </c>
+      <c r="R35">
+        <v>26.774342194109959</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>9.9655305890042456E-2</v>
+      </c>
+      <c r="V35">
+        <v>203.125</v>
+      </c>
+      <c r="W35" cm="1">
+        <f t="array" ref="W35:W36">_xlfn.FORECAST.LINEAR(V35:V36,W9:W10,V9:V10)</f>
+        <v>11.416137500000001</v>
+      </c>
+      <c r="X35">
+        <v>11.354911502850504</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="7"/>
+        <v>6.1225997149497502E-2</v>
+      </c>
+      <c r="AB35">
+        <v>500</v>
+      </c>
+      <c r="AC35">
+        <v>53.088790000000003</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="0"/>
+        <v>3.7141019404678843E-2</v>
+      </c>
+      <c r="AI35" s="4"/>
+      <c r="AM35">
+        <v>500</v>
+      </c>
+      <c r="AN35">
+        <f>$AK$2*AM35^2*(3*$AK$3-AM35)/(6*$AK$4*$AK$5)</f>
+        <v>53.051648980595324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>437.5</v>
+      </c>
+      <c r="B36">
+        <v>46.452691250000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>43.156273047691315</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>3.2964182023086863</v>
+      </c>
+      <c r="F36">
+        <v>437.5</v>
+      </c>
+      <c r="G36">
+        <v>43.965895000000003</v>
+      </c>
+      <c r="H36">
+        <v>43.156273047691315</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>0.80962195230868872</v>
+      </c>
+      <c r="K36">
+        <v>406.25</v>
+      </c>
+      <c r="L36">
+        <v>38.471897499999997</v>
+      </c>
+      <c r="M36">
+        <v>38.305725551784832</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>0.16617194821516534</v>
+      </c>
+      <c r="P36">
+        <v>343.75</v>
+      </c>
+      <c r="Q36">
+        <v>29.115864999999999</v>
+      </c>
+      <c r="R36">
+        <v>28.993192442153962</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="6"/>
+        <v>0.12267255784603748</v>
+      </c>
+      <c r="V36">
+        <v>218.75</v>
+      </c>
+      <c r="W36">
+        <v>13.026589999999999</v>
+      </c>
+      <c r="X36">
+        <v>13.010347021730469</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="7"/>
+        <v>1.6242978269529473E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>453.125</v>
+      </c>
+      <c r="B37">
+        <v>48.111715937500001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>45.613117448571849</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>2.4985984889281525</v>
+      </c>
+      <c r="F37">
+        <v>453.125</v>
+      </c>
+      <c r="G37">
+        <v>46.246618750000003</v>
+      </c>
+      <c r="H37">
+        <v>45.613117448571849</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>0.63350130142815431</v>
+      </c>
+      <c r="K37">
+        <v>421.875</v>
+      </c>
+      <c r="L37">
+        <v>40.908046249999998</v>
+      </c>
+      <c r="M37">
+        <v>40.718856740919882</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>0.18918950908011567</v>
+      </c>
+      <c r="P37">
+        <v>359.375</v>
+      </c>
+      <c r="Q37">
+        <v>31.357732500000004</v>
+      </c>
+      <c r="R37">
+        <v>31.260612925470728</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="6"/>
+        <v>9.7119574529276775E-2</v>
+      </c>
+      <c r="V37">
+        <v>234.375</v>
+      </c>
+      <c r="W37" cm="1">
+        <f t="array" ref="W37:W38">_xlfn.FORECAST.LINEAR(V37:V38,W10:W11,V10:V11)</f>
+        <v>14.811900000000001</v>
+      </c>
+      <c r="X37">
+        <v>14.753208964101406</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="7"/>
+        <v>5.86910358985957E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>468.75</v>
+      </c>
+      <c r="B38">
+        <v>49.770740625000002</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>48.084532920034214</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>1.6862077049657884</v>
+      </c>
+      <c r="F38">
+        <v>468.75</v>
+      </c>
+      <c r="G38">
+        <v>48.527342499999996</v>
+      </c>
+      <c r="H38">
+        <v>48.084532920034214</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0.44280957996578252</v>
+      </c>
+      <c r="K38">
+        <v>437.5</v>
+      </c>
+      <c r="L38">
+        <v>43.344194999999999</v>
+      </c>
+      <c r="M38">
+        <v>43.156273047691315</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>0.18792195230868458</v>
+      </c>
+      <c r="P38">
+        <v>375</v>
+      </c>
+      <c r="Q38">
+        <v>33.599600000000002</v>
+      </c>
+      <c r="R38">
+        <v>33.571746620532977</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="6"/>
+        <v>2.7853379467025263E-2</v>
+      </c>
+      <c r="V38">
+        <v>250</v>
+      </c>
+      <c r="W38">
+        <v>16.59721</v>
+      </c>
+      <c r="X38">
+        <v>16.578640306436039</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="7"/>
+        <v>1.8569693563961209E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>484.375</v>
+      </c>
+      <c r="B39">
+        <v>51.429765312500002</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>50.565662438551129</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.8641028739488732</v>
+      </c>
+      <c r="F39">
+        <v>484.375</v>
+      </c>
+      <c r="G39">
+        <v>50.808066250000003</v>
+      </c>
+      <c r="H39">
+        <v>50.565662438551129</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>0.2424038114488738</v>
+      </c>
+      <c r="K39">
+        <v>453.125</v>
+      </c>
+      <c r="L39">
+        <v>45.78034375</v>
+      </c>
+      <c r="M39">
+        <v>45.613117448571849</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>0.1672263014281512</v>
+      </c>
+      <c r="P39">
+        <v>390.625</v>
+      </c>
+      <c r="Q39" cm="1">
+        <f t="array" ref="Q39:Q42">_xlfn.FORECAST.LINEAR(P39:P42,Q9:Q10,P9:P10)</f>
+        <v>35.996892500000001</v>
+      </c>
+      <c r="R39">
+        <v>35.921736503813435</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>7.5155996186566654E-2</v>
+      </c>
+      <c r="V39">
+        <v>265.625</v>
+      </c>
+      <c r="W39" cm="1">
+        <f t="array" ref="W39:W40">_xlfn.FORECAST.LINEAR(V39:V40,W11:W12,V11:V12)</f>
+        <v>18.537939999999999</v>
+      </c>
+      <c r="X39">
+        <v>18.481784025207087</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="7"/>
+        <v>5.6155974792911678E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>500</v>
+      </c>
+      <c r="B40">
+        <v>53.088790000000003</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>53.051648980595324</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="3"/>
+        <v>3.7141019404678843E-2</v>
+      </c>
+      <c r="F40">
+        <v>500</v>
+      </c>
+      <c r="G40">
+        <v>53.08879000000001</v>
+      </c>
+      <c r="H40">
+        <v>53.051648980595324</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="4"/>
+        <v>3.7141019404685949E-2</v>
+      </c>
+      <c r="K40">
+        <v>468.75</v>
+      </c>
+      <c r="L40">
+        <v>48.216492500000001</v>
+      </c>
+      <c r="M40">
+        <v>48.084532920034214</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>0.13195957996578755</v>
+      </c>
+      <c r="P40">
+        <v>406.25</v>
+      </c>
+      <c r="Q40">
+        <v>38.394185</v>
+      </c>
+      <c r="R40">
+        <v>38.305725551784832</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>8.8459448215168379E-2</v>
+      </c>
+      <c r="V40">
+        <v>281.25</v>
+      </c>
+      <c r="W40">
+        <v>20.478670000000001</v>
+      </c>
+      <c r="X40">
+        <v>20.457783096887283</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="7"/>
+        <v>2.0886903112717903E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>484.375</v>
+      </c>
+      <c r="L41">
+        <v>50.652641250000002</v>
+      </c>
+      <c r="M41">
+        <v>50.565662438551129</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>8.6978811448872762E-2</v>
+      </c>
+      <c r="P41">
+        <v>421.875</v>
+      </c>
+      <c r="Q41">
+        <v>40.791477500000006</v>
+      </c>
+      <c r="R41">
+        <v>40.718856740919882</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="6"/>
+        <v>7.2620759080123776E-2</v>
+      </c>
+      <c r="V41">
+        <v>296.875</v>
+      </c>
+      <c r="W41" cm="1">
+        <f t="array" ref="W41:W42">_xlfn.FORECAST.LINEAR(V41:V42,W12:W13,V12:V13)</f>
+        <v>22.555399999999999</v>
+      </c>
+      <c r="X41">
+        <v>22.501780497949344</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="7"/>
+        <v>5.3619502050654688E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>500</v>
+      </c>
+      <c r="L42">
+        <v>53.088790000000003</v>
+      </c>
+      <c r="M42">
+        <v>53.051648980595324</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="5"/>
+        <v>3.7141019404678843E-2</v>
+      </c>
+      <c r="P42">
+        <v>437.5</v>
+      </c>
+      <c r="Q42">
+        <v>43.188769999999998</v>
+      </c>
+      <c r="R42">
+        <v>43.156273047691315</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>3.2496952308683547E-2</v>
+      </c>
+      <c r="V42">
+        <v>312.5</v>
+      </c>
+      <c r="W42">
+        <v>24.632130000000004</v>
+      </c>
+      <c r="X42">
+        <v>24.608919204865995</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="7"/>
+        <v>2.3210795134009032E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>453.125</v>
+      </c>
+      <c r="Q43" cm="1">
+        <f t="array" ref="Q43:Q46">_xlfn.FORECAST.LINEAR(P43:P46,Q10:Q11,P10:P11)</f>
+        <v>45.663774999999987</v>
+      </c>
+      <c r="R43">
+        <v>45.613117448571849</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="6"/>
+        <v>5.0657551428137992E-2</v>
+      </c>
+      <c r="V43">
+        <v>328.125</v>
+      </c>
+      <c r="W43" cm="1">
+        <f t="array" ref="W43:W44">_xlfn.FORECAST.LINEAR(V43:V44,W13:W14,V13:V14)</f>
+        <v>26.825424999999999</v>
+      </c>
+      <c r="X43">
+        <v>26.774342194109959</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="7"/>
+        <v>5.1082805890040106E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>468.75</v>
+      </c>
+      <c r="Q44">
+        <v>48.138779999999997</v>
+      </c>
+      <c r="R44">
+        <v>48.084532920034214</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="6"/>
+        <v>5.4247079965783485E-2</v>
+      </c>
+      <c r="V44">
+        <v>343.75</v>
+      </c>
+      <c r="W44">
+        <v>29.018719999999998</v>
+      </c>
+      <c r="X44">
+        <v>28.993192442153962</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="7"/>
+        <v>2.5527557846036331E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>484.375</v>
+      </c>
+      <c r="Q45">
+        <v>50.613784999999993</v>
+      </c>
+      <c r="R45">
+        <v>50.565662438551129</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="6"/>
+        <v>4.8122561448863621E-2</v>
+      </c>
+      <c r="V45">
+        <v>359.375</v>
+      </c>
+      <c r="W45" cm="1">
+        <f t="array" ref="W45:W46">_xlfn.FORECAST.LINEAR(V45:V46,W14:W15,V14:V15)</f>
+        <v>31.309159999999999</v>
+      </c>
+      <c r="X45">
+        <v>31.260612925470728</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="7"/>
+        <v>4.8547074529270873E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>500</v>
+      </c>
+      <c r="Q46">
+        <v>53.088790000000003</v>
+      </c>
+      <c r="R46">
+        <v>53.051648980595324</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="6"/>
+        <v>3.7141019404678843E-2</v>
+      </c>
+      <c r="V46">
+        <v>375</v>
+      </c>
+      <c r="W46">
+        <v>33.599600000000002</v>
+      </c>
+      <c r="X46">
+        <v>33.571746620532977</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="7"/>
+        <v>2.7853379467025263E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <v>390.625</v>
+      </c>
+      <c r="W47" cm="1">
+        <f t="array" ref="W47:W48">_xlfn.FORECAST.LINEAR(V47:V48,W15:W16,V15:V16)</f>
+        <v>35.967750000000002</v>
+      </c>
+      <c r="X47">
+        <v>35.921736503813435</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="7"/>
+        <v>4.6013496186567693E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <v>406.25</v>
+      </c>
+      <c r="W48">
+        <v>38.335900000000002</v>
+      </c>
+      <c r="X48">
+        <v>38.305725551784832</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="7"/>
+        <v>3.0174448215170457E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <v>421.875</v>
+      </c>
+      <c r="W49" cm="1">
+        <f t="array" ref="W49:W50">_xlfn.FORECAST.LINEAR(V49:V50,W16:W17,V16:V17)</f>
+        <v>40.762335</v>
+      </c>
+      <c r="X49">
+        <v>40.718856740919882</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="7"/>
+        <v>4.3478259080117709E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="V50">
+        <v>437.5</v>
+      </c>
+      <c r="W50">
+        <v>43.188769999999998</v>
+      </c>
+      <c r="X50">
+        <v>43.156273047691315</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="7"/>
+        <v>3.2496952308683547E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="V51">
+        <v>453.125</v>
+      </c>
+      <c r="W51" cm="1">
+        <f t="array" ref="W51:W52">_xlfn.FORECAST.LINEAR(V51:V52,W17:W18,V17:V18)</f>
+        <v>45.654060000000001</v>
+      </c>
+      <c r="X51">
+        <v>45.613117448571849</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="7"/>
+        <v>4.0942551428152285E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="V52">
+        <v>468.75</v>
+      </c>
+      <c r="W52">
+        <v>48.119349999999997</v>
+      </c>
+      <c r="X52">
+        <v>48.084532920034214</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="7"/>
+        <v>3.4817079965783648E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="V53">
+        <v>484.375</v>
+      </c>
+      <c r="W53" cm="1">
+        <f t="array" ref="W53:W54">_xlfn.FORECAST.LINEAR(V53:V54,W18:W19,V18:V19)</f>
+        <v>50.60407</v>
+      </c>
+      <c r="X53">
+        <v>50.565662438551129</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="7"/>
+        <v>3.8407561448870808E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="V54">
+        <v>500</v>
+      </c>
+      <c r="W54">
+        <v>53.08879000000001</v>
+      </c>
+      <c r="X54">
+        <v>53.051648980595324</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="7"/>
+        <v>3.7141019404685949E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>34</v>
+      </c>
+      <c r="R62" t="s">
+        <v>35</v>
+      </c>
+      <c r="T62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <f>500/P63</f>
+        <v>500</v>
+      </c>
+      <c r="R63">
+        <f>SUMSQ(D8:D40)</f>
+        <v>1722.8552854053244</v>
+      </c>
+      <c r="T63">
+        <f>(R63/34)^0.5</f>
+        <v>7.118441843312846</v>
+      </c>
+    </row>
+    <row r="64" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" ref="Q64:Q68" si="8">500/P64</f>
+        <v>250</v>
+      </c>
+      <c r="R64">
+        <f>SUMSQ(I8:I40)</f>
+        <v>133.80049381659521</v>
+      </c>
+      <c r="T64">
+        <f>(R64/34)^0.5</f>
+        <v>1.9837612360525056</v>
+      </c>
+    </row>
+    <row r="65" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>4</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+      <c r="R65">
+        <f>SUMSQ(N10:N42)</f>
+        <v>42.130525479978715</v>
+      </c>
+      <c r="T65">
+        <f>(R65/34)^0.5</f>
+        <v>1.1131635559756325</v>
+      </c>
+    </row>
+    <row r="66" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>8</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="8"/>
+        <v>62.5</v>
+      </c>
+      <c r="R66">
+        <f>SUMSQ(S14:S46)</f>
+        <v>0.63838947068265306</v>
+      </c>
+      <c r="T66">
+        <f t="shared" ref="T66:T68" si="9">(R66/34)^0.5</f>
+        <v>0.13702613218810117</v>
+      </c>
+    </row>
+    <row r="67" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>16</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="R67">
+        <f>SUMSQ(Y22:Y54)</f>
+        <v>6.3006501357516106E-2</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="9"/>
+        <v>4.3048024262074103E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>32</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="8"/>
+        <v>15.625</v>
+      </c>
+      <c r="R68">
+        <f>SUMSQ(AD3:AD35)</f>
+        <v>1.5407745939970083E-2</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="9"/>
+        <v>2.1287766398436783E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="D82:J82"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AB1:AC1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4D76CF-A0FA-4804-AB29-D6E781D98F74}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
@@ -12957,77 +17959,77 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="12"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="12"/>
       <c r="R2" s="2"/>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="W2" s="5" t="s">
+      <c r="U2" s="10"/>
+      <c r="W2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="5"/>
+      <c r="X2" s="9"/>
       <c r="Y2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13080,7 +18082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13135,7 +18137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500</v>
       </c>
@@ -13191,7 +18193,7 @@
         <v>7.6902872515206236E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>500</v>
       </c>
@@ -13241,7 +18243,7 @@
         <v>0.30437347437597412</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>375</v>
       </c>
@@ -13286,7 +18288,7 @@
         <v>0.6775547820550275</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>500</v>
       </c>
@@ -13327,7 +18329,7 @@
         <v>1.1915897720250903</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J9">
         <v>312.5</v>
       </c>
@@ -13362,7 +18364,7 @@
         <v>1.8416214207588861</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>375</v>
       </c>
@@ -13394,7 +18396,7 @@
         <v>2.6227927047291386</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>437.5</v>
       </c>
@@ -13426,7 +18428,7 @@
         <v>3.5302466004085722</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>500</v>
       </c>
@@ -13458,7 +18460,7 @@
         <v>4.5591260842699102</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M13">
         <v>281.25</v>
       </c>
@@ -13484,7 +18486,7 @@
         <v>5.7045741327858766</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M14">
         <v>312.5</v>
       </c>
@@ -13510,7 +18512,7 @@
         <v>6.9617337224291953</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M15">
         <v>343.75</v>
       </c>
@@ -13536,7 +18538,7 @@
         <v>8.32574782967259</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M16">
         <v>375</v>
       </c>
@@ -13562,7 +18564,7 @@
         <v>9.791759430988785</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M17">
         <v>406.25</v>
       </c>
@@ -13588,7 +18590,7 @@
         <v>11.354911502850504</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>437.5</v>
       </c>
@@ -13614,7 +18616,7 @@
         <v>13.010347021730469</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>468.75</v>
       </c>
@@ -13640,7 +18642,7 @@
         <v>14.753208964101406</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>500</v>
       </c>
@@ -13666,12 +18668,12 @@
         <v>16.578640306436039</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -13694,7 +18696,7 @@
         <v>18.481784025207087</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -13732,7 +18734,7 @@
         <v>20.457783096887283</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>500/A30</f>
         <v>500</v>
@@ -13775,7 +18777,7 @@
         <v>22.501780497949344</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:A28" si="2">500/A31</f>
         <v>250</v>
@@ -13818,7 +18820,7 @@
         <v>24.608919204865995</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -13861,7 +18863,7 @@
         <v>26.774342194109959</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>62.5</v>
@@ -13904,7 +18906,7 @@
         <v>28.993192442153962</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>31.25</v>
@@ -13947,7 +18949,7 @@
         <v>31.260612925470728</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>15.625</v>
@@ -13990,7 +18992,7 @@
         <v>33.571746620532977</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>390.625</v>
       </c>
@@ -14010,7 +19012,7 @@
         <v>35.921736503813435</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -14033,7 +19035,7 @@
         <v>38.305725551784832</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -14056,7 +19058,7 @@
         <v>40.718856740919882</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -14079,7 +19081,7 @@
         <v>43.156273047691315</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -14102,7 +19104,7 @@
         <v>45.613117448571849</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16</v>
       </c>
@@ -14125,7 +19127,7 @@
         <v>48.084532920034214</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -14148,7 +19150,7 @@
         <v>50.565662438551129</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P36">
         <v>500</v>
       </c>
@@ -14185,7 +19187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0DBBE7-1A7A-433D-BE75-1FEB6EDF3A31}">
   <dimension ref="A1:AH92"/>
   <sheetViews>
@@ -14193,64 +19195,64 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="Q1" s="8" t="s">
+      <c r="J1" s="10"/>
+      <c r="Q1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="8"/>
+      <c r="R1" s="12"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="8"/>
+      <c r="U1" s="12"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="8"/>
+      <c r="X1" s="12"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="8"/>
+      <c r="AA1" s="12"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="8"/>
+      <c r="AD1" s="12"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="8"/>
+      <c r="AG1" s="12"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="I2" t="s">
         <v>15</v>
       </c>
@@ -14297,7 +19299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -14363,7 +19365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -14433,14 +19435,14 @@
         <v>7.8063220000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5">
         <f>SUM(F4)/A2</f>
         <v>0.44568209883793214</v>
@@ -14486,7 +19488,7 @@
         <v>0.30669419999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="W6">
         <v>375</v>
       </c>
@@ -14516,15 +19518,15 @@
         <v>0.68103590000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="W7">
         <v>500</v>
       </c>
@@ -14554,15 +19556,15 @@
         <v>1.196231</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="Z8">
         <v>312.5</v>
       </c>
@@ -14586,7 +19588,7 @@
         <v>1.847423</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -14628,7 +19630,7 @@
         <v>2.6297549999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>$A$4/2</f>
         <v>250</v>
@@ -14676,7 +19678,7 @@
         <v>3.53837</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>$A$4/2</f>
         <v>250</v>
@@ -14724,14 +19726,14 @@
         <v>4.5684089999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12">
         <f>SUM(F10:F11)/A8</f>
         <v>0.15845326798186071</v>
@@ -14753,7 +19755,7 @@
         <v>5.7150179999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC13">
         <v>312.5</v>
       </c>
@@ -14771,15 +19773,15 @@
         <v>6.9733390000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="I14" t="s">
         <v>29</v>
       </c>
@@ -14803,15 +19805,15 @@
         <v>8.3385130000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="I15">
         <f>A4</f>
         <v>500</v>
@@ -14837,7 +19839,7 @@
         <v>9.8056850000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -14881,7 +19883,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>$A$10/2</f>
         <v>125</v>
@@ -14931,7 +19933,7 @@
         <v>13.026590000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ref="A18:A20" si="1">$A$10/2</f>
         <v>125</v>
@@ -14981,7 +19983,7 @@
         <v>14.770619999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -15031,7 +20033,7 @@
         <v>16.59721</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -15064,11 +20066,11 @@
         <f>F60</f>
         <v>4.9849395906614111E-3</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -15083,14 +20085,14 @@
         <v>18.50151</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21">
         <f>SUM(F17:F20)/A15</f>
         <v>5.7267323046511782E-2</v>
@@ -15106,7 +20108,7 @@
         <v>20.478670000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF22">
         <v>296.875</v>
       </c>
@@ -15118,15 +20120,15 @@
         <v>22.52383</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="AF23">
         <v>312.5</v>
       </c>
@@ -15138,15 +20140,15 @@
         <v>24.63213</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>8</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="AF24">
         <v>328.125</v>
       </c>
@@ -15158,7 +20160,7 @@
         <v>26.79871</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -15188,7 +20190,7 @@
         <v>29.018719999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -15224,7 +20226,7 @@
         <v>31.287310000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ref="A27:A33" si="7">$A$17/2</f>
         <v>62.5</v>
@@ -15260,7 +20262,7 @@
         <v>33.599600000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -15296,7 +20298,7 @@
         <v>35.950749999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -15332,7 +20334,7 @@
         <v>38.335900000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -15368,7 +20370,7 @@
         <v>40.750190000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -15404,7 +20406,7 @@
         <v>43.188769999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -15440,7 +20442,7 @@
         <v>45.646769999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -15476,14 +20478,14 @@
         <v>48.119349999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
       <c r="F34">
         <f>SUM(F26:F33)/A24</f>
         <v>2.2008647175542663E-2</v>
@@ -15499,7 +20501,7 @@
         <v>50.601640000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF35">
         <v>500</v>
       </c>
@@ -15511,27 +20513,27 @@
         <v>53.088790000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>16</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -15551,7 +20553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>$A$26/2</f>
         <v>31.25</v>
@@ -15577,7 +20579,7 @@
         <v>1.3674759131476527E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ref="A40:A54" si="13">$A$26/2</f>
         <v>31.25</v>
@@ -15603,7 +20605,7 @@
         <v>1.3221032399490983E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15629,7 +20631,7 @@
         <v>1.2767336227571468E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15655,7 +20657,7 @@
         <v>1.2313650619583527E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15681,7 +20683,7 @@
         <v>1.1860080799199181E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15707,7 +20709,7 @@
         <v>1.1406481550477082E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15733,7 +20735,7 @@
         <v>1.0952439329318782E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15759,7 +20761,7 @@
         <v>1.0498971675131235E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15785,7 +20787,7 @@
         <v>1.0045486158377215E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15811,7 +20813,7 @@
         <v>9.5917481203962613E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15837,7 +20839,7 @@
         <v>9.1379701161245063E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15863,7 +20865,7 @@
         <v>8.6843647004958627E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15889,7 +20891,7 @@
         <v>8.2311444284474157E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15915,7 +20917,7 @@
         <v>7.7776274277192537E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15941,7 +20943,7 @@
         <v>7.3240262532503686E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -15967,40 +20969,40 @@
         <v>6.870553459974036E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
       <c r="F55">
         <f>SUM(F39:F54)/A37</f>
         <v>1.0272354524814606E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
         <v>32</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -16020,7 +21022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>$A$39/2</f>
         <v>15.625</v>
@@ -16046,7 +21048,7 @@
         <v>4.9849395906614111E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ref="A61:A91" si="19">$A$39/2</f>
         <v>15.625</v>
@@ -16072,7 +21074,7 @@
         <v>5.1248981725587183E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16098,7 +21100,7 @@
         <v>5.2648624258306324E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16124,7 +21126,7 @@
         <v>5.404792765661165E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16150,7 +21152,7 @@
         <v>5.5447179124319653E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16176,7 +21178,7 @@
         <v>5.6847197127891736E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16202,7 +21204,7 @@
         <v>5.8248167678258125E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16228,7 +21230,7 @@
         <v>5.9647620473114102E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16254,7 +21256,7 @@
         <v>6.1046879943351048E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16280,7 +21282,7 @@
         <v>6.2448535430916696E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16306,7 +21308,7 @@
         <v>6.3848851722447713E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16332,7 +21334,7 @@
         <v>6.5247888337763363E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16358,7 +21360,7 @@
         <v>6.6650764440942143E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16384,7 +21386,7 @@
         <v>6.8046155352232971E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16410,7 +21412,7 @@
         <v>6.9448034613169675E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16436,7 +21438,7 @@
         <v>7.085519683250616E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16462,7 +21464,7 @@
         <v>7.2247462953047266E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16488,7 +21490,7 @@
         <v>7.3642601249518406E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16514,7 +21516,7 @@
         <v>7.5045730885968881E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16540,7 +21542,7 @@
         <v>7.6449321915879661E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16566,7 +21568,7 @@
         <v>7.7845844392668839E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16592,7 +21594,7 @@
         <v>7.9240417480408148E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16618,7 +21620,7 @@
         <v>8.0650809453840996E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16644,7 +21646,7 @@
         <v>8.2056841255740785E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16670,7 +21672,7 @@
         <v>8.3450982939579504E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16696,7 +21698,7 @@
         <v>8.4851002780064588E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16722,7 +21724,7 @@
         <v>8.6249370830623114E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16748,7 +21750,7 @@
         <v>8.7651206255326842E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16774,7 +21776,7 @@
         <v>8.9048979107620788E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16800,7 +21802,7 @@
         <v>9.044780855161267E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16826,7 +21828,7 @@
         <v>9.1852813751374229E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -16852,14 +21854,14 @@
         <v>9.3256464760332544E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
       <c r="F92">
         <f>SUM(F60:F91)/A58</f>
         <v>7.1548908099613754E-3</v>
@@ -16867,6 +21869,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:E5"/>
@@ -16880,26 +21895,13 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84864358-5250-4BE9-B91D-D57AC8E2921A}">
   <dimension ref="A1:AH92"/>
   <sheetViews>
@@ -16907,64 +21909,64 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="Q1" s="8" t="s">
+      <c r="J1" s="10"/>
+      <c r="Q1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="8"/>
+      <c r="R1" s="12"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="8"/>
+      <c r="U1" s="12"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="8"/>
+      <c r="X1" s="12"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="8"/>
+      <c r="AA1" s="12"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="8"/>
+      <c r="AD1" s="12"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="8"/>
+      <c r="AG1" s="12"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="I2" t="s">
         <v>15</v>
       </c>
@@ -17011,7 +22013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -17077,7 +22079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -17148,14 +22150,14 @@
         <v>7.8063220000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5">
         <f>SUM(F4)/A2</f>
         <v>3.6232594258468739E-2</v>
@@ -17201,7 +22203,7 @@
         <v>0.30669419999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="W6">
         <v>375</v>
       </c>
@@ -17231,15 +22233,15 @@
         <v>0.68103590000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="W7">
         <v>500</v>
       </c>
@@ -17269,15 +22271,15 @@
         <v>1.196231</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="Z8">
         <v>312.5</v>
       </c>
@@ -17301,7 +22303,7 @@
         <v>1.847423</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -17343,7 +22345,7 @@
         <v>2.6297549999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>$A$4/2</f>
         <v>250</v>
@@ -17391,7 +22393,7 @@
         <v>3.53837</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>$A$4/2</f>
         <v>250</v>
@@ -17439,14 +22441,14 @@
         <v>4.5684089999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12">
         <f>SUM(F10:F11)/A8</f>
         <v>2.2645263180509329E-2</v>
@@ -17468,7 +22470,7 @@
         <v>5.7150179999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC13">
         <v>312.5</v>
       </c>
@@ -17486,15 +22488,15 @@
         <v>6.9733390000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="I14" t="s">
         <v>29</v>
       </c>
@@ -17518,15 +22520,15 @@
         <v>8.3385130000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="I15">
         <f>A4</f>
         <v>500</v>
@@ -17552,7 +22554,7 @@
         <v>9.8056850000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -17596,7 +22598,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>$A$10/2</f>
         <v>125</v>
@@ -17646,7 +22648,7 @@
         <v>13.026590000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ref="A18:A20" si="1">$A$10/2</f>
         <v>125</v>
@@ -17696,7 +22698,7 @@
         <v>14.770619999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -17746,7 +22748,7 @@
         <v>16.59721</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -17779,11 +22781,11 @@
         <f>F60</f>
         <v>4.9849395906614111E-3</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -17798,14 +22800,14 @@
         <v>18.50151</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21">
         <f>SUM(F17:F20)/A15</f>
         <v>1.5280597202030444E-2</v>
@@ -17821,7 +22823,7 @@
         <v>20.478670000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF22">
         <v>296.875</v>
       </c>
@@ -17833,15 +22835,15 @@
         <v>22.52383</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="AF23">
         <v>312.5</v>
       </c>
@@ -17853,15 +22855,15 @@
         <v>24.63213</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>8</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="AF24">
         <v>328.125</v>
       </c>
@@ -17873,7 +22875,7 @@
         <v>26.79871</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -17903,7 +22905,7 @@
         <v>29.018719999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -17939,7 +22941,7 @@
         <v>31.287310000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ref="A27:A33" si="7">$A$17/2</f>
         <v>62.5</v>
@@ -17975,7 +22977,7 @@
         <v>33.599600000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -18011,7 +23013,7 @@
         <v>35.950749999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -18047,7 +23049,7 @@
         <v>38.335900000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -18083,7 +23085,7 @@
         <v>40.750190000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -18119,7 +23121,7 @@
         <v>43.188769999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -18155,7 +23157,7 @@
         <v>45.646769999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -18191,14 +23193,14 @@
         <v>48.119349999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
       <c r="F34">
         <f>SUM(F26:F33)/A24</f>
         <v>1.0998549981516172E-2</v>
@@ -18214,7 +23216,7 @@
         <v>50.601640000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF35">
         <v>500</v>
       </c>
@@ -18226,27 +23228,27 @@
         <v>53.088790000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>16</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -18266,7 +23268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>$A$26/2</f>
         <v>31.25</v>
@@ -18292,7 +23294,7 @@
         <v>1.025847951995945E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ref="A40:A54" si="13">$A$26/2</f>
         <v>31.25</v>
@@ -18318,7 +23320,7 @@
         <v>1.002197546855846E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18344,7 +23346,7 @@
         <v>9.7854667270335805E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18370,7 +23372,7 @@
         <v>9.5490137976974778E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18396,7 +23398,7 @@
         <v>9.3125787958712996E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18422,7 +23424,7 @@
         <v>9.0762848337719495E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18448,7 +23450,7 @@
         <v>8.8395842032216367E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18474,7 +23476,7 @@
         <v>8.6029130659527261E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18500,7 +23502,7 @@
         <v>8.3670653545746716E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18526,7 +23528,7 @@
         <v>8.1302411628438546E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18552,7 +23554,7 @@
         <v>7.8939946864814287E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18578,7 +23580,7 @@
         <v>7.6571968396337425E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18604,7 +23606,7 @@
         <v>7.4214018180254462E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18630,7 +23632,7 @@
         <v>7.1850333222091521E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18656,7 +23658,7 @@
         <v>6.9487511207125072E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -18682,40 +23684,40 @@
         <v>6.7123205548782284E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
       <c r="F55">
         <f>SUM(F39:F54)/A37</f>
         <v>8.4851438294641004E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
         <v>32</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -18735,7 +23737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>$A$39/2</f>
         <v>15.625</v>
@@ -18761,7 +23763,7 @@
         <v>4.9849395906614111E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ref="A61:A91" si="19">$A$39/2</f>
         <v>15.625</v>
@@ -18787,7 +23789,7 @@
         <v>5.1248981725587183E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18813,7 +23815,7 @@
         <v>5.2648624258306324E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18839,7 +23841,7 @@
         <v>5.404792765661165E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18865,7 +23867,7 @@
         <v>5.5447179124319653E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18891,7 +23893,7 @@
         <v>5.6847197127891736E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18917,7 +23919,7 @@
         <v>5.8248167678258125E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18943,7 +23945,7 @@
         <v>5.9647620473114102E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18969,7 +23971,7 @@
         <v>6.1046879943351048E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -18995,7 +23997,7 @@
         <v>6.2448535430916696E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19021,7 +24023,7 @@
         <v>6.3848851722447713E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19047,7 +24049,7 @@
         <v>6.5247888337763363E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19073,7 +24075,7 @@
         <v>6.6650764440942143E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19099,7 +24101,7 @@
         <v>6.8046155352232971E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19125,7 +24127,7 @@
         <v>6.9448034613169675E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19151,7 +24153,7 @@
         <v>7.085519683250616E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19177,7 +24179,7 @@
         <v>7.2247462953047266E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19203,7 +24205,7 @@
         <v>7.3642601249518406E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19229,7 +24231,7 @@
         <v>7.5045730885968881E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19255,7 +24257,7 @@
         <v>7.6449321915879661E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19281,7 +24283,7 @@
         <v>7.7845844392668839E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19307,7 +24309,7 @@
         <v>7.9240417480408148E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19333,7 +24335,7 @@
         <v>8.0650809453840996E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19359,7 +24361,7 @@
         <v>8.2056841255740785E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19385,7 +24387,7 @@
         <v>8.3450982939579504E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19411,7 +24413,7 @@
         <v>8.4851002780064588E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19437,7 +24439,7 @@
         <v>8.6249370830623114E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19463,7 +24465,7 @@
         <v>8.7651206255326842E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19489,7 +24491,7 @@
         <v>8.9048979107620788E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19515,7 +24517,7 @@
         <v>9.044780855161267E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19541,7 +24543,7 @@
         <v>9.1852813751374229E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -19567,14 +24569,14 @@
         <v>9.3256464760332544E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
       <c r="F92">
         <f>SUM(F60:F91)/A58</f>
         <v>7.1548908099613754E-3</v>
@@ -19582,6 +24584,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
@@ -19598,23 +24610,13 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC565308-3586-4036-A1C3-DC81248071A4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -19622,9 +24624,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>500</v>
       </c>
@@ -19632,7 +24634,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>250</v>
       </c>
@@ -19640,7 +24642,7 @@
         <v>52.63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>125</v>
       </c>
@@ -19648,7 +24650,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -19671,6 +24673,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ec825916-6f01-4646-bf11-4e97fdd06dc8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="10202d72-3646-4d36-9cf4-1feba2c78df0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100744768CFAF743F4A83B0523C20156377" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafa440e1ffbdaf1b0956f4ac1c916a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ec825916-6f01-4646-bf11-4e97fdd06dc8" xmlns:ns3="10202d72-3646-4d36-9cf4-1feba2c78df0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a73fe93b8aa32af4ca50956a2221801" ns2:_="" ns3:_="">
     <xsd:import namespace="ec825916-6f01-4646-bf11-4e97fdd06dc8"/>
@@ -19865,17 +24878,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ec825916-6f01-4646-bf11-4e97fdd06dc8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="10202d72-3646-4d36-9cf4-1feba2c78df0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{049B9CA3-12FC-4CEB-9993-2AFFCD484BD9}">
   <ds:schemaRefs>
@@ -19885,6 +24887,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{302EDB21-6CB0-437A-8576-0759B92620D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ec825916-6f01-4646-bf11-4e97fdd06dc8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10202d72-3646-4d36-9cf4-1feba2c78df0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{332CB245-0E6D-49DC-AFE1-91A0E15FC7DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19901,21 +24920,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{302EDB21-6CB0-437A-8576-0759B92620D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ec825916-6f01-4646-bf11-4e97fdd06dc8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="10202d72-3646-4d36-9cf4-1feba2c78df0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/bin/Analyse_Conv_Lombaire.xlsx
+++ b/bin/Analyse_Conv_Lombaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benda\OneDrive\Documents\GitHub\MEC8211ProjetFinal\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBB9B8F-6F99-41A9-BA12-EFC14EBD8C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14FC49-455A-4381-AB70-ECE16EFD599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="2205" windowWidth="17280" windowHeight="8925" activeTab="2" xr2:uid="{FEC442AA-958D-4418-9C83-F98D0EC0E124}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FEC442AA-958D-4418-9C83-F98D0EC0E124}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,6 +303,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,8 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3077,7 +3077,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-CA" baseline="0"/>
-              <a:t> de l'erreur L2</a:t>
+              <a:t> de l'erreur L2 en fonction du pas en espace dx</a:t>
             </a:r>
             <a:endParaRPr lang="fr-CA"/>
           </a:p>
@@ -3154,97 +3154,11 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]AnalyseCV_Mehdi!$Q$63:$Q$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]AnalyseCV_Mehdi!$T$63:$T$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7.118441843312846</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9837612360525056</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1131635559756325</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13702613218810117</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3048024262074103E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1287766398436783E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6395-4AA8-8E85-2CA024C69DF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -3254,6 +3168,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5747908030508339E-2"/>
+                  <c:y val="6.7902903608853968E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3286,17 +3206,26 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]AnalyseCV_Mehdi!$Q$66:$Q$68</c:f>
+              <c:f>[1]AnalyseCV_Mehdi!$Q$63:$Q$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>62.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>31.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>15.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -3304,17 +3233,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]AnalyseCV_Mehdi!$T$66:$T$68</c:f>
+              <c:f>[1]AnalyseCV_Mehdi!$T$63:$T$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7.118441843312846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9837612360525056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1131635559756325</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.13702613218810117</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>4.3048024262074103E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>2.1287766398436783E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3323,7 +3261,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6395-4AA8-8E85-2CA024C69DF4}"/>
+              <c16:uniqueId val="{00000000-6395-4AA8-8E85-2CA024C69DF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3337,6 +3275,136 @@
         </c:dLbls>
         <c:axId val="1911372511"/>
         <c:axId val="1420657695"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="power"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="fr-FR"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]AnalyseCV_Mehdi!$Q$66:$Q$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>62.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31.25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15.625</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]AnalyseCV_Mehdi!$T$66:$T$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.13702613218810117</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.3048024262074103E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.1287766398436783E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-6395-4AA8-8E85-2CA024C69DF4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1911372511"/>
@@ -3484,6 +3552,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Erreur L2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11329,8 +11422,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13482024" y="2116676"/>
-          <a:ext cx="1954977" cy="1409524"/>
+          <a:off x="13786824" y="2046191"/>
+          <a:ext cx="2004507" cy="1348564"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -11451,8 +11544,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13164060" y="3562238"/>
-          <a:ext cx="2572921" cy="1101210"/>
+          <a:off x="13466955" y="3430793"/>
+          <a:ext cx="2645311" cy="1061205"/>
           <a:chOff x="12544487" y="3339353"/>
           <a:chExt cx="2572248" cy="1099305"/>
         </a:xfrm>
@@ -11578,8 +11671,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25033944" y="1924271"/>
-          <a:ext cx="1953072" cy="1409524"/>
+          <a:off x="25656244" y="1832196"/>
+          <a:ext cx="2000697" cy="1307924"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -11700,8 +11793,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24715980" y="3369833"/>
-          <a:ext cx="2572921" cy="1101210"/>
+          <a:off x="25338280" y="3176158"/>
+          <a:ext cx="2636421" cy="1037710"/>
           <a:chOff x="12544487" y="3339353"/>
           <a:chExt cx="2572248" cy="1099305"/>
         </a:xfrm>
@@ -11798,16 +11891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393701</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>349251</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11941,8 +12034,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13435856" y="2117909"/>
-          <a:ext cx="1949822" cy="1409524"/>
+          <a:off x="13825820" y="2017056"/>
+          <a:ext cx="2012576" cy="1319877"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -12063,8 +12156,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13115987" y="3563471"/>
-          <a:ext cx="2572248" cy="1099305"/>
+          <a:off x="13505951" y="3372971"/>
+          <a:ext cx="2652931" cy="1041034"/>
           <a:chOff x="12544487" y="3339353"/>
           <a:chExt cx="2572248" cy="1099305"/>
         </a:xfrm>
@@ -12190,8 +12283,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7248525" y="190500"/>
-          <a:ext cx="1936375" cy="1409524"/>
+          <a:off x="7512984" y="179294"/>
+          <a:ext cx="2003610" cy="1331083"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -12353,8 +12446,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7248525" y="190500"/>
-          <a:ext cx="1936375" cy="1409524"/>
+          <a:off x="7512984" y="179294"/>
+          <a:ext cx="2003610" cy="1331083"/>
           <a:chOff x="12864356" y="1927409"/>
           <a:chExt cx="1949822" cy="1409524"/>
         </a:xfrm>
@@ -12506,9 +12599,9 @@
       <sheetName val="Sheet6"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="62">
           <cell r="T62" t="str">
@@ -12564,9 +12657,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12875,20 +12968,20 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -12899,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -12910,7 +13003,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+10</f>
         <v>20</v>
@@ -12922,7 +13015,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ref="A5:A42" si="0">A4+10</f>
         <v>30</v>
@@ -12934,7 +13027,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -12946,7 +13039,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -12958,7 +13051,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -12970,7 +13063,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -12982,7 +13075,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -12994,7 +13087,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -13006,7 +13099,7 @@
         <v>1.331</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -13018,7 +13111,7 @@
         <v>1.4970000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -13030,7 +13123,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -13042,19 +13135,19 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>A15+10</f>
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -13066,31 +13159,31 @@
         <v>2.3919999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>200</v>
@@ -13102,31 +13195,31 @@
         <v>3.4319999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>A24+10</f>
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -13138,31 +13231,31 @@
         <v>4.6740000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -13174,31 +13267,31 @@
         <v>6.1989999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>A35+10</f>
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>350</v>
@@ -13210,31 +13303,31 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>A40+10</f>
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -13260,77 +13353,77 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="14"/>
       <c r="R2" s="2"/>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="W2" s="9" t="s">
+      <c r="U2" s="12"/>
+      <c r="W2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="9"/>
+      <c r="X2" s="11"/>
       <c r="Y2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13383,7 +13476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13438,7 +13531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>500</v>
       </c>
@@ -13494,7 +13587,7 @@
         <v>7.6902872515206236E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>500</v>
       </c>
@@ -13544,7 +13637,7 @@
         <v>0.30437347437597412</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>375</v>
       </c>
@@ -13589,7 +13682,7 @@
         <v>0.6775547820550275</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>500</v>
       </c>
@@ -13630,7 +13723,7 @@
         <v>1.1915897720250903</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J9">
         <v>312.5</v>
       </c>
@@ -13665,7 +13758,7 @@
         <v>1.8416214207588861</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J10">
         <v>375</v>
       </c>
@@ -13697,7 +13790,7 @@
         <v>2.6227927047291386</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J11">
         <v>437.5</v>
       </c>
@@ -13729,7 +13822,7 @@
         <v>3.5302466004085722</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J12">
         <v>500</v>
       </c>
@@ -13761,7 +13854,7 @@
         <v>4.5591260842699102</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M13">
         <v>281.25</v>
       </c>
@@ -13787,7 +13880,7 @@
         <v>5.7045741327858766</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M14">
         <v>312.5</v>
       </c>
@@ -13813,7 +13906,7 @@
         <v>6.9617337224291953</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M15">
         <v>343.75</v>
       </c>
@@ -13839,7 +13932,7 @@
         <v>8.32574782967259</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M16">
         <v>375</v>
       </c>
@@ -13865,7 +13958,7 @@
         <v>9.791759430988785</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M17">
         <v>406.25</v>
       </c>
@@ -13891,7 +13984,7 @@
         <v>11.354911502850504</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M18">
         <v>437.5</v>
       </c>
@@ -13917,7 +14010,7 @@
         <v>13.010347021730469</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M19">
         <v>468.75</v>
       </c>
@@ -13943,7 +14036,7 @@
         <v>14.753208964101406</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M20">
         <v>500</v>
       </c>
@@ -13969,14 +14062,14 @@
         <v>16.578640306436039</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -13999,7 +14092,7 @@
         <v>18.481784025207087</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -14037,7 +14130,7 @@
         <v>20.457783096887283</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>500/A30</f>
         <v>500</v>
@@ -14080,7 +14173,7 @@
         <v>22.501780497949344</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" ref="A24:A28" si="3">500/A31</f>
         <v>250</v>
@@ -14123,7 +14216,7 @@
         <v>24.608919204865995</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -14166,7 +14259,7 @@
         <v>26.774342194109959</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>62.5</v>
@@ -14209,7 +14302,7 @@
         <v>28.993192442153962</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="3"/>
         <v>31.25</v>
@@ -14252,7 +14345,7 @@
         <v>31.260612925470728</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="3"/>
         <v>15.625</v>
@@ -14295,7 +14388,7 @@
         <v>33.571746620532977</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P29">
         <v>390.625</v>
       </c>
@@ -14315,7 +14408,7 @@
         <v>35.921736503813435</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -14338,7 +14431,7 @@
         <v>38.305725551784832</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -14361,7 +14454,7 @@
         <v>40.718856740919882</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -14384,7 +14477,7 @@
         <v>43.156273047691315</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
@@ -14407,7 +14500,7 @@
         <v>45.613117448571849</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>16</v>
       </c>
@@ -14430,7 +14523,7 @@
         <v>48.084532920034214</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -14453,7 +14546,7 @@
         <v>50.565662438551129</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P36">
         <v>500</v>
       </c>
@@ -14494,97 +14587,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00F4938-12C8-41DF-BCF2-C62C0D320924}">
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62:T68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" customWidth="1"/>
-    <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.5703125" customWidth="1"/>
-    <col min="22" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="10.5703125" customWidth="1"/>
-    <col min="28" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="11" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5546875" customWidth="1"/>
+    <col min="16" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.5546875" customWidth="1"/>
+    <col min="22" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="10.5546875" customWidth="1"/>
+    <col min="28" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:41" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="12"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="12"/>
+      <c r="Q1" s="14"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="12"/>
+      <c r="W1" s="14"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="2"/>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="12"/>
+      <c r="AC1" s="14"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AK1" s="10"/>
-      <c r="AM1" s="9" t="s">
+      <c r="AK1" s="12"/>
+      <c r="AM1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AN1" s="9"/>
+      <c r="AN1" s="11"/>
       <c r="AO1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -14655,7 +14748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -14710,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -14766,7 +14859,7 @@
         <v>7.6902872515206236E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="F5">
         <v>500</v>
       </c>
@@ -14816,7 +14909,7 @@
         <v>0.30437347437597412</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K6">
         <v>375</v>
       </c>
@@ -14861,7 +14954,7 @@
         <v>0.6775547820550275</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K7">
         <v>500</v>
       </c>
@@ -14902,7 +14995,7 @@
         <v>1.1915897720250903</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -14966,7 +15059,7 @@
         <v>1.8416214207588861</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>15.625</v>
       </c>
@@ -15025,7 +15118,7 @@
         <v>2.6227927047291386</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>31.25</v>
       </c>
@@ -15098,7 +15191,7 @@
         <v>3.5302466004085722</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>46.875</v>
       </c>
@@ -15170,7 +15263,7 @@
         <v>4.5591260842699102</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>62.5</v>
       </c>
@@ -15236,7 +15329,7 @@
         <v>5.7045741327858766</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>78.125</v>
       </c>
@@ -15302,7 +15395,7 @@
         <v>6.9617337224291953</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>93.75</v>
       </c>
@@ -15382,7 +15475,7 @@
         <v>8.32574782967259</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>109.375</v>
       </c>
@@ -15461,7 +15554,7 @@
         <v>9.791759430988785</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>125</v>
       </c>
@@ -15540,7 +15633,7 @@
         <v>11.354911502850504</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>140.625</v>
       </c>
@@ -15619,7 +15712,7 @@
         <v>13.010347021730469</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>156.25</v>
       </c>
@@ -15698,7 +15791,7 @@
         <v>14.753208964101406</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>171.875</v>
       </c>
@@ -15779,7 +15872,7 @@
         <v>16.578640306436039</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>187.5</v>
       </c>
@@ -15852,7 +15945,7 @@
         <v>18.481784025207087</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>203.125</v>
       </c>
@@ -15925,7 +16018,7 @@
         <v>20.457783096887283</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>218.75</v>
       </c>
@@ -16012,7 +16105,7 @@
         <v>22.501780497949344</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>234.375</v>
       </c>
@@ -16099,7 +16192,7 @@
         <v>24.608919204865995</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>250</v>
       </c>
@@ -16185,7 +16278,7 @@
         <v>26.774342194109959</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>265.625</v>
       </c>
@@ -16273,7 +16366,7 @@
         <v>28.993192442153962</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>281.25</v>
       </c>
@@ -16359,7 +16452,7 @@
         <v>31.260612925470728</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>296.875</v>
       </c>
@@ -16448,7 +16541,7 @@
         <v>33.571746620532977</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>312.5</v>
       </c>
@@ -16534,7 +16627,7 @@
         <v>35.921736503813435</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>328.125</v>
       </c>
@@ -16621,7 +16714,7 @@
         <v>38.305725551784832</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>343.75</v>
       </c>
@@ -16707,7 +16800,7 @@
         <v>40.718856740919882</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>359.375</v>
       </c>
@@ -16795,7 +16888,7 @@
         <v>43.156273047691315</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>375</v>
       </c>
@@ -16881,7 +16974,7 @@
         <v>45.613117448571849</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>390.625</v>
       </c>
@@ -16968,7 +17061,7 @@
         <v>48.084532920034214</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>406.25</v>
       </c>
@@ -17054,7 +17147,7 @@
         <v>50.565662438551129</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>421.875</v>
       </c>
@@ -17143,7 +17236,7 @@
         <v>53.051648980595324</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>437.5</v>
       </c>
@@ -17211,7 +17304,7 @@
         <v>1.6242978269529473E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>453.125</v>
       </c>
@@ -17280,7 +17373,7 @@
         <v>5.86910358985957E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>468.75</v>
       </c>
@@ -17348,7 +17441,7 @@
         <v>1.8569693563961209E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>484.375</v>
       </c>
@@ -17418,7 +17511,7 @@
         <v>5.6155974792911678E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>500</v>
       </c>
@@ -17429,7 +17522,7 @@
         <f t="shared" si="2"/>
         <v>53.051648980595324</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="9">
         <f t="shared" si="3"/>
         <v>3.7141019404678843E-2</v>
       </c>
@@ -17442,7 +17535,7 @@
       <c r="H40">
         <v>53.051648980595324</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="10">
         <f t="shared" si="4"/>
         <v>3.7141019404685949E-2</v>
       </c>
@@ -17486,7 +17579,7 @@
         <v>2.0886903112717903E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="K41">
         <v>484.375</v>
       </c>
@@ -17528,7 +17621,7 @@
         <v>5.3619502050654688E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="K42">
         <v>500</v>
       </c>
@@ -17569,7 +17662,7 @@
         <v>2.3210795134009032E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="P43">
         <v>453.125</v>
       </c>
@@ -17599,7 +17692,7 @@
         <v>5.1082805890040106E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="P44">
         <v>468.75</v>
       </c>
@@ -17627,7 +17720,7 @@
         <v>2.5527557846036331E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="P45">
         <v>484.375</v>
       </c>
@@ -17656,7 +17749,7 @@
         <v>4.8547074529270873E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="P46">
         <v>500</v>
       </c>
@@ -17684,7 +17777,7 @@
         <v>2.7853379467025263E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="V47">
         <v>390.625</v>
       </c>
@@ -17700,7 +17793,7 @@
         <v>4.6013496186567693E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="V48">
         <v>406.25</v>
       </c>
@@ -17715,7 +17808,7 @@
         <v>3.0174448215170457E-2</v>
       </c>
     </row>
-    <row r="49" spans="16:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:25" x14ac:dyDescent="0.3">
       <c r="V49">
         <v>421.875</v>
       </c>
@@ -17731,7 +17824,7 @@
         <v>4.3478259080117709E-2</v>
       </c>
     </row>
-    <row r="50" spans="16:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:25" x14ac:dyDescent="0.3">
       <c r="V50">
         <v>437.5</v>
       </c>
@@ -17746,7 +17839,7 @@
         <v>3.2496952308683547E-2</v>
       </c>
     </row>
-    <row r="51" spans="16:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:25" x14ac:dyDescent="0.3">
       <c r="V51">
         <v>453.125</v>
       </c>
@@ -17762,7 +17855,7 @@
         <v>4.0942551428152285E-2</v>
       </c>
     </row>
-    <row r="52" spans="16:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:25" x14ac:dyDescent="0.3">
       <c r="V52">
         <v>468.75</v>
       </c>
@@ -17777,7 +17870,7 @@
         <v>3.4817079965783648E-2</v>
       </c>
     </row>
-    <row r="53" spans="16:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:25" x14ac:dyDescent="0.3">
       <c r="V53">
         <v>484.375</v>
       </c>
@@ -17793,7 +17886,7 @@
         <v>3.8407561448870808E-2</v>
       </c>
     </row>
-    <row r="54" spans="16:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="16:25" x14ac:dyDescent="0.3">
       <c r="V54">
         <v>500</v>
       </c>
@@ -17808,127 +17901,135 @@
         <v>3.7141019404685949E-2</v>
       </c>
     </row>
-    <row r="62" spans="16:25" x14ac:dyDescent="0.25">
-      <c r="P62" t="s">
+    <row r="62" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="P62" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R62" t="s">
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T62" t="s">
+      <c r="S62" s="6"/>
+      <c r="T62" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="16:25" x14ac:dyDescent="0.25">
-      <c r="P63">
+    <row r="63" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="P63" s="6">
         <v>1</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="6">
         <f>500/P63</f>
         <v>500</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="6">
         <f>SUMSQ(D8:D40)</f>
         <v>1722.8552854053244</v>
       </c>
-      <c r="T63">
+      <c r="S63" s="6"/>
+      <c r="T63" s="6">
         <f>(R63/34)^0.5</f>
         <v>7.118441843312846</v>
       </c>
     </row>
-    <row r="64" spans="16:25" x14ac:dyDescent="0.25">
-      <c r="P64">
+    <row r="64" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="P64" s="6">
         <v>2</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="6">
         <f t="shared" ref="Q64:Q68" si="8">500/P64</f>
         <v>250</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="6">
         <f>SUMSQ(I8:I40)</f>
         <v>133.80049381659521</v>
       </c>
-      <c r="T64">
+      <c r="S64" s="6"/>
+      <c r="T64" s="6">
         <f>(R64/34)^0.5</f>
         <v>1.9837612360525056</v>
       </c>
     </row>
-    <row r="65" spans="16:20" x14ac:dyDescent="0.25">
-      <c r="P65">
+    <row r="65" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="P65" s="6">
         <v>4</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="6">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="6">
         <f>SUMSQ(N10:N42)</f>
         <v>42.130525479978715</v>
       </c>
-      <c r="T65">
+      <c r="S65" s="6"/>
+      <c r="T65" s="6">
         <f>(R65/34)^0.5</f>
         <v>1.1131635559756325</v>
       </c>
     </row>
-    <row r="66" spans="16:20" x14ac:dyDescent="0.25">
-      <c r="P66">
+    <row r="66" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="P66" s="6">
         <v>8</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="6">
         <f t="shared" si="8"/>
         <v>62.5</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="6">
         <f>SUMSQ(S14:S46)</f>
         <v>0.63838947068265306</v>
       </c>
-      <c r="T66">
+      <c r="S66" s="6"/>
+      <c r="T66" s="6">
         <f t="shared" ref="T66:T68" si="9">(R66/34)^0.5</f>
         <v>0.13702613218810117</v>
       </c>
     </row>
-    <row r="67" spans="16:20" x14ac:dyDescent="0.25">
-      <c r="P67">
+    <row r="67" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="P67" s="6">
         <v>16</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="6">
         <f t="shared" si="8"/>
         <v>31.25</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="6">
         <f>SUMSQ(Y22:Y54)</f>
         <v>6.3006501357516106E-2</v>
       </c>
-      <c r="T67">
+      <c r="S67" s="6"/>
+      <c r="T67" s="6">
         <f t="shared" si="9"/>
         <v>4.3048024262074103E-2</v>
       </c>
     </row>
-    <row r="68" spans="16:20" x14ac:dyDescent="0.25">
-      <c r="P68">
+    <row r="68" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="P68" s="6">
         <v>32</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="6">
         <f t="shared" si="8"/>
         <v>15.625</v>
       </c>
-      <c r="R68">
+      <c r="R68" s="6">
         <f>SUMSQ(AD3:AD35)</f>
         <v>1.5407745939970083E-2</v>
       </c>
-      <c r="T68">
+      <c r="S68" s="6"/>
+      <c r="T68" s="6">
         <f t="shared" si="9"/>
         <v>2.1287766398436783E-2</v>
       </c>
     </row>
-    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="3"/>
@@ -17959,77 +18060,77 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="14"/>
       <c r="R2" s="2"/>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="W2" s="9" t="s">
+      <c r="U2" s="12"/>
+      <c r="W2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="9"/>
+      <c r="X2" s="11"/>
       <c r="Y2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18082,7 +18183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -18137,7 +18238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>500</v>
       </c>
@@ -18193,7 +18294,7 @@
         <v>7.6902872515206236E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>500</v>
       </c>
@@ -18243,7 +18344,7 @@
         <v>0.30437347437597412</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>375</v>
       </c>
@@ -18288,7 +18389,7 @@
         <v>0.6775547820550275</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>500</v>
       </c>
@@ -18329,7 +18430,7 @@
         <v>1.1915897720250903</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J9">
         <v>312.5</v>
       </c>
@@ -18364,7 +18465,7 @@
         <v>1.8416214207588861</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J10">
         <v>375</v>
       </c>
@@ -18396,7 +18497,7 @@
         <v>2.6227927047291386</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J11">
         <v>437.5</v>
       </c>
@@ -18428,7 +18529,7 @@
         <v>3.5302466004085722</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J12">
         <v>500</v>
       </c>
@@ -18460,7 +18561,7 @@
         <v>4.5591260842699102</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M13">
         <v>281.25</v>
       </c>
@@ -18486,7 +18587,7 @@
         <v>5.7045741327858766</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M14">
         <v>312.5</v>
       </c>
@@ -18512,7 +18613,7 @@
         <v>6.9617337224291953</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M15">
         <v>343.75</v>
       </c>
@@ -18538,7 +18639,7 @@
         <v>8.32574782967259</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M16">
         <v>375</v>
       </c>
@@ -18564,7 +18665,7 @@
         <v>9.791759430988785</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M17">
         <v>406.25</v>
       </c>
@@ -18590,7 +18691,7 @@
         <v>11.354911502850504</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M18">
         <v>437.5</v>
       </c>
@@ -18616,7 +18717,7 @@
         <v>13.010347021730469</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M19">
         <v>468.75</v>
       </c>
@@ -18642,7 +18743,7 @@
         <v>14.753208964101406</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M20">
         <v>500</v>
       </c>
@@ -18668,12 +18769,12 @@
         <v>16.578640306436039</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -18696,7 +18797,7 @@
         <v>18.481784025207087</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -18734,7 +18835,7 @@
         <v>20.457783096887283</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>500/A30</f>
         <v>500</v>
@@ -18777,7 +18878,7 @@
         <v>22.501780497949344</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" ref="A24:A28" si="2">500/A31</f>
         <v>250</v>
@@ -18820,7 +18921,7 @@
         <v>24.608919204865995</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -18863,7 +18964,7 @@
         <v>26.774342194109959</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>62.5</v>
@@ -18906,7 +19007,7 @@
         <v>28.993192442153962</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>31.25</v>
@@ -18949,7 +19050,7 @@
         <v>31.260612925470728</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>15.625</v>
@@ -18992,7 +19093,7 @@
         <v>33.571746620532977</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P29">
         <v>390.625</v>
       </c>
@@ -19012,7 +19113,7 @@
         <v>35.921736503813435</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -19035,7 +19136,7 @@
         <v>38.305725551784832</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -19058,7 +19159,7 @@
         <v>40.718856740919882</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -19081,7 +19182,7 @@
         <v>43.156273047691315</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
@@ -19104,7 +19205,7 @@
         <v>45.613117448571849</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>16</v>
       </c>
@@ -19127,7 +19228,7 @@
         <v>48.084532920034214</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -19150,7 +19251,7 @@
         <v>50.565662438551129</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P36">
         <v>500</v>
       </c>
@@ -19195,64 +19296,64 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="I1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="I1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="Q1" s="12" t="s">
+      <c r="J1" s="12"/>
+      <c r="Q1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="12"/>
+      <c r="R1" s="14"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="12"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="12"/>
+      <c r="X1" s="14"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="12"/>
+      <c r="AA1" s="14"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="12"/>
+      <c r="AD1" s="14"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="12"/>
+      <c r="AG1" s="14"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="I2" t="s">
         <v>15</v>
       </c>
@@ -19299,7 +19400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -19365,7 +19466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -19435,14 +19536,14 @@
         <v>7.8063220000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5">
         <f>SUM(F4)/A2</f>
         <v>0.44568209883793214</v>
@@ -19488,7 +19589,7 @@
         <v>0.30669419999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="W6">
         <v>375</v>
       </c>
@@ -19518,15 +19619,15 @@
         <v>0.68103590000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="W7">
         <v>500</v>
       </c>
@@ -19556,15 +19657,15 @@
         <v>1.196231</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="Z8">
         <v>312.5</v>
       </c>
@@ -19588,7 +19689,7 @@
         <v>1.847423</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -19630,7 +19731,7 @@
         <v>2.6297549999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>$A$4/2</f>
         <v>250</v>
@@ -19678,7 +19779,7 @@
         <v>3.53837</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>$A$4/2</f>
         <v>250</v>
@@ -19726,14 +19827,14 @@
         <v>4.5684089999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12">
         <f>SUM(F10:F11)/A8</f>
         <v>0.15845326798186071</v>
@@ -19755,7 +19856,7 @@
         <v>5.7150179999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AC13">
         <v>312.5</v>
       </c>
@@ -19773,15 +19874,15 @@
         <v>6.9733390000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="I14" t="s">
         <v>29</v>
       </c>
@@ -19805,15 +19906,15 @@
         <v>8.3385130000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>4</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="I15">
         <f>A4</f>
         <v>500</v>
@@ -19839,7 +19940,7 @@
         <v>9.8056850000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -19883,7 +19984,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>$A$10/2</f>
         <v>125</v>
@@ -19933,7 +20034,7 @@
         <v>13.026590000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ref="A18:A20" si="1">$A$10/2</f>
         <v>125</v>
@@ -19983,7 +20084,7 @@
         <v>14.770619999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -20033,7 +20134,7 @@
         <v>16.59721</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -20066,11 +20167,11 @@
         <f>F60</f>
         <v>4.9849395906614111E-3</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -20085,14 +20186,14 @@
         <v>18.50151</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21">
         <f>SUM(F17:F20)/A15</f>
         <v>5.7267323046511782E-2</v>
@@ -20108,7 +20209,7 @@
         <v>20.478670000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AF22">
         <v>296.875</v>
       </c>
@@ -20120,15 +20221,15 @@
         <v>22.52383</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="AF23">
         <v>312.5</v>
       </c>
@@ -20140,15 +20241,15 @@
         <v>24.63213</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
         <v>8</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="AF24">
         <v>328.125</v>
       </c>
@@ -20160,7 +20261,7 @@
         <v>26.79871</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -20190,7 +20291,7 @@
         <v>29.018719999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -20226,7 +20327,7 @@
         <v>31.287310000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ref="A27:A33" si="7">$A$17/2</f>
         <v>62.5</v>
@@ -20262,7 +20363,7 @@
         <v>33.599600000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -20298,7 +20399,7 @@
         <v>35.950749999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -20334,7 +20435,7 @@
         <v>38.335900000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -20370,7 +20471,7 @@
         <v>40.750190000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -20406,7 +20507,7 @@
         <v>43.188769999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -20442,7 +20543,7 @@
         <v>45.646769999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -20478,14 +20579,14 @@
         <v>48.119349999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
       <c r="F34">
         <f>SUM(F26:F33)/A24</f>
         <v>2.2008647175542663E-2</v>
@@ -20501,7 +20602,7 @@
         <v>50.601640000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AF35">
         <v>500</v>
       </c>
@@ -20513,27 +20614,27 @@
         <v>53.088790000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
         <v>16</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -20553,7 +20654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>$A$26/2</f>
         <v>31.25</v>
@@ -20579,7 +20680,7 @@
         <v>1.3674759131476527E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" ref="A40:A54" si="13">$A$26/2</f>
         <v>31.25</v>
@@ -20605,7 +20706,7 @@
         <v>1.3221032399490983E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20631,7 +20732,7 @@
         <v>1.2767336227571468E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20657,7 +20758,7 @@
         <v>1.2313650619583527E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20683,7 +20784,7 @@
         <v>1.1860080799199181E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20709,7 +20810,7 @@
         <v>1.1406481550477082E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20735,7 +20836,7 @@
         <v>1.0952439329318782E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20761,7 +20862,7 @@
         <v>1.0498971675131235E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20787,7 +20888,7 @@
         <v>1.0045486158377215E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20813,7 +20914,7 @@
         <v>9.5917481203962613E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20839,7 +20940,7 @@
         <v>9.1379701161245063E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20865,7 +20966,7 @@
         <v>8.6843647004958627E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20891,7 +20992,7 @@
         <v>8.2311444284474157E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20917,7 +21018,7 @@
         <v>7.7776274277192537E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20943,7 +21044,7 @@
         <v>7.3240262532503686E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -20969,40 +21070,40 @@
         <v>6.870553459974036E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
       <c r="F55">
         <f>SUM(F39:F54)/A37</f>
         <v>1.0272354524814606E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
         <v>32</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -21022,7 +21123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>$A$39/2</f>
         <v>15.625</v>
@@ -21048,7 +21149,7 @@
         <v>4.9849395906614111E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" ref="A61:A91" si="19">$A$39/2</f>
         <v>15.625</v>
@@ -21074,7 +21175,7 @@
         <v>5.1248981725587183E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21100,7 +21201,7 @@
         <v>5.2648624258306324E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21126,7 +21227,7 @@
         <v>5.404792765661165E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21152,7 +21253,7 @@
         <v>5.5447179124319653E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21178,7 +21279,7 @@
         <v>5.6847197127891736E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21204,7 +21305,7 @@
         <v>5.8248167678258125E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21230,7 +21331,7 @@
         <v>5.9647620473114102E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21256,7 +21357,7 @@
         <v>6.1046879943351048E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21282,7 +21383,7 @@
         <v>6.2448535430916696E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21308,7 +21409,7 @@
         <v>6.3848851722447713E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21334,7 +21435,7 @@
         <v>6.5247888337763363E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21360,7 +21461,7 @@
         <v>6.6650764440942143E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21386,7 +21487,7 @@
         <v>6.8046155352232971E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21412,7 +21513,7 @@
         <v>6.9448034613169675E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21438,7 +21539,7 @@
         <v>7.085519683250616E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21464,7 +21565,7 @@
         <v>7.2247462953047266E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21490,7 +21591,7 @@
         <v>7.3642601249518406E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21516,7 +21617,7 @@
         <v>7.5045730885968881E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21542,7 +21643,7 @@
         <v>7.6449321915879661E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21568,7 +21669,7 @@
         <v>7.7845844392668839E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21594,7 +21695,7 @@
         <v>7.9240417480408148E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21620,7 +21721,7 @@
         <v>8.0650809453840996E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21646,7 +21747,7 @@
         <v>8.2056841255740785E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21672,7 +21773,7 @@
         <v>8.3450982939579504E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21698,7 +21799,7 @@
         <v>8.4851002780064588E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21724,7 +21825,7 @@
         <v>8.6249370830623114E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21750,7 +21851,7 @@
         <v>8.7651206255326842E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21776,7 +21877,7 @@
         <v>8.9048979107620788E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21802,7 +21903,7 @@
         <v>9.044780855161267E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21828,7 +21929,7 @@
         <v>9.1852813751374229E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -21854,14 +21955,14 @@
         <v>9.3256464760332544E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
       <c r="F92">
         <f>SUM(F60:F91)/A58</f>
         <v>7.1548908099613754E-3</v>
@@ -21869,6 +21970,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="Q20:U20"/>
     <mergeCell ref="A15:F15"/>
@@ -21882,19 +21996,6 @@
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21909,64 +22010,64 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="I1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="I1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="Q1" s="12" t="s">
+      <c r="J1" s="12"/>
+      <c r="Q1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="12"/>
+      <c r="R1" s="14"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="12"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="12"/>
+      <c r="X1" s="14"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="12"/>
+      <c r="AA1" s="14"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="12"/>
+      <c r="AD1" s="14"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="12"/>
+      <c r="AG1" s="14"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="I2" t="s">
         <v>15</v>
       </c>
@@ -22013,7 +22114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -22079,7 +22180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -22150,14 +22251,14 @@
         <v>7.8063220000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5">
         <f>SUM(F4)/A2</f>
         <v>3.6232594258468739E-2</v>
@@ -22203,7 +22304,7 @@
         <v>0.30669419999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="W6">
         <v>375</v>
       </c>
@@ -22233,15 +22334,15 @@
         <v>0.68103590000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="W7">
         <v>500</v>
       </c>
@@ -22271,15 +22372,15 @@
         <v>1.196231</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="Z8">
         <v>312.5</v>
       </c>
@@ -22303,7 +22404,7 @@
         <v>1.847423</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -22345,7 +22446,7 @@
         <v>2.6297549999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>$A$4/2</f>
         <v>250</v>
@@ -22393,7 +22494,7 @@
         <v>3.53837</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>$A$4/2</f>
         <v>250</v>
@@ -22441,14 +22542,14 @@
         <v>4.5684089999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12">
         <f>SUM(F10:F11)/A8</f>
         <v>2.2645263180509329E-2</v>
@@ -22470,7 +22571,7 @@
         <v>5.7150179999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AC13">
         <v>312.5</v>
       </c>
@@ -22488,15 +22589,15 @@
         <v>6.9733390000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="I14" t="s">
         <v>29</v>
       </c>
@@ -22520,15 +22621,15 @@
         <v>8.3385130000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>4</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="I15">
         <f>A4</f>
         <v>500</v>
@@ -22554,7 +22655,7 @@
         <v>9.8056850000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -22598,7 +22699,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>$A$10/2</f>
         <v>125</v>
@@ -22648,7 +22749,7 @@
         <v>13.026590000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ref="A18:A20" si="1">$A$10/2</f>
         <v>125</v>
@@ -22698,7 +22799,7 @@
         <v>14.770619999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -22748,7 +22849,7 @@
         <v>16.59721</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -22781,11 +22882,11 @@
         <f>F60</f>
         <v>4.9849395906614111E-3</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -22800,14 +22901,14 @@
         <v>18.50151</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21">
         <f>SUM(F17:F20)/A15</f>
         <v>1.5280597202030444E-2</v>
@@ -22823,7 +22924,7 @@
         <v>20.478670000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AF22">
         <v>296.875</v>
       </c>
@@ -22835,15 +22936,15 @@
         <v>22.52383</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="AF23">
         <v>312.5</v>
       </c>
@@ -22855,15 +22956,15 @@
         <v>24.63213</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
         <v>8</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="AF24">
         <v>328.125</v>
       </c>
@@ -22875,7 +22976,7 @@
         <v>26.79871</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -22905,7 +23006,7 @@
         <v>29.018719999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -22941,7 +23042,7 @@
         <v>31.287310000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ref="A27:A33" si="7">$A$17/2</f>
         <v>62.5</v>
@@ -22977,7 +23078,7 @@
         <v>33.599600000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -23013,7 +23114,7 @@
         <v>35.950749999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -23049,7 +23150,7 @@
         <v>38.335900000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -23085,7 +23186,7 @@
         <v>40.750190000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>$A$17/2</f>
         <v>62.5</v>
@@ -23121,7 +23222,7 @@
         <v>43.188769999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -23157,7 +23258,7 @@
         <v>45.646769999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>62.5</v>
@@ -23193,14 +23294,14 @@
         <v>48.119349999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
       <c r="F34">
         <f>SUM(F26:F33)/A24</f>
         <v>1.0998549981516172E-2</v>
@@ -23216,7 +23317,7 @@
         <v>50.601640000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AF35">
         <v>500</v>
       </c>
@@ -23228,27 +23329,27 @@
         <v>53.088790000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
         <v>16</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -23268,7 +23369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>$A$26/2</f>
         <v>31.25</v>
@@ -23294,7 +23395,7 @@
         <v>1.025847951995945E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" ref="A40:A54" si="13">$A$26/2</f>
         <v>31.25</v>
@@ -23320,7 +23421,7 @@
         <v>1.002197546855846E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23346,7 +23447,7 @@
         <v>9.7854667270335805E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23372,7 +23473,7 @@
         <v>9.5490137976974778E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23398,7 +23499,7 @@
         <v>9.3125787958712996E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23424,7 +23525,7 @@
         <v>9.0762848337719495E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23450,7 +23551,7 @@
         <v>8.8395842032216367E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23476,7 +23577,7 @@
         <v>8.6029130659527261E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23502,7 +23603,7 @@
         <v>8.3670653545746716E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23528,7 +23629,7 @@
         <v>8.1302411628438546E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23554,7 +23655,7 @@
         <v>7.8939946864814287E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23580,7 +23681,7 @@
         <v>7.6571968396337425E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23606,7 +23707,7 @@
         <v>7.4214018180254462E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23632,7 +23733,7 @@
         <v>7.1850333222091521E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23658,7 +23759,7 @@
         <v>6.9487511207125072E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="13"/>
         <v>31.25</v>
@@ -23684,40 +23785,40 @@
         <v>6.7123205548782284E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
       <c r="F55">
         <f>SUM(F39:F54)/A37</f>
         <v>8.4851438294641004E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
         <v>32</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -23737,7 +23838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>$A$39/2</f>
         <v>15.625</v>
@@ -23763,7 +23864,7 @@
         <v>4.9849395906614111E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" ref="A61:A91" si="19">$A$39/2</f>
         <v>15.625</v>
@@ -23789,7 +23890,7 @@
         <v>5.1248981725587183E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -23815,7 +23916,7 @@
         <v>5.2648624258306324E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -23841,7 +23942,7 @@
         <v>5.404792765661165E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -23867,7 +23968,7 @@
         <v>5.5447179124319653E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -23893,7 +23994,7 @@
         <v>5.6847197127891736E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -23919,7 +24020,7 @@
         <v>5.8248167678258125E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -23945,7 +24046,7 @@
         <v>5.9647620473114102E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -23971,7 +24072,7 @@
         <v>6.1046879943351048E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -23997,7 +24098,7 @@
         <v>6.2448535430916696E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24023,7 +24124,7 @@
         <v>6.3848851722447713E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24049,7 +24150,7 @@
         <v>6.5247888337763363E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24075,7 +24176,7 @@
         <v>6.6650764440942143E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24101,7 +24202,7 @@
         <v>6.8046155352232971E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24127,7 +24228,7 @@
         <v>6.9448034613169675E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24153,7 +24254,7 @@
         <v>7.085519683250616E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24179,7 +24280,7 @@
         <v>7.2247462953047266E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24205,7 +24306,7 @@
         <v>7.3642601249518406E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24231,7 +24332,7 @@
         <v>7.5045730885968881E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24257,7 +24358,7 @@
         <v>7.6449321915879661E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24283,7 +24384,7 @@
         <v>7.7845844392668839E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24309,7 +24410,7 @@
         <v>7.9240417480408148E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24335,7 +24436,7 @@
         <v>8.0650809453840996E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24361,7 +24462,7 @@
         <v>8.2056841255740785E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24387,7 +24488,7 @@
         <v>8.3450982939579504E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24413,7 +24514,7 @@
         <v>8.4851002780064588E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24439,7 +24540,7 @@
         <v>8.6249370830623114E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24465,7 +24566,7 @@
         <v>8.7651206255326842E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24491,7 +24592,7 @@
         <v>8.9048979107620788E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24517,7 +24618,7 @@
         <v>9.044780855161267E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24543,7 +24644,7 @@
         <v>9.1852813751374229E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="19"/>
         <v>15.625</v>
@@ -24569,14 +24670,14 @@
         <v>9.3256464760332544E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
       <c r="F92">
         <f>SUM(F60:F91)/A58</f>
         <v>7.1548908099613754E-3</v>
@@ -24584,6 +24685,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="Q20:U20"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A58:F58"/>
@@ -24595,21 +24711,6 @@
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24624,9 +24725,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>500</v>
       </c>
@@ -24634,7 +24735,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>250</v>
       </c>
@@ -24642,7 +24743,7 @@
         <v>52.63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>125</v>
       </c>
@@ -24650,7 +24751,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -24673,17 +24774,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ec825916-6f01-4646-bf11-4e97fdd06dc8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="10202d72-3646-4d36-9cf4-1feba2c78df0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100744768CFAF743F4A83B0523C20156377" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafa440e1ffbdaf1b0956f4ac1c916a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ec825916-6f01-4646-bf11-4e97fdd06dc8" xmlns:ns3="10202d72-3646-4d36-9cf4-1feba2c78df0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a73fe93b8aa32af4ca50956a2221801" ns2:_="" ns3:_="">
     <xsd:import namespace="ec825916-6f01-4646-bf11-4e97fdd06dc8"/>
@@ -24878,6 +24968,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ec825916-6f01-4646-bf11-4e97fdd06dc8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="10202d72-3646-4d36-9cf4-1feba2c78df0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{049B9CA3-12FC-4CEB-9993-2AFFCD484BD9}">
   <ds:schemaRefs>
@@ -24887,23 +24988,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{302EDB21-6CB0-437A-8576-0759B92620D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ec825916-6f01-4646-bf11-4e97fdd06dc8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="10202d72-3646-4d36-9cf4-1feba2c78df0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{332CB245-0E6D-49DC-AFE1-91A0E15FC7DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24920,4 +25004,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{302EDB21-6CB0-437A-8576-0759B92620D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ec825916-6f01-4646-bf11-4e97fdd06dc8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10202d72-3646-4d36-9cf4-1feba2c78df0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>